--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>7.200000000000003</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>6.97674418604645</v>
+      </c>
       <c r="L12" t="n">
         <v>100.17</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>7.200000000000003</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>100.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>8.200000000000003</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>100.2</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>8.200000000000003</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>100.3</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>9.200000000000003</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>100.2</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>10.2</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>100.3</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>11.2</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>100.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>11.2</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>100.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>12.2</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
       <c r="L20" t="n">
         <v>100.4</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>16.10000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-32.58426966292139</v>
+      </c>
       <c r="L21" t="n">
         <v>100.11</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>20.00000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>7.812499999999993</v>
+      </c>
       <c r="L22" t="n">
         <v>100.21</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>23.70000000000002</v>
       </c>
       <c r="K23" t="n">
-        <v>-11.53846153846156</v>
+        <v>-23.87096774193548</v>
       </c>
       <c r="L23" t="n">
         <v>99.93999999999998</v>
@@ -1466,7 +1488,7 @@
         <v>23.80000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>-19.38775510204079</v>
+        <v>-24.35897435897433</v>
       </c>
       <c r="L24" t="n">
         <v>99.55999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>27.60000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>4.464285714285713</v>
+        <v>5.434782608695651</v>
       </c>
       <c r="L25" t="n">
         <v>99.55999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>28.7</v>
       </c>
       <c r="K26" t="n">
-        <v>-4.888888888888864</v>
+        <v>-5.945945945945915</v>
       </c>
       <c r="L26" t="n">
         <v>99.55</v>
@@ -1662,7 +1684,7 @@
         <v>29.8</v>
       </c>
       <c r="K28" t="n">
-        <v>4.424778761061948</v>
+        <v>5.376344086021507</v>
       </c>
       <c r="L28" t="n">
         <v>99.55</v>
@@ -1711,7 +1733,7 @@
         <v>30.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-5.376344086021507</v>
       </c>
       <c r="L29" t="n">
         <v>99.55</v>
@@ -1760,7 +1782,7 @@
         <v>31.8</v>
       </c>
       <c r="K30" t="n">
-        <v>4.065040650406504</v>
+        <v>24.84076433121025</v>
       </c>
       <c r="L30" t="n">
         <v>99.55</v>
@@ -1809,7 +1831,7 @@
         <v>32.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-7.812500000000011</v>
       </c>
       <c r="L31" t="n">
         <v>99.84</v>
@@ -1860,7 +1882,7 @@
         <v>37.7</v>
       </c>
       <c r="K32" t="n">
-        <v>-16.06557377049182</v>
+        <v>-15.71428571428575</v>
       </c>
       <c r="L32" t="n">
         <v>99.25</v>
@@ -1911,7 +1933,7 @@
         <v>41.90000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>-2.017291066282429</v>
+        <v>11.60220994475135</v>
       </c>
       <c r="L33" t="n">
         <v>99.45</v>
@@ -1962,7 +1984,7 @@
         <v>42.60000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.906976744186046</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L34" t="n">
         <v>99.72999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>42.60000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>-2.906976744186046</v>
+        <v>0.7194244604316136</v>
       </c>
       <c r="L35" t="n">
         <v>99.63</v>
@@ -2064,7 +2086,7 @@
         <v>43.50000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>-2.623906705539374</v>
+        <v>-6.122448979591868</v>
       </c>
       <c r="L36" t="n">
         <v>99.54999999999998</v>
@@ -2115,7 +2137,7 @@
         <v>45.10000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>-10.02865329512894</v>
+        <v>-22.87581699346403</v>
       </c>
       <c r="L37" t="n">
         <v>99.3</v>
@@ -2217,7 +2239,7 @@
         <v>47.7</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.2739726027397105</v>
+        <v>-6.918238993710654</v>
       </c>
       <c r="L39" t="n">
         <v>99.19000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>50.10000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>-9.234828496042216</v>
+        <v>-14.45086705202311</v>
       </c>
       <c r="L40" t="n">
         <v>98.84</v>
@@ -2319,7 +2341,7 @@
         <v>52.60000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>7.945205479452071</v>
+        <v>32.88590604026848</v>
       </c>
       <c r="L41" t="n">
         <v>98.84</v>
@@ -2370,7 +2392,7 @@
         <v>52.7</v>
       </c>
       <c r="K42" t="n">
-        <v>-3.363914373088669</v>
+        <v>5.555555555555635</v>
       </c>
       <c r="L42" t="n">
         <v>99.32000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>55.30000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-21.25984251968506</v>
       </c>
       <c r="L43" t="n">
         <v>99.12000000000003</v>
@@ -2472,7 +2494,7 @@
         <v>57.80000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>7.647058823529395</v>
+        <v>-1.315789473684229</v>
       </c>
       <c r="L44" t="n">
         <v>99.10000000000002</v>
@@ -2523,7 +2545,7 @@
         <v>58.00000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>-3.289473684210526</v>
+        <v>6.206896551724177</v>
       </c>
       <c r="L45" t="n">
         <v>99.10000000000002</v>
@@ -2574,7 +2596,7 @@
         <v>58.00000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3412969283276255</v>
+        <v>19.3798449612403</v>
       </c>
       <c r="L46" t="n">
         <v>99.19000000000003</v>
@@ -2676,7 +2698,7 @@
         <v>59.00000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>9.734513274336223</v>
       </c>
       <c r="L48" t="n">
         <v>99.54000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>60.00000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>25.25252525252524</v>
       </c>
       <c r="L49" t="n">
         <v>99.55000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>60.00000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>-3.54609929078014</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>99.8</v>
@@ -2829,7 +2851,7 @@
         <v>61.00000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>3.54609929078014</v>
+        <v>13.25301204819268</v>
       </c>
       <c r="L51" t="n">
         <v>99.90000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>62.00000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>20.16460905349795</v>
+        <v>40.29850746268659</v>
       </c>
       <c r="L52" t="n">
         <v>99.91</v>
@@ -2931,7 +2953,7 @@
         <v>63.00000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>8.056872037914701</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L53" t="n">
         <v>100.28</v>
@@ -3033,7 +3055,7 @@
         <v>65.00000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>4.464285714285713</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L55" t="n">
         <v>100.4</v>
@@ -3084,7 +3106,7 @@
         <v>65.00000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>8.837209302325608</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L56" t="n">
         <v>100.5</v>
@@ -3135,7 +3157,7 @@
         <v>65.00000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>17.58793969849246</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>100.6</v>
@@ -3186,7 +3208,7 @@
         <v>66.00000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>10.8695652173913</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>100.7</v>
@@ -3237,7 +3259,7 @@
         <v>68.00000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>20.19704433497533</v>
+        <v>50</v>
       </c>
       <c r="L59" t="n">
         <v>101.1</v>
@@ -3288,7 +3310,7 @@
         <v>71.00000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>16.74641148325358</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>101.2</v>
@@ -3339,7 +3361,7 @@
         <v>71.00000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>5.434782608695651</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L61" t="n">
         <v>101.2</v>
@@ -3390,7 +3412,7 @@
         <v>74.00000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>19.24882629107978</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L62" t="n">
         <v>101.6</v>
@@ -3441,7 +3463,7 @@
         <v>78.00000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>11.89427312775331</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>101.5</v>
@@ -3492,7 +3514,7 @@
         <v>82.00000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>17.35537190082646</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L64" t="n">
         <v>101.9</v>
@@ -3543,7 +3565,7 @@
         <v>86.00000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L65" t="n">
         <v>101.8</v>
@@ -3594,7 +3616,7 @@
         <v>86.00000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L66" t="n">
         <v>101.7</v>
@@ -3645,7 +3667,7 @@
         <v>86.00000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="L67" t="n">
         <v>101.6</v>
@@ -3696,7 +3718,7 @@
         <v>87.00000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L68" t="n">
         <v>101.5</v>
@@ -3747,7 +3769,7 @@
         <v>87.00000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>101.2</v>
@@ -3798,7 +3820,7 @@
         <v>88.00000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L70" t="n">
         <v>101.1</v>
@@ -3849,7 +3871,7 @@
         <v>89.00000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>-7.142857142857142</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>100.9</v>
@@ -3900,7 +3922,7 @@
         <v>89.80000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>-6.474820143884882</v>
+        <v>-15.25423728813557</v>
       </c>
       <c r="L72" t="n">
         <v>100.32</v>
@@ -3951,7 +3973,7 @@
         <v>91.60000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>-3.496503496503498</v>
+        <v>-41.66666666666669</v>
       </c>
       <c r="L73" t="n">
         <v>100.32</v>
@@ -4002,7 +4024,7 @@
         <v>92.60000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>3.496503496503498</v>
+        <v>15.15151515151517</v>
       </c>
       <c r="L74" t="n">
         <v>100.02</v>
@@ -4053,7 +4075,7 @@
         <v>92.60000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>15.15151515151517</v>
       </c>
       <c r="L75" t="n">
         <v>100.12</v>
@@ -4104,7 +4126,7 @@
         <v>92.60000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>15.15151515151517</v>
       </c>
       <c r="L76" t="n">
         <v>100.22</v>
@@ -4155,7 +4177,7 @@
         <v>94.60000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>6.756756756756759</v>
+        <v>26.31578947368423</v>
       </c>
       <c r="L77" t="n">
         <v>100.52</v>
@@ -4206,7 +4228,7 @@
         <v>94.60000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>3.496503496503498</v>
+        <v>26.31578947368423</v>
       </c>
       <c r="L78" t="n">
         <v>100.72</v>
@@ -4257,7 +4279,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>-18.47133757961783</v>
+        <v>-15.78947368421052</v>
       </c>
       <c r="L79" t="n">
         <v>100.44</v>
@@ -4308,7 +4330,7 @@
         <v>103.2</v>
       </c>
       <c r="K80" t="n">
-        <v>3.105590062111802</v>
+        <v>21.1267605633803</v>
       </c>
       <c r="L80" t="n">
         <v>100.64</v>
@@ -4359,7 +4381,7 @@
         <v>106.2</v>
       </c>
       <c r="K81" t="n">
-        <v>-5.681818181818183</v>
+        <v>4.87804878048779</v>
       </c>
       <c r="L81" t="n">
         <v>100.64</v>
@@ -4410,7 +4432,7 @@
         <v>109.9</v>
       </c>
       <c r="K82" t="n">
-        <v>-24.23398328690809</v>
+        <v>-25.68306010928963</v>
       </c>
       <c r="L82" t="n">
         <v>100.35</v>
@@ -4461,7 +4483,7 @@
         <v>118.6</v>
       </c>
       <c r="K83" t="n">
-        <v>9.852216748768475</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L83" t="n">
         <v>100.75</v>
@@ -4512,7 +4534,7 @@
         <v>127.2</v>
       </c>
       <c r="K84" t="n">
-        <v>-19.02654867256636</v>
+        <v>-16.18497109826588</v>
       </c>
       <c r="L84" t="n">
         <v>100.19</v>
@@ -4563,7 +4585,7 @@
         <v>130.8</v>
       </c>
       <c r="K85" t="n">
-        <v>-2.232142857142857</v>
+        <v>-5.235602094240837</v>
       </c>
       <c r="L85" t="n">
         <v>99.99000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>131.8</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>-8.064516129032258</v>
       </c>
       <c r="L86" t="n">
         <v>99.89000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>136.2</v>
       </c>
       <c r="K87" t="n">
-        <v>-8.764940239043835</v>
+        <v>-17.78846153846155</v>
       </c>
       <c r="L87" t="n">
         <v>99.15000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>140.5</v>
       </c>
       <c r="K88" t="n">
-        <v>-2.056074766355129</v>
+        <v>4.136253041362535</v>
       </c>
       <c r="L88" t="n">
         <v>98.84</v>
@@ -4767,7 +4789,7 @@
         <v>140.5</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.056074766355129</v>
+        <v>-5.630026809651455</v>
       </c>
       <c r="L89" t="n">
         <v>99.01000000000002</v>
@@ -4818,7 +4840,7 @@
         <v>140.5</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.1904761904761796</v>
+        <v>2.623906705539373</v>
       </c>
       <c r="L90" t="n">
         <v>98.80000000000003</v>
@@ -4869,7 +4891,7 @@
         <v>143.3</v>
       </c>
       <c r="K91" t="n">
-        <v>-3.499079189686934</v>
+        <v>5.389221556886214</v>
       </c>
       <c r="L91" t="n">
         <v>98.61000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>143.4</v>
       </c>
       <c r="K92" t="n">
-        <v>-2.238805970149258</v>
+        <v>-28.22580645161287</v>
       </c>
       <c r="L92" t="n">
         <v>98.78000000000002</v>
@@ -4971,7 +4993,7 @@
         <v>143.4</v>
       </c>
       <c r="K93" t="n">
-        <v>-5.791505791505789</v>
+        <v>9.876543209876489</v>
       </c>
       <c r="L93" t="n">
         <v>98.08000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>143.4</v>
       </c>
       <c r="K94" t="n">
-        <v>-7.874015748031492</v>
+        <v>-15.87301587301585</v>
       </c>
       <c r="L94" t="n">
         <v>98.24000000000002</v>
@@ -5073,7 +5095,7 @@
         <v>145.3</v>
       </c>
       <c r="K95" t="n">
-        <v>-3.984819734345338</v>
+        <v>-8.148148148148088</v>
       </c>
       <c r="L95" t="n">
         <v>98.23000000000002</v>
@@ -5124,7 +5146,7 @@
         <v>149.4</v>
       </c>
       <c r="K96" t="n">
-        <v>3.521126760563378</v>
+        <v>56.06060606060603</v>
       </c>
       <c r="L96" t="n">
         <v>98.53000000000002</v>
@@ -5175,7 +5197,7 @@
         <v>153.4</v>
       </c>
       <c r="K97" t="n">
-        <v>-6.802721088435371</v>
+        <v>-6.976744186046553</v>
       </c>
       <c r="L97" t="n">
         <v>98.87000000000002</v>
@@ -5226,7 +5248,7 @@
         <v>157.4</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>18.34319526627215</v>
       </c>
       <c r="L98" t="n">
         <v>99.18000000000004</v>
@@ -5277,7 +5299,7 @@
         <v>161.4</v>
       </c>
       <c r="K99" t="n">
-        <v>1.290322580645156</v>
+        <v>-4.306220095693805</v>
       </c>
       <c r="L99" t="n">
         <v>99.09000000000002</v>
@@ -5328,7 +5350,7 @@
         <v>161.4</v>
       </c>
       <c r="K100" t="n">
-        <v>-5.154639175257729</v>
+        <v>10.49723756906081</v>
       </c>
       <c r="L100" t="n">
         <v>99.00000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>164.2</v>
       </c>
       <c r="K101" t="n">
-        <v>-4.827586206896544</v>
+        <v>-3.84615384615383</v>
       </c>
       <c r="L101" t="n">
         <v>98.91</v>
@@ -5430,7 +5452,7 @@
         <v>174.0000000000001</v>
       </c>
       <c r="K102" t="n">
-        <v>16.69266770670826</v>
+        <v>29.41176470588233</v>
       </c>
       <c r="L102" t="n">
         <v>99.80999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>180.7</v>
       </c>
       <c r="K103" t="n">
-        <v>-7.568438003220612</v>
+        <v>6.166219839142081</v>
       </c>
       <c r="L103" t="n">
         <v>100.04</v>
@@ -5532,7 +5554,7 @@
         <v>181.3000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>8.317929759704242</v>
+        <v>2.777777777777775</v>
       </c>
       <c r="L104" t="n">
         <v>100.33</v>
@@ -5583,7 +5605,7 @@
         <v>182.4000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>3.875968992248059</v>
+        <v>-6.060606060606055</v>
       </c>
       <c r="L105" t="n">
         <v>100.54</v>
@@ -5634,7 +5656,7 @@
         <v>185.4000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>7.462686567164171</v>
+        <v>15.62499999999999</v>
       </c>
       <c r="L106" t="n">
         <v>100.64</v>
@@ -5685,7 +5707,7 @@
         <v>186.4000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>14.7410358565737</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>101.04</v>
@@ -5736,7 +5758,7 @@
         <v>187.4000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>8.742004264392305</v>
+        <v>19.23076923076921</v>
       </c>
       <c r="L108" t="n">
         <v>101.14</v>
@@ -5787,7 +5809,7 @@
         <v>190.4000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>2.204408817635258</v>
+        <v>6.896551724137924</v>
       </c>
       <c r="L109" t="n">
         <v>101.34</v>
@@ -5838,7 +5860,7 @@
         <v>190.4000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>2.204408817635258</v>
+        <v>18.32061068702288</v>
       </c>
       <c r="L110" t="n">
         <v>101.54</v>
@@ -5889,7 +5911,7 @@
         <v>193.4000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>13.77245508982037</v>
+        <v>-10.30927835051546</v>
       </c>
       <c r="L111" t="n">
         <v>102.32</v>
@@ -5940,7 +5962,7 @@
         <v>193.4000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>13.99999999999999</v>
+        <v>37.007874015748</v>
       </c>
       <c r="L112" t="n">
         <v>102.12</v>
@@ -5991,7 +6013,7 @@
         <v>195.4000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>9.61538461538461</v>
+        <v>14.89361702127656</v>
       </c>
       <c r="L113" t="n">
         <v>102.39</v>
@@ -6042,7 +6064,7 @@
         <v>195.4000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>9.61538461538461</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L114" t="n">
         <v>102.6</v>
@@ -6093,7 +6115,7 @@
         <v>195.4000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>6.187624750498988</v>
+        <v>-20</v>
       </c>
       <c r="L115" t="n">
         <v>102.7</v>
@@ -6195,7 +6217,7 @@
         <v>196.4000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>9.302325581395344</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L117" t="n">
         <v>102.6</v>
@@ -6246,7 +6268,7 @@
         <v>196.4000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L118" t="n">
         <v>102.5</v>
@@ -6297,7 +6319,7 @@
         <v>196.4000000000001</v>
       </c>
       <c r="K119" t="n">
-        <v>11.42857142857142</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>102.7</v>
@@ -6348,7 +6370,7 @@
         <v>197.4000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>8.333333333333327</v>
+        <v>-50</v>
       </c>
       <c r="L120" t="n">
         <v>102.8</v>
@@ -6399,7 +6421,7 @@
         <v>197.4000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>17.46987951807227</v>
+        <v>-50</v>
       </c>
       <c r="L121" t="n">
         <v>102.6</v>
@@ -6450,7 +6472,7 @@
         <v>197.4000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>-17.09401709401709</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>102.4</v>
@@ -6501,7 +6523,7 @@
         <v>197.4000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>16.16766467065868</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>102.4</v>
@@ -6552,7 +6574,7 @@
         <v>198.4000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>6.432748538011665</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>102.3</v>
@@ -6603,7 +6625,7 @@
         <v>199.4000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>102.3</v>
@@ -6654,7 +6676,7 @@
         <v>199.4000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>102.2</v>
@@ -6705,7 +6727,7 @@
         <v>199.4000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>102.1</v>
@@ -6756,7 +6778,7 @@
         <v>200.4000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L128" t="n">
         <v>101.9</v>
@@ -6807,7 +6829,7 @@
         <v>200.4000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>101.7</v>
@@ -6858,7 +6880,7 @@
         <v>200.4000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>101.6</v>
@@ -7011,7 +7033,7 @@
         <v>202.1000000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>-40.29850746268651</v>
+        <v>-45.94594594594581</v>
       </c>
       <c r="L133" t="n">
         <v>100.93</v>
@@ -7113,7 +7135,7 @@
         <v>205.8000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>9.61538461538461</v>
+        <v>15.62499999999999</v>
       </c>
       <c r="L135" t="n">
         <v>101.13</v>

--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S135"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.900000000000006</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.900000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.200000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.200000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.200000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7.200000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7.200000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7.200000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7.200000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7.200000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>99.84999999999999</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7.200000000000003</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6.97674418604645</v>
-      </c>
-      <c r="L12" t="n">
-        <v>100.17</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7.200000000000003</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L13" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8.200000000000003</v>
-      </c>
-      <c r="K14" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L14" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8.200000000000003</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9.200000000000003</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L17" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J18" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J19" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J20" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>20</v>
-      </c>
-      <c r="L20" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J21" t="n">
-        <v>16.10000000000001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-32.58426966292139</v>
-      </c>
-      <c r="L21" t="n">
-        <v>100.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>99.97999999999999</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J22" t="n">
-        <v>20.00000000000001</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7.812499999999993</v>
-      </c>
-      <c r="L22" t="n">
-        <v>100.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>100.19</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>23.70000000000002</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-23.87096774193548</v>
-      </c>
-      <c r="L23" t="n">
-        <v>99.93999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>100.07</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J24" t="n">
-        <v>23.80000000000001</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-24.35897435897433</v>
-      </c>
-      <c r="L24" t="n">
-        <v>99.55999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>99.88</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J25" t="n">
-        <v>27.60000000000001</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.434782608695651</v>
-      </c>
-      <c r="L25" t="n">
-        <v>99.55999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>99.92999999999999</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1291,19 @@
         <v>99.74833333333336</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.100000000000009</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>28.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>-5.945945945945915</v>
-      </c>
-      <c r="L26" t="n">
-        <v>99.55</v>
-      </c>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>99.875</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1333,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J27" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>99.45</v>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>99.875</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1374,18 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J28" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>5.376344086021507</v>
-      </c>
-      <c r="L28" t="n">
-        <v>99.55</v>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>99.925</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1415,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J29" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-5.376344086021507</v>
-      </c>
-      <c r="L29" t="n">
-        <v>99.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>99.925</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1450,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J30" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K30" t="n">
-        <v>24.84076433121025</v>
-      </c>
-      <c r="L30" t="n">
-        <v>99.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>99.97499999999999</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1485,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J31" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-7.812500000000011</v>
-      </c>
-      <c r="L31" t="n">
-        <v>99.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>99.97499999999999</v>
-      </c>
-      <c r="N31" t="n">
-        <v>99.93333333333334</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1520,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.700000000000003</v>
-      </c>
-      <c r="J32" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-15.71428571428575</v>
-      </c>
-      <c r="L32" t="n">
-        <v>99.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>99.72999999999999</v>
-      </c>
-      <c r="N32" t="n">
-        <v>99.87666666666665</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1555,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>41.90000000000001</v>
-      </c>
-      <c r="K33" t="n">
-        <v>11.60220994475135</v>
-      </c>
-      <c r="L33" t="n">
-        <v>99.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>99.69500000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>99.86333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1590,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J34" t="n">
-        <v>42.60000000000001</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>99.72999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>99.64500000000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>99.83</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1625,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J35" t="n">
-        <v>42.60000000000001</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.7194244604316136</v>
-      </c>
-      <c r="L35" t="n">
-        <v>99.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>99.595</v>
-      </c>
-      <c r="N35" t="n">
-        <v>99.83</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1660,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="J36" t="n">
-        <v>43.50000000000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-6.122448979591868</v>
-      </c>
-      <c r="L36" t="n">
-        <v>99.54999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>99.55</v>
-      </c>
-      <c r="N36" t="n">
-        <v>99.76666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1695,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J37" t="n">
-        <v>45.10000000000001</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-22.87581699346403</v>
-      </c>
-      <c r="L37" t="n">
-        <v>99.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>99.375</v>
-      </c>
-      <c r="N37" t="n">
-        <v>99.68333333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1730,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J38" t="n">
-        <v>47.60000000000001</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>99.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>99.375</v>
-      </c>
-      <c r="N38" t="n">
-        <v>99.68333333333334</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1765,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.100000000000009</v>
-      </c>
-      <c r="J39" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-6.918238993710654</v>
-      </c>
-      <c r="L39" t="n">
-        <v>99.19000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="N39" t="n">
-        <v>99.68000000000001</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1800,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J40" t="n">
-        <v>50.10000000000001</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-14.45086705202311</v>
-      </c>
-      <c r="L40" t="n">
-        <v>98.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>99.19500000000001</v>
-      </c>
-      <c r="N40" t="n">
-        <v>99.59666666666666</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1835,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J41" t="n">
-        <v>52.60000000000001</v>
-      </c>
-      <c r="K41" t="n">
-        <v>32.88590604026848</v>
-      </c>
-      <c r="L41" t="n">
-        <v>98.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>99.34</v>
-      </c>
-      <c r="N41" t="n">
-        <v>99.59666666666666</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1870,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.100000000000009</v>
-      </c>
-      <c r="J42" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="K42" t="n">
-        <v>5.555555555555635</v>
-      </c>
-      <c r="L42" t="n">
-        <v>99.32000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>99.28500000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>99.59333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1905,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>55.30000000000001</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-21.25984251968506</v>
-      </c>
-      <c r="L43" t="n">
-        <v>99.12000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>99.28500000000003</v>
-      </c>
-      <c r="N43" t="n">
-        <v>99.50333333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1940,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>57.80000000000001</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-1.315789473684229</v>
-      </c>
-      <c r="L44" t="n">
-        <v>99.10000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>99.41500000000002</v>
-      </c>
-      <c r="N44" t="n">
-        <v>99.46333333333335</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,31 +1972,21 @@
         <v>99.56666666666668</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>58.00000000000001</v>
-      </c>
-      <c r="K45" t="n">
-        <v>6.206896551724177</v>
-      </c>
-      <c r="L45" t="n">
-        <v>99.10000000000002</v>
+        <v>99.8</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>99.36500000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>99.43000000000002</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2016,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J46" t="n">
-        <v>58.00000000000001</v>
-      </c>
-      <c r="K46" t="n">
-        <v>19.3798449612403</v>
-      </c>
-      <c r="L46" t="n">
-        <v>99.19000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="N46" t="n">
-        <v>99.43000000000002</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2055,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J47" t="n">
-        <v>58.00000000000001</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>99.44000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="N47" t="n">
-        <v>99.39666666666669</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2094,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J48" t="n">
-        <v>59.00000000000001</v>
-      </c>
-      <c r="K48" t="n">
-        <v>9.734513274336223</v>
-      </c>
-      <c r="L48" t="n">
-        <v>99.54000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="N48" t="n">
-        <v>99.43000000000002</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2133,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J49" t="n">
-        <v>60.00000000000001</v>
-      </c>
-      <c r="K49" t="n">
-        <v>25.25252525252524</v>
-      </c>
-      <c r="L49" t="n">
-        <v>99.55000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="N49" t="n">
-        <v>99.43000000000002</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2172,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J50" t="n">
-        <v>60.00000000000001</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>99.8</v>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>99.32000000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>99.39666666666669</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2211,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J51" t="n">
-        <v>61.00000000000001</v>
-      </c>
-      <c r="K51" t="n">
-        <v>13.25301204819268</v>
-      </c>
-      <c r="L51" t="n">
-        <v>99.90000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="N51" t="n">
-        <v>99.52666666666669</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2250,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J52" t="n">
-        <v>62.00000000000001</v>
-      </c>
-      <c r="K52" t="n">
-        <v>40.29850746268659</v>
-      </c>
-      <c r="L52" t="n">
-        <v>99.91</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>99.61500000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>99.49333333333335</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2289,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J53" t="n">
-        <v>63.00000000000001</v>
-      </c>
-      <c r="K53" t="n">
-        <v>23.07692307692312</v>
-      </c>
-      <c r="L53" t="n">
-        <v>100.28</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>99.70000000000002</v>
-      </c>
-      <c r="N53" t="n">
-        <v>99.61666666666669</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2328,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J54" t="n">
-        <v>64.00000000000001</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>100.3</v>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="N54" t="n">
-        <v>99.71000000000002</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2367,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J55" t="n">
-        <v>65.00000000000001</v>
-      </c>
-      <c r="K55" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L55" t="n">
-        <v>100.4</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>99.75</v>
-      </c>
-      <c r="N55" t="n">
-        <v>99.71000000000002</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2406,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J56" t="n">
-        <v>65.00000000000001</v>
-      </c>
-      <c r="K56" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L56" t="n">
-        <v>100.5</v>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>99.845</v>
-      </c>
-      <c r="N56" t="n">
-        <v>99.74666666666668</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2445,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J57" t="n">
-        <v>65.00000000000001</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>100.6</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>100.02</v>
-      </c>
-      <c r="N57" t="n">
-        <v>99.78000000000002</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2484,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J58" t="n">
-        <v>66.00000000000001</v>
-      </c>
-      <c r="K58" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L58" t="n">
-        <v>100.7</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>100.12</v>
-      </c>
-      <c r="N58" t="n">
-        <v>99.81333333333335</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2523,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>7.200000000000003</v>
-      </c>
-      <c r="J59" t="n">
-        <v>68.00000000000001</v>
-      </c>
-      <c r="K59" t="n">
-        <v>50</v>
-      </c>
-      <c r="L59" t="n">
-        <v>101.1</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>100.325</v>
-      </c>
-      <c r="N59" t="n">
-        <v>99.94666666666669</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2562,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J60" t="n">
-        <v>71.00000000000001</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>101.2</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="N60" t="n">
-        <v>99.94666666666669</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,30 +2601,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J61" t="n">
-        <v>71.00000000000001</v>
-      </c>
-      <c r="K61" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L61" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="M61" t="n">
-        <v>100.55</v>
-      </c>
-      <c r="N61" t="n">
-        <v>99.98000000000002</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3406,28 +2638,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>7.200000000000003</v>
-      </c>
-      <c r="J62" t="n">
-        <v>74.00000000000001</v>
-      </c>
-      <c r="K62" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L62" t="n">
-        <v>101.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>100.755</v>
-      </c>
-      <c r="N62" t="n">
-        <v>100.2766666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2673,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J63" t="n">
-        <v>78.00000000000001</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>101.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>100.89</v>
-      </c>
-      <c r="N63" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2708,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>7.200000000000003</v>
-      </c>
-      <c r="J64" t="n">
-        <v>82.00000000000001</v>
-      </c>
-      <c r="K64" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L64" t="n">
-        <v>101.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="N64" t="n">
-        <v>100.4333333333334</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2743,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J65" t="n">
-        <v>86.00000000000001</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L65" t="n">
-        <v>101.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="N65" t="n">
-        <v>100.4333333333334</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2778,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J66" t="n">
-        <v>86.00000000000001</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L66" t="n">
-        <v>101.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="N66" t="n">
-        <v>100.4633333333334</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2813,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J67" t="n">
-        <v>86.00000000000001</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L67" t="n">
-        <v>101.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="N67" t="n">
-        <v>100.5466666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2848,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J68" t="n">
-        <v>87.00000000000001</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L68" t="n">
-        <v>101.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="N68" t="n">
-        <v>100.58</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2883,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J69" t="n">
-        <v>87.00000000000001</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>101.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>101.15</v>
-      </c>
-      <c r="N69" t="n">
-        <v>100.6166666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2918,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J70" t="n">
-        <v>88.00000000000001</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L70" t="n">
-        <v>101.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>101.15</v>
-      </c>
-      <c r="N70" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2953,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J71" t="n">
-        <v>89.00000000000001</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L71" t="n">
-        <v>100.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>101.05</v>
-      </c>
-      <c r="N71" t="n">
-        <v>100.6666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2988,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J72" t="n">
-        <v>89.80000000000001</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-15.25423728813557</v>
-      </c>
-      <c r="L72" t="n">
-        <v>100.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>100.96</v>
-      </c>
-      <c r="N72" t="n">
-        <v>100.61</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3023,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J73" t="n">
-        <v>91.60000000000001</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-41.66666666666669</v>
-      </c>
-      <c r="L73" t="n">
-        <v>100.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>100.91</v>
-      </c>
-      <c r="N73" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3058,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J74" t="n">
-        <v>92.60000000000001</v>
-      </c>
-      <c r="K74" t="n">
-        <v>15.15151515151517</v>
-      </c>
-      <c r="L74" t="n">
-        <v>100.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>100.96</v>
-      </c>
-      <c r="N74" t="n">
-        <v>100.74</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3093,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J75" t="n">
-        <v>92.60000000000001</v>
-      </c>
-      <c r="K75" t="n">
-        <v>15.15151515151517</v>
-      </c>
-      <c r="L75" t="n">
-        <v>100.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>100.96</v>
-      </c>
-      <c r="N75" t="n">
-        <v>100.7733333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3128,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J76" t="n">
-        <v>92.60000000000001</v>
-      </c>
-      <c r="K76" t="n">
-        <v>15.15151515151517</v>
-      </c>
-      <c r="L76" t="n">
-        <v>100.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>100.96</v>
-      </c>
-      <c r="N76" t="n">
-        <v>100.8066666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3163,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>6.200000000000003</v>
-      </c>
-      <c r="J77" t="n">
-        <v>94.60000000000001</v>
-      </c>
-      <c r="K77" t="n">
-        <v>26.31578947368423</v>
-      </c>
-      <c r="L77" t="n">
-        <v>100.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>101.06</v>
-      </c>
-      <c r="N77" t="n">
-        <v>100.9066666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3198,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>6.200000000000003</v>
-      </c>
-      <c r="J78" t="n">
-        <v>94.60000000000001</v>
-      </c>
-      <c r="K78" t="n">
-        <v>26.31578947368423</v>
-      </c>
-      <c r="L78" t="n">
-        <v>100.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>101.11</v>
-      </c>
-      <c r="N78" t="n">
-        <v>100.9733333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3233,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J79" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-15.78947368421052</v>
-      </c>
-      <c r="L79" t="n">
-        <v>100.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>100.82</v>
-      </c>
-      <c r="N79" t="n">
-        <v>100.9133333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3268,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J80" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="K80" t="n">
-        <v>21.1267605633803</v>
-      </c>
-      <c r="L80" t="n">
-        <v>100.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>100.87</v>
-      </c>
-      <c r="N80" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3303,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J81" t="n">
-        <v>106.2</v>
-      </c>
-      <c r="K81" t="n">
-        <v>4.87804878048779</v>
-      </c>
-      <c r="L81" t="n">
-        <v>100.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>100.77</v>
-      </c>
-      <c r="N81" t="n">
-        <v>100.9133333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3338,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>109.9</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-25.68306010928963</v>
-      </c>
-      <c r="L82" t="n">
-        <v>100.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>100.335</v>
-      </c>
-      <c r="N82" t="n">
-        <v>100.7566666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3373,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>7.200000000000003</v>
-      </c>
-      <c r="J83" t="n">
-        <v>118.6</v>
-      </c>
-      <c r="K83" t="n">
-        <v>11.53846153846154</v>
-      </c>
-      <c r="L83" t="n">
-        <v>100.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>100.535</v>
-      </c>
-      <c r="N83" t="n">
-        <v>100.8566666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3408,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-1.399999999999991</v>
-      </c>
-      <c r="J84" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-16.18497109826588</v>
-      </c>
-      <c r="L84" t="n">
-        <v>100.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>100.105</v>
-      </c>
-      <c r="N84" t="n">
-        <v>100.7033333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3443,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J85" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-5.235602094240837</v>
-      </c>
-      <c r="L85" t="n">
-        <v>99.99000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>100.055</v>
-      </c>
-      <c r="N85" t="n">
-        <v>100.6366666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3478,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J86" t="n">
-        <v>131.8</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-8.064516129032258</v>
-      </c>
-      <c r="L86" t="n">
-        <v>99.89000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>100.055</v>
-      </c>
-      <c r="N86" t="n">
-        <v>100.6033333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3513,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-1.200000000000003</v>
-      </c>
-      <c r="J87" t="n">
-        <v>136.2</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-17.78846153846155</v>
-      </c>
-      <c r="L87" t="n">
-        <v>99.15000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>99.83499999999999</v>
-      </c>
-      <c r="N87" t="n">
-        <v>100.4233333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3548,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>3.100000000000009</v>
-      </c>
-      <c r="J88" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="K88" t="n">
-        <v>4.136253041362535</v>
-      </c>
-      <c r="L88" t="n">
-        <v>98.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>99.78</v>
-      </c>
-      <c r="N88" t="n">
-        <v>100.3533333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,31 +3580,21 @@
         <v>100.0816666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>3.100000000000009</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-5.630026809651455</v>
-      </c>
-      <c r="L89" t="n">
-        <v>99.01000000000002</v>
+        <v>98</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>99.72499999999999</v>
-      </c>
-      <c r="N89" t="n">
-        <v>100.2166666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3621,21 @@
         <v>100.0633333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>3.100000000000009</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="K90" t="n">
-        <v>2.623906705539373</v>
-      </c>
-      <c r="L90" t="n">
-        <v>98.80000000000003</v>
+        <v>98</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>99.72</v>
-      </c>
-      <c r="N90" t="n">
-        <v>100.18</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3665,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J91" t="n">
-        <v>143.3</v>
-      </c>
-      <c r="K91" t="n">
-        <v>5.389221556886214</v>
-      </c>
-      <c r="L91" t="n">
-        <v>98.61000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>99.625</v>
-      </c>
-      <c r="N91" t="n">
-        <v>100.05</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3704,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J92" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-28.22580645161287</v>
-      </c>
-      <c r="L92" t="n">
-        <v>98.78000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>99.565</v>
-      </c>
-      <c r="N92" t="n">
-        <v>99.81666666666666</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +3740,21 @@
         <v>100.0083333333334</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="K93" t="n">
-        <v>9.876543209876489</v>
-      </c>
-      <c r="L93" t="n">
-        <v>98.08000000000001</v>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>99.41500000000001</v>
-      </c>
-      <c r="N93" t="n">
-        <v>99.71666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +3781,21 @@
         <v>99.95833333333334</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-15.87301587301585</v>
-      </c>
-      <c r="L94" t="n">
-        <v>98.24000000000002</v>
+        <v>97</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>99.215</v>
-      </c>
-      <c r="N94" t="n">
-        <v>99.48333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +3822,21 @@
         <v>99.94000000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>2.100000000000009</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-8.148148148148088</v>
-      </c>
-      <c r="L95" t="n">
-        <v>98.23000000000002</v>
+        <v>97</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>99.11000000000001</v>
-      </c>
-      <c r="N95" t="n">
-        <v>99.44666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +3863,21 @@
         <v>100.005</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>6.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>149.4</v>
-      </c>
-      <c r="K96" t="n">
-        <v>56.06060606060603</v>
-      </c>
-      <c r="L96" t="n">
-        <v>98.53000000000002</v>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>99.21000000000001</v>
-      </c>
-      <c r="N96" t="n">
-        <v>99.54666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,31 +3904,21 @@
         <v>100.03</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>2.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-6.976744186046553</v>
-      </c>
-      <c r="L97" t="n">
-        <v>98.87000000000002</v>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>99.01000000000002</v>
-      </c>
-      <c r="N97" t="n">
-        <v>99.51333333333334</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3948,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>6.200000000000003</v>
-      </c>
-      <c r="J98" t="n">
-        <v>157.4</v>
-      </c>
-      <c r="K98" t="n">
-        <v>18.34319526627215</v>
-      </c>
-      <c r="L98" t="n">
-        <v>99.18000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>99.01000000000002</v>
-      </c>
-      <c r="N98" t="n">
-        <v>99.58</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,31 +3984,21 @@
         <v>100.065</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>2.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>161.4</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-4.306220095693805</v>
-      </c>
-      <c r="L99" t="n">
-        <v>99.09000000000002</v>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>99.05000000000001</v>
-      </c>
-      <c r="N99" t="n">
-        <v>99.51333333333334</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4028,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J100" t="n">
-        <v>161.4</v>
-      </c>
-      <c r="K100" t="n">
-        <v>10.49723756906081</v>
-      </c>
-      <c r="L100" t="n">
-        <v>99.00000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="N100" t="n">
-        <v>99.48</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4067,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.5999999999999943</v>
-      </c>
-      <c r="J101" t="n">
-        <v>164.2</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-3.84615384615383</v>
-      </c>
-      <c r="L101" t="n">
-        <v>98.91</v>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>98.75999999999999</v>
-      </c>
-      <c r="N101" t="n">
-        <v>99.38666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4106,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>9.200000000000003</v>
-      </c>
-      <c r="J102" t="n">
-        <v>174.0000000000001</v>
-      </c>
-      <c r="K102" t="n">
-        <v>29.41176470588233</v>
-      </c>
-      <c r="L102" t="n">
-        <v>99.80999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>99.29499999999999</v>
-      </c>
-      <c r="N102" t="n">
-        <v>99.64666666666668</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5494,31 +4142,21 @@
         <v>100.1616666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="K103" t="n">
-        <v>6.166219839142081</v>
-      </c>
-      <c r="L103" t="n">
-        <v>100.04</v>
+        <v>99.40000000000001</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>99.05999999999999</v>
-      </c>
-      <c r="N103" t="n">
-        <v>99.62333333333335</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4186,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>3.100000000000009</v>
-      </c>
-      <c r="J104" t="n">
-        <v>181.3000000000001</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2.777777777777775</v>
-      </c>
-      <c r="L104" t="n">
-        <v>100.33</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>99.285</v>
-      </c>
-      <c r="N104" t="n">
-        <v>99.58666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4225,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J105" t="n">
-        <v>182.4000000000001</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-6.060606060606055</v>
-      </c>
-      <c r="L105" t="n">
-        <v>100.54</v>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>99.38499999999999</v>
-      </c>
-      <c r="N105" t="n">
-        <v>99.58666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4264,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>7.200000000000003</v>
-      </c>
-      <c r="J106" t="n">
-        <v>185.4000000000001</v>
-      </c>
-      <c r="K106" t="n">
-        <v>15.62499999999999</v>
-      </c>
-      <c r="L106" t="n">
-        <v>100.64</v>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>99.58499999999999</v>
-      </c>
-      <c r="N106" t="n">
-        <v>99.68666666666668</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4303,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>6.200000000000003</v>
-      </c>
-      <c r="J107" t="n">
-        <v>186.4000000000001</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>101.04</v>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>99.955</v>
-      </c>
-      <c r="N107" t="n">
-        <v>99.68666666666668</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4342,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>7.200000000000003</v>
-      </c>
-      <c r="J108" t="n">
-        <v>187.4000000000001</v>
-      </c>
-      <c r="K108" t="n">
-        <v>19.23076923076921</v>
-      </c>
-      <c r="L108" t="n">
-        <v>101.14</v>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>100.16</v>
-      </c>
-      <c r="N108" t="n">
-        <v>99.72000000000001</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4381,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J109" t="n">
-        <v>190.4000000000001</v>
-      </c>
-      <c r="K109" t="n">
-        <v>6.896551724137924</v>
-      </c>
-      <c r="L109" t="n">
-        <v>101.34</v>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>100.215</v>
-      </c>
-      <c r="N109" t="n">
-        <v>99.81333333333335</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4420,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J110" t="n">
-        <v>190.4000000000001</v>
-      </c>
-      <c r="K110" t="n">
-        <v>18.32061068702288</v>
-      </c>
-      <c r="L110" t="n">
-        <v>101.54</v>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>100.27</v>
-      </c>
-      <c r="N110" t="n">
-        <v>99.78000000000002</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4459,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>7.200000000000003</v>
-      </c>
-      <c r="J111" t="n">
-        <v>193.4000000000001</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-10.30927835051546</v>
-      </c>
-      <c r="L111" t="n">
-        <v>102.32</v>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>100.615</v>
-      </c>
-      <c r="N111" t="n">
-        <v>99.94666666666669</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4498,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>7.200000000000003</v>
-      </c>
-      <c r="J112" t="n">
-        <v>193.4000000000001</v>
-      </c>
-      <c r="K112" t="n">
-        <v>37.007874015748</v>
-      </c>
-      <c r="L112" t="n">
-        <v>102.12</v>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>100.965</v>
-      </c>
-      <c r="N112" t="n">
-        <v>100.2366666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4537,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J113" t="n">
-        <v>195.4000000000001</v>
-      </c>
-      <c r="K113" t="n">
-        <v>14.89361702127656</v>
-      </c>
-      <c r="L113" t="n">
-        <v>102.39</v>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>101.215</v>
-      </c>
-      <c r="N113" t="n">
-        <v>100.17</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,1099 +4576,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J114" t="n">
-        <v>195.4000000000001</v>
-      </c>
-      <c r="K114" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L114" t="n">
-        <v>102.6</v>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>101.465</v>
-      </c>
-      <c r="N114" t="n">
-        <v>100.39</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>102</v>
-      </c>
-      <c r="C115" t="n">
-        <v>102</v>
-      </c>
-      <c r="D115" t="n">
-        <v>102</v>
-      </c>
-      <c r="E115" t="n">
-        <v>102</v>
-      </c>
-      <c r="F115" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G115" t="n">
-        <v>100.5633333333333</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J115" t="n">
-        <v>195.4000000000001</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L115" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="M115" t="n">
-        <v>101.62</v>
-      </c>
-      <c r="N115" t="n">
-        <v>100.49</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>103</v>
-      </c>
-      <c r="C116" t="n">
-        <v>103</v>
-      </c>
-      <c r="D116" t="n">
-        <v>103</v>
-      </c>
-      <c r="E116" t="n">
-        <v>103</v>
-      </c>
-      <c r="F116" t="n">
-        <v>5150.7454</v>
-      </c>
-      <c r="G116" t="n">
-        <v>100.5966666666667</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>6.200000000000003</v>
-      </c>
-      <c r="J116" t="n">
-        <v>196.4000000000001</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="M116" t="n">
-        <v>101.62</v>
-      </c>
-      <c r="N116" t="n">
-        <v>100.59</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>103</v>
-      </c>
-      <c r="C117" t="n">
-        <v>103</v>
-      </c>
-      <c r="D117" t="n">
-        <v>104</v>
-      </c>
-      <c r="E117" t="n">
-        <v>103</v>
-      </c>
-      <c r="F117" t="n">
-        <v>659</v>
-      </c>
-      <c r="G117" t="n">
-        <v>100.63</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>6.200000000000003</v>
-      </c>
-      <c r="J117" t="n">
-        <v>196.4000000000001</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L117" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="M117" t="n">
-        <v>101.82</v>
-      </c>
-      <c r="N117" t="n">
-        <v>100.8366666666667</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>101</v>
-      </c>
-      <c r="C118" t="n">
-        <v>103</v>
-      </c>
-      <c r="D118" t="n">
-        <v>104</v>
-      </c>
-      <c r="E118" t="n">
-        <v>101</v>
-      </c>
-      <c r="F118" t="n">
-        <v>996</v>
-      </c>
-      <c r="G118" t="n">
-        <v>100.6466666666667</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>6.200000000000003</v>
-      </c>
-      <c r="J118" t="n">
-        <v>196.4000000000001</v>
-      </c>
-      <c r="K118" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L118" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="M118" t="n">
-        <v>101.82</v>
-      </c>
-      <c r="N118" t="n">
-        <v>100.94</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>103</v>
-      </c>
-      <c r="C119" t="n">
-        <v>103</v>
-      </c>
-      <c r="D119" t="n">
-        <v>103</v>
-      </c>
-      <c r="E119" t="n">
-        <v>103</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3986.1434</v>
-      </c>
-      <c r="G119" t="n">
-        <v>100.63</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>6.200000000000003</v>
-      </c>
-      <c r="J119" t="n">
-        <v>196.4000000000001</v>
-      </c>
-      <c r="K119" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L119" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="M119" t="n">
-        <v>102.02</v>
-      </c>
-      <c r="N119" t="n">
-        <v>101.0433333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>102</v>
-      </c>
-      <c r="C120" t="n">
-        <v>102</v>
-      </c>
-      <c r="D120" t="n">
-        <v>102</v>
-      </c>
-      <c r="E120" t="n">
-        <v>102</v>
-      </c>
-      <c r="F120" t="n">
-        <v>372</v>
-      </c>
-      <c r="G120" t="n">
-        <v>100.6466666666667</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J120" t="n">
-        <v>197.4000000000001</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L120" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="M120" t="n">
-        <v>102.17</v>
-      </c>
-      <c r="N120" t="n">
-        <v>101.1133333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>102</v>
-      </c>
-      <c r="C121" t="n">
-        <v>102</v>
-      </c>
-      <c r="D121" t="n">
-        <v>102</v>
-      </c>
-      <c r="E121" t="n">
-        <v>102</v>
-      </c>
-      <c r="F121" t="n">
-        <v>10393</v>
-      </c>
-      <c r="G121" t="n">
-        <v>100.6633333333333</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J121" t="n">
-        <v>197.4000000000001</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L121" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="M121" t="n">
-        <v>102.46</v>
-      </c>
-      <c r="N121" t="n">
-        <v>101.2766666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>102</v>
-      </c>
-      <c r="C122" t="n">
-        <v>102</v>
-      </c>
-      <c r="D122" t="n">
-        <v>102</v>
-      </c>
-      <c r="E122" t="n">
-        <v>102</v>
-      </c>
-      <c r="F122" t="n">
-        <v>21648.7523</v>
-      </c>
-      <c r="G122" t="n">
-        <v>100.63</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J122" t="n">
-        <v>197.4000000000001</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="M122" t="n">
-        <v>102.26</v>
-      </c>
-      <c r="N122" t="n">
-        <v>101.4433333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>102</v>
-      </c>
-      <c r="C123" t="n">
-        <v>102</v>
-      </c>
-      <c r="D123" t="n">
-        <v>102</v>
-      </c>
-      <c r="E123" t="n">
-        <v>102</v>
-      </c>
-      <c r="F123" t="n">
-        <v>51771.2573</v>
-      </c>
-      <c r="G123" t="n">
-        <v>100.6633333333333</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J123" t="n">
-        <v>197.4000000000001</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="M123" t="n">
-        <v>102.395</v>
-      </c>
-      <c r="N123" t="n">
-        <v>101.61</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>102</v>
-      </c>
-      <c r="C124" t="n">
-        <v>101</v>
-      </c>
-      <c r="D124" t="n">
-        <v>102</v>
-      </c>
-      <c r="E124" t="n">
-        <v>101</v>
-      </c>
-      <c r="F124" t="n">
-        <v>111149.5237</v>
-      </c>
-      <c r="G124" t="n">
-        <v>100.6133333333333</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J124" t="n">
-        <v>198.4000000000001</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L124" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="M124" t="n">
-        <v>102.45</v>
-      </c>
-      <c r="N124" t="n">
-        <v>101.7433333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>102</v>
-      </c>
-      <c r="C125" t="n">
-        <v>102</v>
-      </c>
-      <c r="D125" t="n">
-        <v>102</v>
-      </c>
-      <c r="E125" t="n">
-        <v>102</v>
-      </c>
-      <c r="F125" t="n">
-        <v>272069.8904</v>
-      </c>
-      <c r="G125" t="n">
-        <v>100.6466666666667</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J125" t="n">
-        <v>199.4000000000001</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L125" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="M125" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="N125" t="n">
-        <v>101.8466666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>102</v>
-      </c>
-      <c r="C126" t="n">
-        <v>102</v>
-      </c>
-      <c r="D126" t="n">
-        <v>102</v>
-      </c>
-      <c r="E126" t="n">
-        <v>102</v>
-      </c>
-      <c r="F126" t="n">
-        <v>37456.2273</v>
-      </c>
-      <c r="G126" t="n">
-        <v>100.68</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J126" t="n">
-        <v>199.4000000000001</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L126" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="M126" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="N126" t="n">
-        <v>101.8133333333333</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>102</v>
-      </c>
-      <c r="C127" t="n">
-        <v>102</v>
-      </c>
-      <c r="D127" t="n">
-        <v>102</v>
-      </c>
-      <c r="E127" t="n">
-        <v>102</v>
-      </c>
-      <c r="F127" t="n">
-        <v>79848.60649999999</v>
-      </c>
-      <c r="G127" t="n">
-        <v>100.7133333333333</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J127" t="n">
-        <v>199.4000000000001</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L127" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="M127" t="n">
-        <v>102.35</v>
-      </c>
-      <c r="N127" t="n">
-        <v>101.9133333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>102</v>
-      </c>
-      <c r="C128" t="n">
-        <v>101</v>
-      </c>
-      <c r="D128" t="n">
-        <v>102</v>
-      </c>
-      <c r="E128" t="n">
-        <v>101</v>
-      </c>
-      <c r="F128" t="n">
-        <v>76875.9596</v>
-      </c>
-      <c r="G128" t="n">
-        <v>100.7133333333333</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J128" t="n">
-        <v>200.4000000000001</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L128" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="M128" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="N128" t="n">
-        <v>101.8466666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>101</v>
-      </c>
-      <c r="C129" t="n">
-        <v>101</v>
-      </c>
-      <c r="D129" t="n">
-        <v>101</v>
-      </c>
-      <c r="E129" t="n">
-        <v>101</v>
-      </c>
-      <c r="F129" t="n">
-        <v>5709.8844</v>
-      </c>
-      <c r="G129" t="n">
-        <v>100.7133333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J129" t="n">
-        <v>200.4000000000001</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L129" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="M129" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="N129" t="n">
-        <v>101.9133333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>101</v>
-      </c>
-      <c r="C130" t="n">
-        <v>101</v>
-      </c>
-      <c r="D130" t="n">
-        <v>101</v>
-      </c>
-      <c r="E130" t="n">
-        <v>101</v>
-      </c>
-      <c r="F130" t="n">
-        <v>864</v>
-      </c>
-      <c r="G130" t="n">
-        <v>100.73</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J130" t="n">
-        <v>200.4000000000001</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L130" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="M130" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="N130" t="n">
-        <v>101.98</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>100</v>
-      </c>
-      <c r="C131" t="n">
-        <v>100</v>
-      </c>
-      <c r="D131" t="n">
-        <v>100</v>
-      </c>
-      <c r="E131" t="n">
-        <v>100</v>
-      </c>
-      <c r="F131" t="n">
-        <v>5588.3118</v>
-      </c>
-      <c r="G131" t="n">
-        <v>100.7466666666667</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J131" t="n">
-        <v>201.4000000000001</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L131" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="M131" t="n">
-        <v>102</v>
-      </c>
-      <c r="N131" t="n">
-        <v>102.1066666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>100</v>
-      </c>
-      <c r="C132" t="n">
-        <v>100</v>
-      </c>
-      <c r="D132" t="n">
-        <v>100</v>
-      </c>
-      <c r="E132" t="n">
-        <v>100</v>
-      </c>
-      <c r="F132" t="n">
-        <v>864</v>
-      </c>
-      <c r="G132" t="n">
-        <v>100.7766666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J132" t="n">
-        <v>201.4000000000001</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L132" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="M132" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="N132" t="n">
-        <v>101.9066666666667</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="C133" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="D133" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="E133" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="F133" t="n">
-        <v>6</v>
-      </c>
-      <c r="G133" t="n">
-        <v>100.765</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J133" t="n">
-        <v>202.1000000000001</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-45.94594594594581</v>
-      </c>
-      <c r="L133" t="n">
-        <v>100.93</v>
-      </c>
-      <c r="M133" t="n">
-        <v>101.665</v>
-      </c>
-      <c r="N133" t="n">
-        <v>101.9066666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>102</v>
-      </c>
-      <c r="C134" t="n">
-        <v>102</v>
-      </c>
-      <c r="D134" t="n">
-        <v>102</v>
-      </c>
-      <c r="E134" t="n">
-        <v>102</v>
-      </c>
-      <c r="F134" t="n">
-        <v>40636.6897</v>
-      </c>
-      <c r="G134" t="n">
-        <v>100.7816666666667</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="J134" t="n">
-        <v>204.8000000000001</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>101.03</v>
-      </c>
-      <c r="M134" t="n">
-        <v>101.665</v>
-      </c>
-      <c r="N134" t="n">
-        <v>101.9766666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>103</v>
-      </c>
-      <c r="C135" t="n">
-        <v>103</v>
-      </c>
-      <c r="D135" t="n">
-        <v>104</v>
-      </c>
-      <c r="E135" t="n">
-        <v>103</v>
-      </c>
-      <c r="F135" t="n">
-        <v>13520</v>
-      </c>
-      <c r="G135" t="n">
-        <v>100.815</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>6.200000000000003</v>
-      </c>
-      <c r="J135" t="n">
-        <v>205.8000000000001</v>
-      </c>
-      <c r="K135" t="n">
-        <v>15.62499999999999</v>
-      </c>
-      <c r="L135" t="n">
-        <v>101.13</v>
-      </c>
-      <c r="M135" t="n">
-        <v>101.715</v>
-      </c>
-      <c r="N135" t="n">
-        <v>102.0433333333333</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -1291,17 +1291,13 @@
         <v>99.74833333333336</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="K26" t="n">
-        <v>99.90000000000001</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1333,17 +1329,11 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,17 +1364,11 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1415,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1450,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1485,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1590,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1695,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1972,20 +1956,14 @@
         <v>99.56666666666668</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>99.8</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2020,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2059,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2098,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2137,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2176,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2215,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2293,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2371,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2410,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2449,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2488,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2527,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2601,16 +2519,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2673,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2708,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2778,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3580,20 +3496,14 @@
         <v>100.0816666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>98</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3621,20 +3531,14 @@
         <v>100.0633333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>98</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3669,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3708,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3740,20 +3636,14 @@
         <v>100.0083333333334</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>98.90000000000001</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3781,20 +3671,14 @@
         <v>99.95833333333334</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>97</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3822,20 +3706,14 @@
         <v>99.94000000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>97</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3863,20 +3741,14 @@
         <v>100.005</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>98.90000000000001</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3910,12 +3782,12 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M97" t="n">
@@ -3984,14 +3856,12 @@
         <v>100.065</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4142,14 +4012,12 @@
         <v>100.1616666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>99.40000000000001</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>

--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>97.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>96.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>97.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>96.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>17340.3367</v>
+        <v>1398.04804804</v>
       </c>
       <c r="G2" t="n">
-        <v>100.3416666666667</v>
+        <v>100.4116666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>99.7</v>
+        <v>96.8</v>
       </c>
       <c r="D3" t="n">
-        <v>99.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>99.7</v>
+        <v>96.8</v>
       </c>
       <c r="F3" t="n">
-        <v>5.1</v>
+        <v>17340.3367</v>
       </c>
       <c r="G3" t="n">
-        <v>100.3033333333334</v>
+        <v>100.3416666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>99.7</v>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="D4" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="E4" t="n">
         <v>99.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2305</v>
+        <v>5.1</v>
       </c>
       <c r="G4" t="n">
-        <v>100.2533333333334</v>
+        <v>100.3033333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>2305</v>
       </c>
       <c r="G5" t="n">
-        <v>100.2366666666667</v>
+        <v>100.2533333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>100.2033333333334</v>
+        <v>100.2366666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F7" t="n">
-        <v>1991.878</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>100.1366666666667</v>
+        <v>100.2033333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>1762.3583</v>
+        <v>1991.878</v>
       </c>
       <c r="G8" t="n">
-        <v>100.0866666666667</v>
+        <v>100.1366666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>400</v>
+        <v>1762.3583</v>
       </c>
       <c r="G9" t="n">
-        <v>100.07</v>
+        <v>100.0866666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>114</v>
+        <v>400</v>
       </c>
       <c r="G10" t="n">
         <v>100.07</v>
@@ -760,10 +760,10 @@
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>2763</v>
+        <v>114</v>
       </c>
       <c r="G11" t="n">
-        <v>100.0366666666667</v>
+        <v>100.07</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>800</v>
+        <v>2763</v>
       </c>
       <c r="G12" t="n">
-        <v>100.0033333333334</v>
+        <v>100.0366666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>357</v>
+        <v>800</v>
       </c>
       <c r="G13" t="n">
         <v>100.0033333333334</v>
@@ -856,19 +856,19 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
         <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="G14" t="n">
-        <v>100.02</v>
+        <v>100.0033333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="n">
         <v>101</v>
@@ -897,13 +897,13 @@
         <v>101</v>
       </c>
       <c r="E15" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>73</v>
+        <v>344</v>
       </c>
       <c r="G15" t="n">
-        <v>100.0366666666667</v>
+        <v>100.02</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0033333333334</v>
+        <v>100.0366666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G17" t="n">
-        <v>99.97000000000003</v>
+        <v>100.0033333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" t="n">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>99.95333333333336</v>
+        <v>99.97000000000003</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="G19" t="n">
         <v>99.95333333333336</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>1600</v>
       </c>
       <c r="G20" t="n">
-        <v>99.97000000000003</v>
+        <v>99.95333333333336</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C21" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="D21" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E21" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="F21" t="n">
-        <v>2590.2329</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>99.88833333333336</v>
+        <v>99.97000000000003</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>99.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>101</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>101</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>99.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>352</v>
+        <v>2590.2329</v>
       </c>
       <c r="G22" t="n">
         <v>99.88833333333336</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>97.3</v>
+        <v>101</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" t="n">
-        <v>97.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>62</v>
+        <v>352</v>
       </c>
       <c r="G23" t="n">
-        <v>99.8266666666667</v>
+        <v>99.88833333333336</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D24" t="n">
-        <v>97.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="E24" t="n">
         <v>97.2</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G24" t="n">
-        <v>99.7466666666667</v>
+        <v>99.8266666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>101</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="D25" t="n">
-        <v>101</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>99.76666666666669</v>
+        <v>99.7466666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C26" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D26" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E26" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F26" t="n">
-        <v>12.78</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>99.74833333333336</v>
+        <v>99.76666666666669</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,28 +1308,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>12.78</v>
       </c>
       <c r="G27" t="n">
-        <v>99.7316666666667</v>
+        <v>99.74833333333336</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1343,19 +1343,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>99.7316666666667</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1378,28 +1378,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F29" t="n">
-        <v>21707.053</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>99.71500000000002</v>
+        <v>99.7316666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1416,25 +1416,25 @@
         <v>100</v>
       </c>
       <c r="C30" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" t="n">
         <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>763.4201</v>
+        <v>21707.053</v>
       </c>
       <c r="G30" t="n">
-        <v>99.73333333333336</v>
+        <v>99.71500000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1451,25 +1451,25 @@
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" t="n">
         <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>26.1504</v>
+        <v>763.4201</v>
       </c>
       <c r="G31" t="n">
-        <v>99.7166666666667</v>
+        <v>99.73333333333336</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1486,19 +1486,19 @@
         <v>100</v>
       </c>
       <c r="C32" t="n">
-        <v>95.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="D32" t="n">
         <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>95.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>91199.99370000001</v>
+        <v>26.1504</v>
       </c>
       <c r="G32" t="n">
-        <v>99.61833333333337</v>
+        <v>99.7166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>97.8</v>
+        <v>100</v>
       </c>
       <c r="C33" t="n">
-        <v>99.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>97.59999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>1200</v>
+        <v>91199.99370000001</v>
       </c>
       <c r="G33" t="n">
-        <v>99.59000000000005</v>
+        <v>99.61833333333337</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,28 +1553,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="D34" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="E34" t="n">
-        <v>98.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="G34" t="n">
-        <v>99.6216666666667</v>
+        <v>99.59000000000005</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1588,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>99.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C35" t="n">
         <v>100</v>
@@ -1597,10 +1597,10 @@
         <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>99.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F35" t="n">
-        <v>2651.1559</v>
+        <v>556</v>
       </c>
       <c r="G35" t="n">
         <v>99.6216666666667</v>
@@ -1626,19 +1626,19 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E36" t="n">
-        <v>99.09999999999999</v>
-      </c>
       <c r="F36" t="n">
-        <v>66.5586</v>
+        <v>2651.1559</v>
       </c>
       <c r="G36" t="n">
-        <v>99.60666666666671</v>
+        <v>99.6216666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,25 +1661,25 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>97.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D37" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>97.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>2005</v>
+        <v>66.5586</v>
       </c>
       <c r="G37" t="n">
-        <v>99.56500000000004</v>
+        <v>99.60666666666671</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1696,19 +1696,19 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="D38" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>99.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F38" t="n">
-        <v>405</v>
+        <v>2005</v>
       </c>
       <c r="G38" t="n">
-        <v>99.59666666666671</v>
+        <v>99.56500000000004</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D39" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E39" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>31.885</v>
+        <v>405</v>
       </c>
       <c r="G39" t="n">
-        <v>99.60333333333337</v>
+        <v>99.59666666666671</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>99.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>97.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>99.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>95.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>10650.7472</v>
+        <v>31.885</v>
       </c>
       <c r="G40" t="n">
-        <v>99.57000000000002</v>
+        <v>99.60333333333337</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="D41" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>99.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>1173</v>
+        <v>10650.7472</v>
       </c>
       <c r="G41" t="n">
-        <v>99.57833333333336</v>
+        <v>99.57000000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>98.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C42" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D42" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E42" t="n">
-        <v>95.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F42" t="n">
-        <v>10618.8622</v>
+        <v>1173</v>
       </c>
       <c r="G42" t="n">
-        <v>99.60500000000002</v>
+        <v>99.57833333333336</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>97.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>97.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>97.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>97.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>17</v>
+        <v>10618.8622</v>
       </c>
       <c r="G43" t="n">
-        <v>99.56333333333335</v>
+        <v>99.60500000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,19 +1903,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>99.8</v>
+        <v>97.3</v>
       </c>
       <c r="C44" t="n">
-        <v>99.8</v>
+        <v>97.3</v>
       </c>
       <c r="D44" t="n">
-        <v>99.8</v>
+        <v>97.3</v>
       </c>
       <c r="E44" t="n">
-        <v>99.8</v>
+        <v>97.3</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G44" t="n">
         <v>99.56333333333335</v>
@@ -1941,19 +1941,19 @@
         <v>99.8</v>
       </c>
       <c r="C45" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D45" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E45" t="n">
         <v>99.8</v>
       </c>
       <c r="F45" t="n">
-        <v>819</v>
+        <v>6</v>
       </c>
       <c r="G45" t="n">
-        <v>99.56666666666668</v>
+        <v>99.56333333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C46" t="n">
         <v>100</v>
@@ -1982,13 +1982,13 @@
         <v>100</v>
       </c>
       <c r="E46" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="F46" t="n">
-        <v>17.84</v>
+        <v>819</v>
       </c>
       <c r="G46" t="n">
-        <v>99.59333333333335</v>
+        <v>99.56666666666668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C47" t="n">
         <v>100</v>
@@ -2017,23 +2017,29 @@
         <v>100</v>
       </c>
       <c r="E47" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>65</v>
+        <v>17.84</v>
       </c>
       <c r="G47" t="n">
-        <v>99.62166666666668</v>
+        <v>99.59333333333335</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>100</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,32 +2049,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G48" t="n">
-        <v>99.64500000000001</v>
+        <v>99.62166666666668</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>100</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,32 +2090,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D49" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F49" t="n">
-        <v>19005</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>99.64666666666669</v>
+        <v>99.64500000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>100</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2122,13 +2140,13 @@
         <v>100</v>
       </c>
       <c r="E50" t="n">
-        <v>99.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="F50" t="n">
-        <v>30.97</v>
+        <v>19005</v>
       </c>
       <c r="G50" t="n">
-        <v>99.65166666666669</v>
+        <v>99.64666666666669</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2156,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2170,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D51" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>30.97</v>
       </c>
       <c r="G51" t="n">
-        <v>99.67166666666668</v>
+        <v>99.65166666666669</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2195,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2209,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D52" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E52" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F52" t="n">
-        <v>10112.2887</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>99.70166666666668</v>
+        <v>99.67166666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2234,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2248,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D53" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>10112.2887</v>
       </c>
       <c r="G53" t="n">
-        <v>99.74833333333336</v>
+        <v>99.70166666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2273,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2287,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C54" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D54" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F54" t="n">
-        <v>21918.4984</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>99.75333333333336</v>
+        <v>99.74833333333336</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2312,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2326,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D55" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E55" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F55" t="n">
-        <v>2577</v>
+        <v>21918.4984</v>
       </c>
       <c r="G55" t="n">
-        <v>99.77500000000003</v>
+        <v>99.75333333333336</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2351,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2329,16 +2371,16 @@
         <v>101</v>
       </c>
       <c r="D56" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F56" t="n">
-        <v>1070.3707</v>
+        <v>2577</v>
       </c>
       <c r="G56" t="n">
-        <v>99.79500000000003</v>
+        <v>99.77500000000003</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2390,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2367,13 +2413,13 @@
         <v>101</v>
       </c>
       <c r="E57" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F57" t="n">
-        <v>20</v>
+        <v>1070.3707</v>
       </c>
       <c r="G57" t="n">
-        <v>99.81500000000003</v>
+        <v>99.79500000000003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2429,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2396,19 +2446,19 @@
         <v>101</v>
       </c>
       <c r="C58" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E58" t="n">
         <v>101</v>
       </c>
       <c r="F58" t="n">
-        <v>584</v>
+        <v>20</v>
       </c>
       <c r="G58" t="n">
-        <v>99.85166666666669</v>
+        <v>99.81500000000003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2468,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2482,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>101</v>
+      </c>
+      <c r="C59" t="n">
         <v>102</v>
       </c>
-      <c r="C59" t="n">
-        <v>104</v>
-      </c>
       <c r="D59" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E59" t="n">
         <v>101</v>
       </c>
       <c r="F59" t="n">
-        <v>1508.8134</v>
+        <v>584</v>
       </c>
       <c r="G59" t="n">
-        <v>99.92000000000003</v>
+        <v>99.85166666666669</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2507,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2521,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C60" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D60" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E60" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F60" t="n">
-        <v>30629.34</v>
+        <v>1508.8134</v>
       </c>
       <c r="G60" t="n">
-        <v>99.93833333333336</v>
+        <v>99.92000000000003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2546,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,7 +2560,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" t="n">
         <v>101</v>
@@ -2507,13 +2569,13 @@
         <v>101</v>
       </c>
       <c r="E61" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F61" t="n">
-        <v>410.1629</v>
+        <v>30629.34</v>
       </c>
       <c r="G61" t="n">
-        <v>99.95666666666671</v>
+        <v>99.93833333333336</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2585,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2599,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>98.2</v>
+        <v>101</v>
       </c>
       <c r="C62" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D62" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E62" t="n">
-        <v>98.2</v>
+        <v>101</v>
       </c>
       <c r="F62" t="n">
-        <v>5471.1147</v>
+        <v>410.1629</v>
       </c>
       <c r="G62" t="n">
-        <v>100.0766666666667</v>
+        <v>99.95666666666671</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2624,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2638,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C63" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D63" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E63" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="F63" t="n">
-        <v>1224.1296</v>
+        <v>5471.1147</v>
       </c>
       <c r="G63" t="n">
-        <v>100.0816666666667</v>
+        <v>100.0766666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2663,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2677,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C64" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D64" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>1224.1296</v>
       </c>
       <c r="G64" t="n">
-        <v>100.1316666666667</v>
+        <v>100.0816666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2702,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,19 +2716,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C65" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D65" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E65" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F65" t="n">
-        <v>12.5443</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
         <v>100.1316666666667</v>
@@ -2663,7 +2741,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2679,16 +2761,16 @@
         <v>100</v>
       </c>
       <c r="D66" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E66" t="n">
         <v>100</v>
       </c>
       <c r="F66" t="n">
-        <v>30908.2046</v>
+        <v>12.5443</v>
       </c>
       <c r="G66" t="n">
-        <v>100.115</v>
+        <v>100.1316666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2780,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2714,13 +2800,13 @@
         <v>100</v>
       </c>
       <c r="D67" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67" t="n">
         <v>100</v>
       </c>
       <c r="F67" t="n">
-        <v>800</v>
+        <v>30908.2046</v>
       </c>
       <c r="G67" t="n">
         <v>100.115</v>
@@ -2733,7 +2819,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2833,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C68" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E68" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F68" t="n">
-        <v>996.5439</v>
+        <v>800</v>
       </c>
       <c r="G68" t="n">
-        <v>100.1316666666667</v>
+        <v>100.115</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2858,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2790,10 +2884,10 @@
         <v>101</v>
       </c>
       <c r="F69" t="n">
-        <v>4733.6232</v>
+        <v>996.5439</v>
       </c>
       <c r="G69" t="n">
-        <v>100.1483333333334</v>
+        <v>100.1316666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2897,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,19 +2911,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C70" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D70" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E70" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F70" t="n">
-        <v>400</v>
+        <v>4733.6232</v>
       </c>
       <c r="G70" t="n">
         <v>100.1483333333334</v>
@@ -2838,7 +2936,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2950,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D71" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="F71" t="n">
-        <v>1319.73</v>
+        <v>400</v>
       </c>
       <c r="G71" t="n">
-        <v>100.1316666666667</v>
+        <v>100.1483333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +2975,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2989,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>98.2</v>
+        <v>101</v>
       </c>
       <c r="C72" t="n">
-        <v>98.2</v>
+        <v>99</v>
       </c>
       <c r="D72" t="n">
-        <v>98.2</v>
+        <v>101</v>
       </c>
       <c r="E72" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="F72" t="n">
-        <v>1372.38</v>
+        <v>1319.73</v>
       </c>
       <c r="G72" t="n">
-        <v>100.1016666666667</v>
+        <v>100.1316666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3014,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,19 +3028,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C73" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="D73" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="E73" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="F73" t="n">
-        <v>2000</v>
+        <v>1372.38</v>
       </c>
       <c r="G73" t="n">
         <v>100.1016666666667</v>
@@ -2943,7 +3053,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,19 +3067,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="C74" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D74" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E74" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="F74" t="n">
-        <v>105</v>
+        <v>2000</v>
       </c>
       <c r="G74" t="n">
         <v>100.1016666666667</v>
@@ -2978,7 +3092,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3000,7 +3118,7 @@
         <v>98.2</v>
       </c>
       <c r="F75" t="n">
-        <v>531.6378999999999</v>
+        <v>105</v>
       </c>
       <c r="G75" t="n">
         <v>100.1016666666667</v>
@@ -3013,7 +3131,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3035,10 +3157,10 @@
         <v>98.2</v>
       </c>
       <c r="F76" t="n">
-        <v>1402.1568</v>
+        <v>531.6378999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>100.1183333333334</v>
+        <v>100.1016666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3170,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3184,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C77" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D77" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E77" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="F77" t="n">
-        <v>520</v>
+        <v>1402.1568</v>
       </c>
       <c r="G77" t="n">
-        <v>100.1516666666667</v>
+        <v>100.1183333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3209,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,7 +3223,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C78" t="n">
         <v>103</v>
@@ -3102,13 +3232,13 @@
         <v>103</v>
       </c>
       <c r="E78" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F78" t="n">
-        <v>3986</v>
+        <v>520</v>
       </c>
       <c r="G78" t="n">
-        <v>100.2016666666667</v>
+        <v>100.1516666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3248,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3131,19 +3265,19 @@
         <v>98.09999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>98.2</v>
+        <v>103</v>
       </c>
       <c r="D79" t="n">
-        <v>98.2</v>
+        <v>103</v>
       </c>
       <c r="E79" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>7175.045</v>
+        <v>3986</v>
       </c>
       <c r="G79" t="n">
-        <v>100.1716666666667</v>
+        <v>100.2016666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3287,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3301,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>102</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>102</v>
+        <v>98.2</v>
       </c>
       <c r="D80" t="n">
-        <v>102</v>
+        <v>98.2</v>
       </c>
       <c r="E80" t="n">
-        <v>102</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>4.9</v>
+        <v>7175.045</v>
       </c>
       <c r="G80" t="n">
-        <v>100.1883333333334</v>
+        <v>100.1716666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3326,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,32 +3340,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="C81" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D81" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="E81" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F81" t="n">
-        <v>2300.1076</v>
+        <v>4.9</v>
       </c>
       <c r="G81" t="n">
-        <v>100.22</v>
+        <v>100.1883333333334</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,32 +3381,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C82" t="n">
         <v>99</v>
       </c>
-      <c r="C82" t="n">
-        <v>95.3</v>
-      </c>
       <c r="D82" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E82" t="n">
+        <v>99</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2300.1076</v>
+      </c>
+      <c r="G82" t="n">
+        <v>100.22</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>102</v>
       </c>
-      <c r="E82" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="F82" t="n">
-        <v>46.9975</v>
-      </c>
-      <c r="G82" t="n">
-        <v>100.125</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3422,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>99</v>
+      </c>
+      <c r="C83" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="D83" t="n">
         <v>102</v>
       </c>
-      <c r="C83" t="n">
-        <v>104</v>
-      </c>
-      <c r="D83" t="n">
-        <v>104</v>
-      </c>
       <c r="E83" t="n">
-        <v>102</v>
+        <v>95.3</v>
       </c>
       <c r="F83" t="n">
-        <v>9674.990191340001</v>
+        <v>46.9975</v>
       </c>
       <c r="G83" t="n">
-        <v>100.2366666666667</v>
+        <v>100.125</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3447,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3461,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>95.59999999999999</v>
+        <v>102</v>
       </c>
       <c r="C84" t="n">
-        <v>95.40000000000001</v>
+        <v>104</v>
       </c>
       <c r="D84" t="n">
-        <v>95.59999999999999</v>
+        <v>104</v>
       </c>
       <c r="E84" t="n">
-        <v>95.40000000000001</v>
+        <v>102</v>
       </c>
       <c r="F84" t="n">
-        <v>26323.587</v>
+        <v>9674.990191340001</v>
       </c>
       <c r="G84" t="n">
-        <v>100.2066666666667</v>
+        <v>100.2366666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3486,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3500,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>99.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>99</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>99.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>99</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>14182.3326</v>
+        <v>26323.587</v>
       </c>
       <c r="G85" t="n">
-        <v>100.1733333333334</v>
+        <v>100.2066666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3525,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3539,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="C86" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D86" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E86" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F86" t="n">
-        <v>50</v>
+        <v>14182.3326</v>
       </c>
       <c r="G86" t="n">
-        <v>100.175</v>
+        <v>100.1733333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3564,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3578,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>95.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C87" t="n">
-        <v>95.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="D87" t="n">
-        <v>95.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="E87" t="n">
-        <v>95.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G87" t="n">
-        <v>100.1016666666667</v>
+        <v>100.175</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3603,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3617,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>99.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>99.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>99.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>98</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>2489.68968968</v>
+        <v>6</v>
       </c>
       <c r="G88" t="n">
-        <v>100.0833333333334</v>
+        <v>100.1016666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3642,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,7 +3656,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>98</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C89" t="n">
         <v>99.90000000000001</v>
@@ -3490,10 +3668,10 @@
         <v>98</v>
       </c>
       <c r="F89" t="n">
-        <v>800</v>
+        <v>2489.68968968</v>
       </c>
       <c r="G89" t="n">
-        <v>100.0816666666667</v>
+        <v>100.0833333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3681,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +3707,10 @@
         <v>98</v>
       </c>
       <c r="F90" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G90" t="n">
-        <v>100.0633333333333</v>
+        <v>100.0816666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3720,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3734,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>97.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="C91" t="n">
-        <v>97.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>97.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>97.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="F91" t="n">
-        <v>406</v>
+        <v>1000</v>
       </c>
       <c r="G91" t="n">
-        <v>100.015</v>
+        <v>100.0633333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3759,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3773,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>2026.887</v>
+        <v>406</v>
       </c>
       <c r="G92" t="n">
-        <v>100.0466666666667</v>
+        <v>100.015</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3798,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3812,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>98.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="C93" t="n">
         <v>97</v>
       </c>
       <c r="D93" t="n">
-        <v>98.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="E93" t="n">
         <v>97</v>
       </c>
       <c r="F93" t="n">
-        <v>800</v>
+        <v>2026.887</v>
       </c>
       <c r="G93" t="n">
-        <v>100.0083333333334</v>
+        <v>100.0466666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3837,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,7 +3851,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>97</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C94" t="n">
         <v>97</v>
@@ -3665,10 +3863,10 @@
         <v>97</v>
       </c>
       <c r="F94" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G94" t="n">
-        <v>99.95833333333334</v>
+        <v>100.0083333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3876,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3691,7 +3893,7 @@
         <v>97</v>
       </c>
       <c r="C95" t="n">
-        <v>98.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="D95" t="n">
         <v>98.90000000000001</v>
@@ -3700,10 +3902,10 @@
         <v>97</v>
       </c>
       <c r="F95" t="n">
-        <v>1227</v>
+        <v>1600</v>
       </c>
       <c r="G95" t="n">
-        <v>99.94000000000001</v>
+        <v>99.95833333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3915,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3929,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>97</v>
+      </c>
+      <c r="C96" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="C96" t="n">
-        <v>103</v>
-      </c>
       <c r="D96" t="n">
-        <v>103</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>98.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="F96" t="n">
-        <v>3179</v>
+        <v>1227</v>
       </c>
       <c r="G96" t="n">
-        <v>100.005</v>
+        <v>99.94000000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +3954,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,36 +3968,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D97" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="E97" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>1861.007</v>
+        <v>3179</v>
       </c>
       <c r="G97" t="n">
-        <v>100.03</v>
+        <v>100.005</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>103</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M97" t="n">
@@ -3799,30 +4007,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C98" t="n">
+        <v>99</v>
+      </c>
+      <c r="D98" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E98" t="n">
+        <v>99</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1861.007</v>
+      </c>
+      <c r="G98" t="n">
+        <v>100.03</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
         <v>103</v>
       </c>
-      <c r="D98" t="n">
-        <v>103</v>
-      </c>
-      <c r="E98" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1061</v>
-      </c>
-      <c r="G98" t="n">
-        <v>100.08</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -3838,22 +4048,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="C99" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D99" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="E99" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="F99" t="n">
-        <v>3200</v>
+        <v>1061</v>
       </c>
       <c r="G99" t="n">
-        <v>100.065</v>
+        <v>100.08</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3877,22 +4087,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C100" t="n">
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E100" t="n">
         <v>99</v>
       </c>
       <c r="F100" t="n">
-        <v>567.8911000000001</v>
+        <v>3200</v>
       </c>
       <c r="G100" t="n">
-        <v>100.09</v>
+        <v>100.065</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3916,22 +4126,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>96.2</v>
+        <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>96.2</v>
+        <v>99</v>
       </c>
       <c r="D101" t="n">
-        <v>96.2</v>
+        <v>99</v>
       </c>
       <c r="E101" t="n">
-        <v>96.2</v>
+        <v>99</v>
       </c>
       <c r="F101" t="n">
-        <v>26.1504</v>
+        <v>567.8911000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>100.0266666666667</v>
+        <v>100.09</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3955,22 +4165,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>102</v>
+        <v>96.2</v>
       </c>
       <c r="C102" t="n">
-        <v>106</v>
+        <v>96.2</v>
       </c>
       <c r="D102" t="n">
-        <v>106</v>
+        <v>96.2</v>
       </c>
       <c r="E102" t="n">
-        <v>102</v>
+        <v>96.2</v>
       </c>
       <c r="F102" t="n">
-        <v>38536.34935676</v>
+        <v>26.1504</v>
       </c>
       <c r="G102" t="n">
-        <v>100.1283333333333</v>
+        <v>100.0266666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3994,22 +4204,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>99.40000000000001</v>
+        <v>102</v>
       </c>
       <c r="C103" t="n">
-        <v>99.3</v>
+        <v>106</v>
       </c>
       <c r="D103" t="n">
-        <v>99.40000000000001</v>
+        <v>106</v>
       </c>
       <c r="E103" t="n">
-        <v>99.3</v>
+        <v>102</v>
       </c>
       <c r="F103" t="n">
-        <v>2800</v>
+        <v>38536.34935676</v>
       </c>
       <c r="G103" t="n">
-        <v>100.1616666666667</v>
+        <v>100.1283333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4033,22 +4243,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="D104" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="F104" t="n">
-        <v>400</v>
+        <v>2800</v>
       </c>
       <c r="G104" t="n">
-        <v>100.1633333333333</v>
+        <v>100.1616666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4072,22 +4282,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>4107.337</v>
+        <v>400</v>
       </c>
       <c r="G105" t="n">
-        <v>100.18</v>
+        <v>100.1633333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4111,22 +4321,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C106" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D106" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E106" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F106" t="n">
-        <v>518.3998</v>
+        <v>4107.337</v>
       </c>
       <c r="G106" t="n">
-        <v>100.2466666666667</v>
+        <v>100.18</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4150,22 +4360,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C107" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D107" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E107" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F107" t="n">
-        <v>49.4947</v>
+        <v>518.3998</v>
       </c>
       <c r="G107" t="n">
-        <v>100.2966666666667</v>
+        <v>100.2466666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4192,19 +4402,19 @@
         <v>103</v>
       </c>
       <c r="C108" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E108" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F108" t="n">
-        <v>5346.96</v>
+        <v>49.4947</v>
       </c>
       <c r="G108" t="n">
-        <v>100.3466666666667</v>
+        <v>100.2966666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4228,10 +4438,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>103</v>
+      </c>
+      <c r="C109" t="n">
         <v>104</v>
-      </c>
-      <c r="C109" t="n">
-        <v>101</v>
       </c>
       <c r="D109" t="n">
         <v>104</v>
@@ -4240,10 +4450,10 @@
         <v>101</v>
       </c>
       <c r="F109" t="n">
-        <v>4876.67</v>
+        <v>5346.96</v>
       </c>
       <c r="G109" t="n">
-        <v>100.3633333333333</v>
+        <v>100.3466666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4267,22 +4477,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" t="n">
         <v>101</v>
       </c>
       <c r="D110" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E110" t="n">
         <v>101</v>
       </c>
       <c r="F110" t="n">
-        <v>12530.1389</v>
+        <v>4876.67</v>
       </c>
       <c r="G110" t="n">
-        <v>100.38</v>
+        <v>100.3633333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4306,22 +4516,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C111" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D111" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E111" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F111" t="n">
-        <v>326.96</v>
+        <v>12530.1389</v>
       </c>
       <c r="G111" t="n">
-        <v>100.43</v>
+        <v>100.38</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4357,49 +4567,47 @@
         <v>104</v>
       </c>
       <c r="F112" t="n">
-        <v>59.04</v>
+        <v>326.96</v>
       </c>
       <c r="G112" t="n">
-        <v>100.4966666666667</v>
+        <v>100.43</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C113" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D113" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E113" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F113" t="n">
-        <v>385</v>
+        <v>59.04</v>
       </c>
       <c r="G113" t="n">
-        <v>100.5133333333333</v>
+        <v>100.4966666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4409,11 +4617,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4435,10 +4639,10 @@
         <v>102</v>
       </c>
       <c r="F114" t="n">
-        <v>828.2026</v>
+        <v>385</v>
       </c>
       <c r="G114" t="n">
-        <v>100.5466666666667</v>
+        <v>100.5133333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4448,12 +4652,43 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>102</v>
+      </c>
+      <c r="C115" t="n">
+        <v>102</v>
+      </c>
+      <c r="D115" t="n">
+        <v>102</v>
+      </c>
+      <c r="E115" t="n">
+        <v>102</v>
+      </c>
+      <c r="F115" t="n">
+        <v>828.2026</v>
+      </c>
+      <c r="G115" t="n">
+        <v>100.5466666666667</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1398.04804804</v>
       </c>
       <c r="G2" t="n">
+        <v>99.48000000000005</v>
+      </c>
+      <c r="H2" t="n">
         <v>100.4116666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>17340.3367</v>
       </c>
       <c r="G3" t="n">
+        <v>99.38000000000005</v>
+      </c>
+      <c r="H3" t="n">
         <v>100.3416666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>5.1</v>
       </c>
       <c r="G4" t="n">
+        <v>99.38666666666673</v>
+      </c>
+      <c r="H4" t="n">
         <v>100.3033333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2305</v>
       </c>
       <c r="G5" t="n">
+        <v>99.46000000000005</v>
+      </c>
+      <c r="H5" t="n">
         <v>100.2533333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
+        <v>99.48000000000005</v>
+      </c>
+      <c r="H6" t="n">
         <v>100.2366666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
+        <v>99.56000000000004</v>
+      </c>
+      <c r="H7" t="n">
         <v>100.2033333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1991.878</v>
       </c>
       <c r="G8" t="n">
+        <v>99.68000000000005</v>
+      </c>
+      <c r="H8" t="n">
         <v>100.1366666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1762.3583</v>
       </c>
       <c r="G9" t="n">
+        <v>99.80000000000004</v>
+      </c>
+      <c r="H9" t="n">
         <v>100.0866666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>400</v>
       </c>
       <c r="G10" t="n">
+        <v>99.82000000000004</v>
+      </c>
+      <c r="H10" t="n">
         <v>100.07</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>114</v>
       </c>
       <c r="G11" t="n">
+        <v>99.84000000000005</v>
+      </c>
+      <c r="H11" t="n">
         <v>100.07</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2763</v>
       </c>
       <c r="G12" t="n">
+        <v>99.85333333333338</v>
+      </c>
+      <c r="H12" t="n">
         <v>100.0366666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>800</v>
       </c>
       <c r="G13" t="n">
+        <v>99.86666666666672</v>
+      </c>
+      <c r="H13" t="n">
         <v>100.0033333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>357</v>
       </c>
       <c r="G14" t="n">
+        <v>99.88000000000005</v>
+      </c>
+      <c r="H14" t="n">
         <v>100.0033333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>344</v>
       </c>
       <c r="G15" t="n">
+        <v>99.95333333333338</v>
+      </c>
+      <c r="H15" t="n">
         <v>100.02</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>73</v>
       </c>
       <c r="G16" t="n">
+        <v>100.0266666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>100.0366666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>42</v>
       </c>
       <c r="G17" t="n">
+        <v>100.0333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>100.0033333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>5</v>
       </c>
       <c r="G18" t="n">
+        <v>100.3133333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>99.97000000000003</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>400</v>
       </c>
       <c r="G19" t="n">
+        <v>100.3333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>99.95333333333336</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1600</v>
       </c>
       <c r="G20" t="n">
+        <v>100.2666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>99.95333333333336</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>5</v>
       </c>
       <c r="G21" t="n">
+        <v>100.3333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>99.97000000000003</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>2590.2329</v>
       </c>
       <c r="G22" t="n">
+        <v>100.0733333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>99.88833333333336</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>352</v>
       </c>
       <c r="G23" t="n">
+        <v>100.14</v>
+      </c>
+      <c r="H23" t="n">
         <v>99.88833333333336</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,27 @@
         <v>62</v>
       </c>
       <c r="G24" t="n">
+        <v>99.96000000000002</v>
+      </c>
+      <c r="H24" t="n">
         <v>99.8266666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>101</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1333,25 @@
         <v>12</v>
       </c>
       <c r="G25" t="n">
+        <v>99.77333333333335</v>
+      </c>
+      <c r="H25" t="n">
         <v>99.7466666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1375,27 @@
         <v>5</v>
       </c>
       <c r="G26" t="n">
+        <v>99.84000000000002</v>
+      </c>
+      <c r="H26" t="n">
         <v>99.76666666666669</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>97.2</v>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1419,27 @@
         <v>12.78</v>
       </c>
       <c r="G27" t="n">
+        <v>99.83333333333336</v>
+      </c>
+      <c r="H27" t="n">
         <v>99.74833333333336</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>101</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1463,25 @@
         <v>50</v>
       </c>
       <c r="G28" t="n">
+        <v>99.83333333333336</v>
+      </c>
+      <c r="H28" t="n">
         <v>99.7316666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1505,25 @@
         <v>5</v>
       </c>
       <c r="G29" t="n">
+        <v>99.90000000000003</v>
+      </c>
+      <c r="H29" t="n">
         <v>99.7316666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1547,25 @@
         <v>21707.053</v>
       </c>
       <c r="G30" t="n">
+        <v>99.83333333333336</v>
+      </c>
+      <c r="H30" t="n">
         <v>99.71500000000002</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1589,25 @@
         <v>763.4201</v>
       </c>
       <c r="G31" t="n">
+        <v>99.83333333333336</v>
+      </c>
+      <c r="H31" t="n">
         <v>99.73333333333336</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1631,25 @@
         <v>26.1504</v>
       </c>
       <c r="G32" t="n">
+        <v>99.83333333333336</v>
+      </c>
+      <c r="H32" t="n">
         <v>99.7166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1673,25 @@
         <v>91199.99370000001</v>
       </c>
       <c r="G33" t="n">
+        <v>99.44000000000003</v>
+      </c>
+      <c r="H33" t="n">
         <v>99.61833333333337</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1715,25 @@
         <v>1200</v>
       </c>
       <c r="G34" t="n">
+        <v>99.39333333333336</v>
+      </c>
+      <c r="H34" t="n">
         <v>99.59000000000005</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1757,25 @@
         <v>556</v>
       </c>
       <c r="G35" t="n">
+        <v>99.39333333333336</v>
+      </c>
+      <c r="H35" t="n">
         <v>99.6216666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1799,25 @@
         <v>2651.1559</v>
       </c>
       <c r="G36" t="n">
+        <v>99.32666666666668</v>
+      </c>
+      <c r="H36" t="n">
         <v>99.6216666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1841,25 @@
         <v>66.5586</v>
       </c>
       <c r="G37" t="n">
+        <v>99.46000000000002</v>
+      </c>
+      <c r="H37" t="n">
         <v>99.60666666666671</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1883,27 @@
         <v>2005</v>
       </c>
       <c r="G38" t="n">
+        <v>99.22666666666669</v>
+      </c>
+      <c r="H38" t="n">
         <v>99.56500000000004</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>99.09999999999999</v>
+      </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1927,27 @@
         <v>405</v>
       </c>
       <c r="G39" t="n">
+        <v>99.40666666666669</v>
+      </c>
+      <c r="H39" t="n">
         <v>99.59666666666671</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>97.5</v>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1971,27 @@
         <v>31.885</v>
       </c>
       <c r="G40" t="n">
+        <v>99.58666666666669</v>
+      </c>
+      <c r="H40" t="n">
         <v>99.60333333333337</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>100</v>
+      </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2015,25 @@
         <v>10650.7472</v>
       </c>
       <c r="G41" t="n">
+        <v>99.35333333333337</v>
+      </c>
+      <c r="H41" t="n">
         <v>99.57000000000002</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2057,27 @@
         <v>1173</v>
       </c>
       <c r="G42" t="n">
+        <v>99.36000000000003</v>
+      </c>
+      <c r="H42" t="n">
         <v>99.57833333333336</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>97.5</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2101,25 @@
         <v>10618.8622</v>
       </c>
       <c r="G43" t="n">
+        <v>99.35333333333337</v>
+      </c>
+      <c r="H43" t="n">
         <v>99.60500000000002</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2143,25 @@
         <v>17</v>
       </c>
       <c r="G44" t="n">
+        <v>99.1066666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>99.56333333333335</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2185,27 @@
         <v>6</v>
       </c>
       <c r="G45" t="n">
+        <v>99.09333333333335</v>
+      </c>
+      <c r="H45" t="n">
         <v>99.56333333333335</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>97.3</v>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2229,27 @@
         <v>819</v>
       </c>
       <c r="G46" t="n">
+        <v>99.02666666666669</v>
+      </c>
+      <c r="H46" t="n">
         <v>99.56666666666668</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>99.8</v>
+      </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,24 +2273,25 @@
         <v>17.84</v>
       </c>
       <c r="G47" t="n">
+        <v>99.02666666666669</v>
+      </c>
+      <c r="H47" t="n">
         <v>99.59333333333335</v>
       </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2064,24 +2315,25 @@
         <v>65</v>
       </c>
       <c r="G48" t="n">
+        <v>99.35333333333337</v>
+      </c>
+      <c r="H48" t="n">
         <v>99.62166666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2105,24 +2357,25 @@
         <v>5</v>
       </c>
       <c r="G49" t="n">
+        <v>99.4666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>99.64500000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,22 +2399,25 @@
         <v>19005</v>
       </c>
       <c r="G50" t="n">
+        <v>99.4666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>99.64666666666669</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2185,22 +2441,25 @@
         <v>30.97</v>
       </c>
       <c r="G51" t="n">
+        <v>99.4666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>99.65166666666669</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,22 +2483,25 @@
         <v>5</v>
       </c>
       <c r="G52" t="n">
+        <v>99.59333333333338</v>
+      </c>
+      <c r="H52" t="n">
         <v>99.67166666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,22 +2525,25 @@
         <v>10112.2887</v>
       </c>
       <c r="G53" t="n">
+        <v>99.76000000000003</v>
+      </c>
+      <c r="H53" t="n">
         <v>99.70166666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,22 +2567,25 @@
         <v>5</v>
       </c>
       <c r="G54" t="n">
+        <v>99.8266666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>99.74833333333336</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2341,22 +2609,25 @@
         <v>21918.4984</v>
       </c>
       <c r="G55" t="n">
+        <v>99.83333333333336</v>
+      </c>
+      <c r="H55" t="n">
         <v>99.75333333333336</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2380,22 +2651,25 @@
         <v>2577</v>
       </c>
       <c r="G56" t="n">
+        <v>100.0666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>99.77500000000003</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2419,22 +2693,25 @@
         <v>1070.3707</v>
       </c>
       <c r="G57" t="n">
+        <v>100.1333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>99.79500000000003</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2458,22 +2735,25 @@
         <v>20</v>
       </c>
       <c r="G58" t="n">
+        <v>100.2066666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>99.81500000000003</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2497,22 +2777,25 @@
         <v>584</v>
       </c>
       <c r="G59" t="n">
+        <v>100.52</v>
+      </c>
+      <c r="H59" t="n">
         <v>99.85166666666669</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,22 +2819,25 @@
         <v>1508.8134</v>
       </c>
       <c r="G60" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="H60" t="n">
         <v>99.92000000000003</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2575,22 +2861,25 @@
         <v>30629.34</v>
       </c>
       <c r="G61" t="n">
+        <v>100.8666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>99.93833333333336</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,22 +2903,25 @@
         <v>410.1629</v>
       </c>
       <c r="G62" t="n">
+        <v>100.9333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>99.95666666666671</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,22 +2945,25 @@
         <v>5471.1147</v>
       </c>
       <c r="G63" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="H63" t="n">
         <v>100.0766666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,22 +2987,25 @@
         <v>1224.1296</v>
       </c>
       <c r="G64" t="n">
+        <v>101.1333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>100.0816666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2731,22 +3029,25 @@
         <v>5</v>
       </c>
       <c r="G65" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H65" t="n">
         <v>100.1316666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,22 +3071,25 @@
         <v>12.5443</v>
       </c>
       <c r="G66" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H66" t="n">
         <v>100.1316666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,22 +3113,25 @@
         <v>30908.2046</v>
       </c>
       <c r="G67" t="n">
+        <v>101.3333333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>100.115</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,22 +3155,25 @@
         <v>800</v>
       </c>
       <c r="G68" t="n">
+        <v>101.3333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>100.115</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2887,22 +3197,25 @@
         <v>996.5439</v>
       </c>
       <c r="G69" t="n">
+        <v>101.3333333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>100.1316666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,22 +3239,25 @@
         <v>4733.6232</v>
       </c>
       <c r="G70" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H70" t="n">
         <v>100.1483333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2965,22 +3281,25 @@
         <v>400</v>
       </c>
       <c r="G71" t="n">
+        <v>101.3333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>100.1483333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,22 +3323,25 @@
         <v>1319.73</v>
       </c>
       <c r="G72" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="H72" t="n">
         <v>100.1316666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3043,22 +3365,25 @@
         <v>1372.38</v>
       </c>
       <c r="G73" t="n">
+        <v>101.0133333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>100.1016666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,22 +3407,25 @@
         <v>2000</v>
       </c>
       <c r="G74" t="n">
+        <v>100.88</v>
+      </c>
+      <c r="H74" t="n">
         <v>100.1016666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3121,22 +3449,25 @@
         <v>105</v>
       </c>
       <c r="G75" t="n">
+        <v>100.68</v>
+      </c>
+      <c r="H75" t="n">
         <v>100.1016666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3160,22 +3491,25 @@
         <v>531.6378999999999</v>
       </c>
       <c r="G76" t="n">
+        <v>100.68</v>
+      </c>
+      <c r="H76" t="n">
         <v>100.1016666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,22 +3533,25 @@
         <v>1402.1568</v>
       </c>
       <c r="G77" t="n">
+        <v>100.68</v>
+      </c>
+      <c r="H77" t="n">
         <v>100.1183333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3238,22 +3575,25 @@
         <v>520</v>
       </c>
       <c r="G78" t="n">
+        <v>100.6133333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>100.1516666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3277,22 +3617,25 @@
         <v>3986</v>
       </c>
       <c r="G79" t="n">
+        <v>100.8133333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>100.2016666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3316,22 +3659,25 @@
         <v>7175.045</v>
       </c>
       <c r="G80" t="n">
+        <v>100.4266666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>100.1716666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,24 +3701,25 @@
         <v>4.9</v>
       </c>
       <c r="G81" t="n">
+        <v>100.56</v>
+      </c>
+      <c r="H81" t="n">
         <v>100.1883333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>98.2</v>
+        <v>0</v>
       </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3396,24 +3743,25 @@
         <v>2300.1076</v>
       </c>
       <c r="G82" t="n">
+        <v>100.4933333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>100.22</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3437,22 +3785,25 @@
         <v>46.9975</v>
       </c>
       <c r="G83" t="n">
+        <v>100.18</v>
+      </c>
+      <c r="H83" t="n">
         <v>100.125</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,22 +3827,25 @@
         <v>9674.990191340001</v>
       </c>
       <c r="G84" t="n">
+        <v>100.38</v>
+      </c>
+      <c r="H84" t="n">
         <v>100.2366666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3515,22 +3869,25 @@
         <v>26323.587</v>
       </c>
       <c r="G85" t="n">
+        <v>100.0066666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>100.2066666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,22 +3911,25 @@
         <v>14182.3326</v>
       </c>
       <c r="G86" t="n">
+        <v>99.94000000000004</v>
+      </c>
+      <c r="H86" t="n">
         <v>100.1733333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3593,22 +3953,25 @@
         <v>50</v>
       </c>
       <c r="G87" t="n">
+        <v>100.0066666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>100.175</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,22 +3995,25 @@
         <v>6</v>
       </c>
       <c r="G88" t="n">
+        <v>99.83333333333336</v>
+      </c>
+      <c r="H88" t="n">
         <v>100.1016666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3671,22 +4037,25 @@
         <v>2489.68968968</v>
       </c>
       <c r="G89" t="n">
+        <v>99.8266666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>100.0833333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,22 +4079,25 @@
         <v>800</v>
       </c>
       <c r="G90" t="n">
+        <v>99.75333333333337</v>
+      </c>
+      <c r="H90" t="n">
         <v>100.0816666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3749,22 +4121,25 @@
         <v>1000</v>
       </c>
       <c r="G91" t="n">
+        <v>99.68000000000005</v>
+      </c>
+      <c r="H91" t="n">
         <v>100.0633333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3788,22 +4163,25 @@
         <v>406</v>
       </c>
       <c r="G92" t="n">
+        <v>99.42000000000004</v>
+      </c>
+      <c r="H92" t="n">
         <v>100.015</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3827,22 +4205,25 @@
         <v>2026.887</v>
       </c>
       <c r="G93" t="n">
+        <v>99.02000000000004</v>
+      </c>
+      <c r="H93" t="n">
         <v>100.0466666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3866,22 +4247,25 @@
         <v>800</v>
       </c>
       <c r="G94" t="n">
+        <v>98.62000000000005</v>
+      </c>
+      <c r="H94" t="n">
         <v>100.0083333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3905,22 +4289,25 @@
         <v>1600</v>
       </c>
       <c r="G95" t="n">
+        <v>98.54000000000003</v>
+      </c>
+      <c r="H95" t="n">
         <v>99.95833333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3944,22 +4331,25 @@
         <v>1227</v>
       </c>
       <c r="G96" t="n">
+        <v>98.33333333333339</v>
+      </c>
+      <c r="H96" t="n">
         <v>99.94000000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,22 +4373,25 @@
         <v>3179</v>
       </c>
       <c r="G97" t="n">
+        <v>98.60000000000005</v>
+      </c>
+      <c r="H97" t="n">
         <v>100.005</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4022,24 +4415,25 @@
         <v>1861.007</v>
       </c>
       <c r="G98" t="n">
+        <v>98.84666666666672</v>
+      </c>
+      <c r="H98" t="n">
         <v>100.03</v>
       </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4063,22 +4457,25 @@
         <v>1061</v>
       </c>
       <c r="G99" t="n">
+        <v>98.78000000000004</v>
+      </c>
+      <c r="H99" t="n">
         <v>100.08</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,22 +4499,25 @@
         <v>3200</v>
       </c>
       <c r="G100" t="n">
+        <v>99.02000000000004</v>
+      </c>
+      <c r="H100" t="n">
         <v>100.065</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,22 +4541,25 @@
         <v>567.8911000000001</v>
       </c>
       <c r="G101" t="n">
+        <v>99.02000000000004</v>
+      </c>
+      <c r="H101" t="n">
         <v>100.09</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,22 +4583,25 @@
         <v>26.1504</v>
       </c>
       <c r="G102" t="n">
+        <v>98.76666666666671</v>
+      </c>
+      <c r="H102" t="n">
         <v>100.0266666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,22 +4625,25 @@
         <v>38536.34935676</v>
       </c>
       <c r="G103" t="n">
+        <v>99.46000000000005</v>
+      </c>
+      <c r="H103" t="n">
         <v>100.1283333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4258,22 +4667,25 @@
         <v>2800</v>
       </c>
       <c r="G104" t="n">
+        <v>99.42000000000004</v>
+      </c>
+      <c r="H104" t="n">
         <v>100.1616666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4297,22 +4709,25 @@
         <v>400</v>
       </c>
       <c r="G105" t="n">
+        <v>99.42000000000004</v>
+      </c>
+      <c r="H105" t="n">
         <v>100.1633333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,22 +4751,25 @@
         <v>4107.337</v>
       </c>
       <c r="G106" t="n">
+        <v>99.49333333333337</v>
+      </c>
+      <c r="H106" t="n">
         <v>100.18</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,22 +4793,25 @@
         <v>518.3998</v>
       </c>
       <c r="G107" t="n">
+        <v>99.95333333333338</v>
+      </c>
+      <c r="H107" t="n">
         <v>100.2466666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4414,22 +4835,25 @@
         <v>49.4947</v>
       </c>
       <c r="G108" t="n">
+        <v>100.3533333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>100.2966666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4453,22 +4877,25 @@
         <v>5346.96</v>
       </c>
       <c r="G109" t="n">
+        <v>100.82</v>
+      </c>
+      <c r="H109" t="n">
         <v>100.3466666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,22 +4919,25 @@
         <v>4876.67</v>
       </c>
       <c r="G110" t="n">
+        <v>101.0866666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>100.3633333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4531,22 +4961,25 @@
         <v>12530.1389</v>
       </c>
       <c r="G111" t="n">
+        <v>101.2266666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>100.38</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4570,22 +5003,27 @@
         <v>326.96</v>
       </c>
       <c r="G112" t="n">
+        <v>101.2933333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>100.43</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4607,18 +5045,25 @@
         <v>59.04</v>
       </c>
       <c r="G113" t="n">
+        <v>101.6266666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>100.4966666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4642,18 +5087,25 @@
         <v>385</v>
       </c>
       <c r="G114" t="n">
+        <v>101.56</v>
+      </c>
+      <c r="H114" t="n">
         <v>100.5133333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4677,18 +5129,403 @@
         <v>828.2026</v>
       </c>
       <c r="G115" t="n">
+        <v>101.76</v>
+      </c>
+      <c r="H115" t="n">
         <v>100.5466666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>102</v>
+      </c>
+      <c r="C116" t="n">
+        <v>102</v>
+      </c>
+      <c r="D116" t="n">
+        <v>102</v>
+      </c>
+      <c r="E116" t="n">
+        <v>102</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>101.96</v>
+      </c>
+      <c r="H116" t="n">
+        <v>100.5633333333333</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>103</v>
+      </c>
+      <c r="C117" t="n">
+        <v>103</v>
+      </c>
+      <c r="D117" t="n">
+        <v>103</v>
+      </c>
+      <c r="E117" t="n">
+        <v>103</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5150.7454</v>
+      </c>
+      <c r="G117" t="n">
+        <v>102.4133333333334</v>
+      </c>
+      <c r="H117" t="n">
+        <v>100.5966666666667</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>103</v>
+      </c>
+      <c r="C118" t="n">
+        <v>103</v>
+      </c>
+      <c r="D118" t="n">
+        <v>104</v>
+      </c>
+      <c r="E118" t="n">
+        <v>103</v>
+      </c>
+      <c r="F118" t="n">
+        <v>659</v>
+      </c>
+      <c r="G118" t="n">
+        <v>102.2133333333334</v>
+      </c>
+      <c r="H118" t="n">
+        <v>100.63</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>101</v>
+      </c>
+      <c r="C119" t="n">
+        <v>103</v>
+      </c>
+      <c r="D119" t="n">
+        <v>104</v>
+      </c>
+      <c r="E119" t="n">
+        <v>101</v>
+      </c>
+      <c r="F119" t="n">
+        <v>996</v>
+      </c>
+      <c r="G119" t="n">
+        <v>102.46</v>
+      </c>
+      <c r="H119" t="n">
+        <v>100.6466666666667</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>103</v>
+      </c>
+      <c r="C120" t="n">
+        <v>103</v>
+      </c>
+      <c r="D120" t="n">
+        <v>103</v>
+      </c>
+      <c r="E120" t="n">
+        <v>103</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3986.1434</v>
+      </c>
+      <c r="G120" t="n">
+        <v>102.6666666666667</v>
+      </c>
+      <c r="H120" t="n">
+        <v>100.63</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>102</v>
+      </c>
+      <c r="C121" t="n">
+        <v>102</v>
+      </c>
+      <c r="D121" t="n">
+        <v>102</v>
+      </c>
+      <c r="E121" t="n">
+        <v>102</v>
+      </c>
+      <c r="F121" t="n">
+        <v>372</v>
+      </c>
+      <c r="G121" t="n">
+        <v>102.7333333333334</v>
+      </c>
+      <c r="H121" t="n">
+        <v>100.6466666666667</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>102</v>
+      </c>
+      <c r="C122" t="n">
+        <v>102</v>
+      </c>
+      <c r="D122" t="n">
+        <v>102</v>
+      </c>
+      <c r="E122" t="n">
+        <v>102</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10393</v>
+      </c>
+      <c r="G122" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="H122" t="n">
+        <v>100.6633333333333</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>102</v>
+      </c>
+      <c r="C123" t="n">
+        <v>102</v>
+      </c>
+      <c r="D123" t="n">
+        <v>102</v>
+      </c>
+      <c r="E123" t="n">
+        <v>102</v>
+      </c>
+      <c r="F123" t="n">
+        <v>21648.7523</v>
+      </c>
+      <c r="G123" t="n">
+        <v>102.5333333333334</v>
+      </c>
+      <c r="H123" t="n">
+        <v>100.63</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>102</v>
+      </c>
+      <c r="C124" t="n">
+        <v>102</v>
+      </c>
+      <c r="D124" t="n">
+        <v>102</v>
+      </c>
+      <c r="E124" t="n">
+        <v>102</v>
+      </c>
+      <c r="F124" t="n">
+        <v>51771.2573</v>
+      </c>
+      <c r="G124" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H124" t="n">
+        <v>100.6633333333333</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>102</v>
+      </c>
+      <c r="C125" t="n">
+        <v>101</v>
+      </c>
+      <c r="D125" t="n">
+        <v>102</v>
+      </c>
+      <c r="E125" t="n">
+        <v>101</v>
+      </c>
+      <c r="F125" t="n">
+        <v>111149.5237</v>
+      </c>
+      <c r="G125" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H125" t="n">
+        <v>100.6133333333333</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C2" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D2" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E2" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F2" t="n">
-        <v>1398.04804804</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>99.48000000000005</v>
+        <v>-123466.08439434</v>
       </c>
       <c r="H2" t="n">
-        <v>100.4116666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>97.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="C3" t="n">
-        <v>96.8</v>
+        <v>101</v>
       </c>
       <c r="D3" t="n">
-        <v>97.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>96.8</v>
+        <v>101</v>
       </c>
       <c r="F3" t="n">
-        <v>17340.3367</v>
+        <v>800</v>
       </c>
       <c r="G3" t="n">
-        <v>99.38000000000005</v>
+        <v>-123466.08439434</v>
       </c>
       <c r="H3" t="n">
-        <v>100.3416666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>99.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>99.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>34908.2705</v>
       </c>
       <c r="G4" t="n">
-        <v>99.38666666666673</v>
+        <v>-158374.35489434</v>
       </c>
       <c r="H4" t="n">
-        <v>100.3033333333334</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>2305</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>99.46000000000005</v>
+        <v>-158369.35489434</v>
       </c>
       <c r="H5" t="n">
-        <v>100.2533333333334</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
@@ -599,27 +582,24 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>10584.6362</v>
       </c>
       <c r="G6" t="n">
-        <v>99.48000000000005</v>
+        <v>-158369.35489434</v>
       </c>
       <c r="H6" t="n">
-        <v>100.2366666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="G7" t="n">
-        <v>99.56000000000004</v>
+        <v>-158369.35489434</v>
       </c>
       <c r="H7" t="n">
-        <v>100.2033333333334</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>1991.878</v>
+        <v>11266.2078</v>
       </c>
       <c r="G8" t="n">
-        <v>99.68000000000005</v>
+        <v>-169635.56269434</v>
       </c>
       <c r="H8" t="n">
-        <v>100.1366666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1762.3583</v>
+        <v>31.22613065</v>
       </c>
       <c r="G9" t="n">
-        <v>99.80000000000004</v>
+        <v>-169604.33656369</v>
       </c>
       <c r="H9" t="n">
-        <v>100.0866666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F10" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>99.82000000000004</v>
+        <v>-169604.33656369</v>
       </c>
       <c r="H10" t="n">
-        <v>100.07</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F11" t="n">
-        <v>114</v>
+        <v>25.1</v>
       </c>
       <c r="G11" t="n">
-        <v>99.84000000000005</v>
+        <v>-169604.33656369</v>
       </c>
       <c r="H11" t="n">
-        <v>100.07</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="F12" t="n">
-        <v>2763</v>
+        <v>682.5453</v>
       </c>
       <c r="G12" t="n">
-        <v>99.85333333333338</v>
+        <v>-170286.88186369</v>
       </c>
       <c r="H12" t="n">
-        <v>100.0366666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>800</v>
+        <v>3061.545</v>
       </c>
       <c r="G13" t="n">
-        <v>99.86666666666672</v>
+        <v>-167225.33686369</v>
       </c>
       <c r="H13" t="n">
-        <v>100.0033333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E14" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F14" t="n">
-        <v>357</v>
+        <v>4000</v>
       </c>
       <c r="G14" t="n">
-        <v>99.88000000000005</v>
+        <v>-167225.33686369</v>
       </c>
       <c r="H14" t="n">
-        <v>100.0033333333334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C15" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="D15" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F15" t="n">
-        <v>344</v>
+        <v>612.6652</v>
       </c>
       <c r="G15" t="n">
-        <v>99.95333333333338</v>
+        <v>-167225.33686369</v>
       </c>
       <c r="H15" t="n">
-        <v>100.02</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>101</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>101</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>101</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>101</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>73</v>
+        <v>929.1967</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0266666666667</v>
+        <v>-168154.53356369</v>
       </c>
       <c r="H16" t="n">
-        <v>100.0366666666667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="E17" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="F17" t="n">
-        <v>42</v>
+        <v>1792.022</v>
       </c>
       <c r="G17" t="n">
-        <v>100.0333333333334</v>
+        <v>-169946.55556369</v>
       </c>
       <c r="H17" t="n">
-        <v>100.0033333333334</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>101</v>
+        <v>98.2</v>
       </c>
       <c r="C18" t="n">
-        <v>101</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>101</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>101</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>4981.5192</v>
       </c>
       <c r="G18" t="n">
-        <v>100.3133333333334</v>
+        <v>-164965.03636369</v>
       </c>
       <c r="H18" t="n">
-        <v>99.97000000000003</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="G19" t="n">
-        <v>100.3333333333334</v>
+        <v>-163165.03636369</v>
       </c>
       <c r="H19" t="n">
-        <v>99.95333333333336</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="F20" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G20" t="n">
-        <v>100.2666666666667</v>
+        <v>-165165.03636369</v>
       </c>
       <c r="H20" t="n">
-        <v>99.95333333333336</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>101</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="D21" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="E21" t="n">
-        <v>101</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="G21" t="n">
-        <v>100.3333333333334</v>
+        <v>-164950.03636369</v>
       </c>
       <c r="H21" t="n">
-        <v>99.97000000000003</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>97.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C22" t="n">
-        <v>97.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="D22" t="n">
-        <v>97.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="E22" t="n">
-        <v>97.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F22" t="n">
-        <v>2590.2329</v>
+        <v>2200</v>
       </c>
       <c r="G22" t="n">
-        <v>100.0733333333334</v>
+        <v>-167150.03636369</v>
       </c>
       <c r="H22" t="n">
-        <v>99.88833333333336</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>99.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>101</v>
+        <v>98.2</v>
       </c>
       <c r="D23" t="n">
-        <v>101</v>
+        <v>98.2</v>
       </c>
       <c r="E23" t="n">
-        <v>99.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>352</v>
+        <v>4936.0849</v>
       </c>
       <c r="G23" t="n">
-        <v>100.14</v>
+        <v>-167150.03636369</v>
       </c>
       <c r="H23" t="n">
-        <v>99.88833333333336</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,42 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C24" t="n">
-        <v>97.3</v>
+        <v>99.7</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="E24" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="F24" t="n">
-        <v>62</v>
+        <v>293.9463</v>
       </c>
       <c r="G24" t="n">
-        <v>99.96000000000002</v>
+        <v>-166856.09006369</v>
       </c>
       <c r="H24" t="n">
-        <v>99.8266666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1318,40 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C25" t="n">
-        <v>97.2</v>
+        <v>99.7</v>
       </c>
       <c r="D25" t="n">
-        <v>97.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E25" t="n">
-        <v>97.2</v>
+        <v>99.7</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="G25" t="n">
-        <v>99.77333333333335</v>
+        <v>-166856.09006369</v>
       </c>
       <c r="H25" t="n">
-        <v>99.7466666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1360,42 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="C26" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="D26" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="E26" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>762</v>
       </c>
       <c r="G26" t="n">
-        <v>99.84000000000002</v>
+        <v>-166094.09006369</v>
       </c>
       <c r="H26" t="n">
-        <v>99.76666666666669</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>97.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,42 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C27" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D27" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E27" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="F27" t="n">
-        <v>12.78</v>
+        <v>3987.7315</v>
       </c>
       <c r="G27" t="n">
-        <v>99.83333333333336</v>
+        <v>-166094.09006369</v>
       </c>
       <c r="H27" t="n">
-        <v>99.74833333333336</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,40 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D28" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="G28" t="n">
-        <v>99.83333333333336</v>
+        <v>-166094.09006369</v>
       </c>
       <c r="H28" t="n">
-        <v>99.7316666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1490,40 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="C29" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>23944</v>
       </c>
       <c r="G29" t="n">
-        <v>99.90000000000003</v>
+        <v>-142150.09006369</v>
       </c>
       <c r="H29" t="n">
-        <v>99.7316666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1532,40 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>21707.053</v>
+        <v>859.1671</v>
       </c>
       <c r="G30" t="n">
-        <v>99.83333333333336</v>
+        <v>-142150.09006369</v>
       </c>
       <c r="H30" t="n">
-        <v>99.71500000000002</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,40 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>763.4201</v>
+        <v>1398.04804804</v>
       </c>
       <c r="G31" t="n">
-        <v>99.83333333333336</v>
+        <v>-142150.09006369</v>
       </c>
       <c r="H31" t="n">
-        <v>99.73333333333336</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,40 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>100</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>100</v>
+        <v>96.8</v>
       </c>
       <c r="D32" t="n">
-        <v>100</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>100</v>
+        <v>96.8</v>
       </c>
       <c r="F32" t="n">
-        <v>26.1504</v>
+        <v>17340.3367</v>
       </c>
       <c r="G32" t="n">
-        <v>99.83333333333336</v>
+        <v>-159490.42676369</v>
       </c>
       <c r="H32" t="n">
-        <v>99.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,40 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="C33" t="n">
-        <v>95.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D33" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="E33" t="n">
-        <v>95.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="F33" t="n">
-        <v>91199.99370000001</v>
+        <v>5.1</v>
       </c>
       <c r="G33" t="n">
-        <v>99.44000000000003</v>
+        <v>-159485.32676369</v>
       </c>
       <c r="H33" t="n">
-        <v>99.61833333333337</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1700,40 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>97.8</v>
+        <v>99.7</v>
       </c>
       <c r="C34" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="D34" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="E34" t="n">
-        <v>97.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="F34" t="n">
-        <v>1200</v>
+        <v>2305</v>
       </c>
       <c r="G34" t="n">
-        <v>99.39333333333336</v>
+        <v>-157180.32676369</v>
       </c>
       <c r="H34" t="n">
-        <v>99.59000000000005</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="C35" t="n">
         <v>100</v>
@@ -1751,31 +1597,24 @@
         <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>556</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>99.39333333333336</v>
+        <v>-157190.32676369</v>
       </c>
       <c r="H35" t="n">
-        <v>99.6216666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1784,40 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C36" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F36" t="n">
-        <v>2651.1559</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>99.32666666666668</v>
+        <v>-157185.32676369</v>
       </c>
       <c r="H36" t="n">
-        <v>99.6216666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1826,40 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C37" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="D37" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E37" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5586</v>
+        <v>1991.878</v>
       </c>
       <c r="G37" t="n">
-        <v>99.46000000000002</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H37" t="n">
-        <v>99.60666666666671</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,42 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C38" t="n">
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="D38" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E38" t="n">
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="F38" t="n">
-        <v>2005</v>
+        <v>1762.3583</v>
       </c>
       <c r="G38" t="n">
-        <v>99.22666666666669</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H38" t="n">
-        <v>99.56500000000004</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>99.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1912,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C39" t="n">
         <v>100</v>
@@ -1921,33 +1737,24 @@
         <v>100</v>
       </c>
       <c r="E39" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F39" t="n">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G39" t="n">
-        <v>99.40666666666669</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H39" t="n">
-        <v>99.59666666666671</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>97.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,42 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E40" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F40" t="n">
-        <v>31.885</v>
+        <v>114</v>
       </c>
       <c r="G40" t="n">
-        <v>99.58666666666669</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H40" t="n">
-        <v>99.60333333333337</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2000,40 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C41" t="n">
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="D41" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E41" t="n">
-        <v>95.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F41" t="n">
-        <v>10650.7472</v>
+        <v>2763</v>
       </c>
       <c r="G41" t="n">
-        <v>99.35333333333337</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57000000000002</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2042,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="C42" t="n">
         <v>100</v>
@@ -2051,33 +1842,24 @@
         <v>100</v>
       </c>
       <c r="E42" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F42" t="n">
-        <v>1173</v>
+        <v>800</v>
       </c>
       <c r="G42" t="n">
-        <v>99.36000000000003</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H42" t="n">
-        <v>99.57833333333336</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>97.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2086,40 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>98.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="C43" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D43" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E43" t="n">
-        <v>95.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F43" t="n">
-        <v>10618.8622</v>
+        <v>357</v>
       </c>
       <c r="G43" t="n">
-        <v>99.35333333333337</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H43" t="n">
-        <v>99.60500000000002</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,40 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>97.3</v>
+        <v>100</v>
       </c>
       <c r="C44" t="n">
-        <v>97.3</v>
+        <v>101</v>
       </c>
       <c r="D44" t="n">
-        <v>97.3</v>
+        <v>101</v>
       </c>
       <c r="E44" t="n">
-        <v>97.3</v>
+        <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="G44" t="n">
-        <v>99.1066666666667</v>
+        <v>-158833.20476369</v>
       </c>
       <c r="H44" t="n">
-        <v>99.56333333333335</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,42 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="C45" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="D45" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="E45" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09333333333335</v>
+        <v>-158833.20476369</v>
       </c>
       <c r="H45" t="n">
-        <v>99.56333333333335</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>97.3</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C46" t="n">
         <v>100</v>
@@ -2223,33 +1982,24 @@
         <v>100</v>
       </c>
       <c r="E46" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F46" t="n">
-        <v>819</v>
+        <v>42</v>
       </c>
       <c r="G46" t="n">
-        <v>99.02666666666669</v>
+        <v>-158875.20476369</v>
       </c>
       <c r="H46" t="n">
-        <v>99.56666666666668</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>99.8</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2258,40 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C47" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D47" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F47" t="n">
-        <v>17.84</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>99.02666666666669</v>
+        <v>-158870.20476369</v>
       </c>
       <c r="H47" t="n">
-        <v>99.59333333333335</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2312,28 +2055,21 @@
         <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="G48" t="n">
-        <v>99.35333333333337</v>
+        <v>-159270.20476369</v>
       </c>
       <c r="H48" t="n">
-        <v>99.62166666666668</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,40 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>1600</v>
       </c>
       <c r="G49" t="n">
-        <v>99.4666666666667</v>
+        <v>-159270.20476369</v>
       </c>
       <c r="H49" t="n">
-        <v>99.64500000000001</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2384,40 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C50" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D50" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E50" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F50" t="n">
-        <v>19005</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>99.4666666666667</v>
+        <v>-159265.20476369</v>
       </c>
       <c r="H50" t="n">
-        <v>99.64666666666669</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,40 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>99.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>99.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>30.97</v>
+        <v>2590.2329</v>
       </c>
       <c r="G51" t="n">
-        <v>99.4666666666667</v>
+        <v>-161855.43766369</v>
       </c>
       <c r="H51" t="n">
-        <v>99.65166666666669</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2468,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>101</v>
@@ -2477,31 +2192,24 @@
         <v>101</v>
       </c>
       <c r="E52" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>352</v>
       </c>
       <c r="G52" t="n">
-        <v>99.59333333333338</v>
+        <v>-161503.43766369</v>
       </c>
       <c r="H52" t="n">
-        <v>99.67166666666668</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,37 +2221,30 @@
         <v>100</v>
       </c>
       <c r="C53" t="n">
-        <v>100</v>
+        <v>97.3</v>
       </c>
       <c r="D53" t="n">
         <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>100</v>
+        <v>97.2</v>
       </c>
       <c r="F53" t="n">
-        <v>10112.2887</v>
+        <v>62</v>
       </c>
       <c r="G53" t="n">
-        <v>99.76000000000003</v>
+        <v>-161565.43766369</v>
       </c>
       <c r="H53" t="n">
-        <v>99.70166666666668</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2552,40 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>101</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="D54" t="n">
-        <v>101</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G54" t="n">
-        <v>99.8266666666667</v>
+        <v>-161577.43766369</v>
       </c>
       <c r="H54" t="n">
-        <v>99.74833333333336</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2594,40 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C55" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D55" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E55" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F55" t="n">
-        <v>21918.4984</v>
+        <v>5</v>
       </c>
       <c r="G55" t="n">
-        <v>99.83333333333336</v>
+        <v>-161572.43766369</v>
       </c>
       <c r="H55" t="n">
-        <v>99.75333333333336</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,40 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>2577</v>
+        <v>12.78</v>
       </c>
       <c r="G56" t="n">
-        <v>100.0666666666667</v>
+        <v>-161585.21766369</v>
       </c>
       <c r="H56" t="n">
-        <v>99.77500000000003</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2678,40 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D57" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E57" t="n">
         <v>100</v>
       </c>
       <c r="F57" t="n">
-        <v>1070.3707</v>
+        <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>100.1333333333334</v>
+        <v>-161535.21766369</v>
       </c>
       <c r="H57" t="n">
-        <v>99.79500000000003</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2732,28 +2405,21 @@
         <v>101</v>
       </c>
       <c r="F58" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>100.2066666666667</v>
+        <v>-161530.21766369</v>
       </c>
       <c r="H58" t="n">
-        <v>99.81500000000003</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2762,40 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D59" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E59" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F59" t="n">
-        <v>584</v>
+        <v>21707.053</v>
       </c>
       <c r="G59" t="n">
-        <v>100.52</v>
+        <v>-183237.2706636899</v>
       </c>
       <c r="H59" t="n">
-        <v>99.85166666666669</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2804,40 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C60" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D60" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E60" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F60" t="n">
-        <v>1508.8134</v>
+        <v>763.4201</v>
       </c>
       <c r="G60" t="n">
-        <v>100.8</v>
+        <v>-182473.8505636899</v>
       </c>
       <c r="H60" t="n">
-        <v>99.92000000000003</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2849,37 +2501,30 @@
         <v>100</v>
       </c>
       <c r="C61" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E61" t="n">
         <v>100</v>
       </c>
       <c r="F61" t="n">
-        <v>30629.34</v>
+        <v>26.1504</v>
       </c>
       <c r="G61" t="n">
-        <v>100.8666666666667</v>
+        <v>-182500.00096369</v>
       </c>
       <c r="H61" t="n">
-        <v>99.93833333333336</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2888,40 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62" t="n">
-        <v>101</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E62" t="n">
-        <v>101</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>410.1629</v>
+        <v>91199.99370000001</v>
       </c>
       <c r="G62" t="n">
-        <v>100.9333333333334</v>
+        <v>-273699.99466369</v>
       </c>
       <c r="H62" t="n">
-        <v>99.95666666666671</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,40 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>98.2</v>
+        <v>97.8</v>
       </c>
       <c r="C63" t="n">
-        <v>104</v>
+        <v>99.3</v>
       </c>
       <c r="D63" t="n">
-        <v>104</v>
+        <v>99.3</v>
       </c>
       <c r="E63" t="n">
-        <v>98.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>5471.1147</v>
+        <v>1200</v>
       </c>
       <c r="G63" t="n">
-        <v>101.2</v>
+        <v>-272499.99466369</v>
       </c>
       <c r="H63" t="n">
-        <v>100.0766666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2972,7 +2603,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="C64" t="n">
         <v>100</v>
@@ -2981,31 +2612,24 @@
         <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="F64" t="n">
-        <v>1224.1296</v>
+        <v>556</v>
       </c>
       <c r="G64" t="n">
-        <v>101.1333333333334</v>
+        <v>-271943.99466369</v>
       </c>
       <c r="H64" t="n">
-        <v>100.0816666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,40 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D65" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E65" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>2651.1559</v>
       </c>
       <c r="G65" t="n">
-        <v>101.4</v>
+        <v>-271943.99466369</v>
       </c>
       <c r="H65" t="n">
-        <v>100.1316666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,40 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>12.5443</v>
+        <v>66.5586</v>
       </c>
       <c r="G66" t="n">
-        <v>101.4</v>
+        <v>-272010.55326369</v>
       </c>
       <c r="H66" t="n">
-        <v>100.1316666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,40 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="D67" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="F67" t="n">
-        <v>30908.2046</v>
+        <v>2005</v>
       </c>
       <c r="G67" t="n">
-        <v>101.3333333333334</v>
+        <v>-274015.55326369</v>
       </c>
       <c r="H67" t="n">
-        <v>100.115</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,7 +2743,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C68" t="n">
         <v>100</v>
@@ -3149,31 +2752,24 @@
         <v>100</v>
       </c>
       <c r="E68" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>800</v>
+        <v>405</v>
       </c>
       <c r="G68" t="n">
-        <v>101.3333333333334</v>
+        <v>-273610.55326369</v>
       </c>
       <c r="H68" t="n">
-        <v>100.115</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3182,40 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>996.5439</v>
+        <v>31.885</v>
       </c>
       <c r="G69" t="n">
-        <v>101.3333333333334</v>
+        <v>-273642.43826369</v>
       </c>
       <c r="H69" t="n">
-        <v>100.1316666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,40 +2813,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>101</v>
+        <v>97.5</v>
       </c>
       <c r="D70" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>101</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>4733.6232</v>
+        <v>10650.7472</v>
       </c>
       <c r="G70" t="n">
-        <v>101.4</v>
+        <v>-284293.18546369</v>
       </c>
       <c r="H70" t="n">
-        <v>100.1483333333334</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,7 +2854,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="C71" t="n">
         <v>100</v>
@@ -3275,31 +2863,30 @@
         <v>100</v>
       </c>
       <c r="E71" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F71" t="n">
-        <v>400</v>
+        <v>1173</v>
       </c>
       <c r="G71" t="n">
-        <v>101.3333333333334</v>
+        <v>-283120.18546369</v>
       </c>
       <c r="H71" t="n">
-        <v>100.1483333333334</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3308,40 +2895,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>101</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>98.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>1319.73</v>
+        <v>10618.8622</v>
       </c>
       <c r="G72" t="n">
-        <v>101.2</v>
+        <v>-293739.0476636899</v>
       </c>
       <c r="H72" t="n">
-        <v>100.1316666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3350,40 +2934,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>98.2</v>
+        <v>97.3</v>
       </c>
       <c r="C73" t="n">
-        <v>98.2</v>
+        <v>97.3</v>
       </c>
       <c r="D73" t="n">
-        <v>98.2</v>
+        <v>97.3</v>
       </c>
       <c r="E73" t="n">
-        <v>98.2</v>
+        <v>97.3</v>
       </c>
       <c r="F73" t="n">
-        <v>1372.38</v>
+        <v>17</v>
       </c>
       <c r="G73" t="n">
-        <v>101.0133333333334</v>
+        <v>-293756.0476636899</v>
       </c>
       <c r="H73" t="n">
-        <v>100.1016666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3392,40 +2973,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C74" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D74" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E74" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F74" t="n">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="G74" t="n">
-        <v>100.88</v>
+        <v>-293750.0476636899</v>
       </c>
       <c r="H74" t="n">
-        <v>100.1016666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,40 +3012,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>98.2</v>
+        <v>99.8</v>
       </c>
       <c r="C75" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D75" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E75" t="n">
-        <v>98.2</v>
+        <v>99.8</v>
       </c>
       <c r="F75" t="n">
-        <v>105</v>
+        <v>819</v>
       </c>
       <c r="G75" t="n">
-        <v>100.68</v>
+        <v>-292931.0476636899</v>
       </c>
       <c r="H75" t="n">
-        <v>100.1016666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,40 +3051,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D76" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E76" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>531.6378999999999</v>
+        <v>17.84</v>
       </c>
       <c r="G76" t="n">
-        <v>100.68</v>
+        <v>-292931.0476636899</v>
       </c>
       <c r="H76" t="n">
-        <v>100.1016666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3518,40 +3090,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="C77" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D77" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E77" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="F77" t="n">
-        <v>1402.1568</v>
+        <v>65</v>
       </c>
       <c r="G77" t="n">
-        <v>100.68</v>
+        <v>-292931.0476636899</v>
       </c>
       <c r="H77" t="n">
-        <v>100.1183333333334</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3560,40 +3129,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C78" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D78" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E78" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F78" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>100.6133333333334</v>
+        <v>-292926.0476636899</v>
       </c>
       <c r="H78" t="n">
-        <v>100.1516666666667</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,40 +3170,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>98.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D79" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E79" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="F79" t="n">
-        <v>3986</v>
+        <v>19005</v>
       </c>
       <c r="G79" t="n">
-        <v>100.8133333333334</v>
+        <v>-311931.0476636899</v>
       </c>
       <c r="H79" t="n">
-        <v>100.2016666666667</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,40 +3211,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>98.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="D80" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="E80" t="n">
-        <v>98.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>7175.045</v>
+        <v>30.97</v>
       </c>
       <c r="G80" t="n">
-        <v>100.4266666666667</v>
+        <v>-311931.0476636899</v>
       </c>
       <c r="H80" t="n">
-        <v>100.1716666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,40 +3250,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E81" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F81" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G81" t="n">
-        <v>100.56</v>
+        <v>-311926.0476636899</v>
       </c>
       <c r="H81" t="n">
-        <v>100.1883333333334</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,40 +3289,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C82" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D82" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E82" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F82" t="n">
-        <v>2300.1076</v>
+        <v>10112.2887</v>
       </c>
       <c r="G82" t="n">
-        <v>100.4933333333334</v>
+        <v>-322038.3363636899</v>
       </c>
       <c r="H82" t="n">
-        <v>100.22</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,40 +3328,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C83" t="n">
-        <v>95.3</v>
+        <v>101</v>
       </c>
       <c r="D83" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E83" t="n">
-        <v>95.3</v>
+        <v>101</v>
       </c>
       <c r="F83" t="n">
-        <v>46.9975</v>
+        <v>5</v>
       </c>
       <c r="G83" t="n">
-        <v>100.18</v>
+        <v>-322033.3363636899</v>
       </c>
       <c r="H83" t="n">
-        <v>100.125</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,40 +3367,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C84" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D84" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E84" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F84" t="n">
-        <v>9674.990191340001</v>
+        <v>21918.4984</v>
       </c>
       <c r="G84" t="n">
-        <v>100.38</v>
+        <v>-343951.8347636899</v>
       </c>
       <c r="H84" t="n">
-        <v>100.2366666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,40 +3406,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>95.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="C85" t="n">
-        <v>95.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="D85" t="n">
-        <v>95.59999999999999</v>
+        <v>102</v>
       </c>
       <c r="E85" t="n">
-        <v>95.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="F85" t="n">
-        <v>26323.587</v>
+        <v>2577</v>
       </c>
       <c r="G85" t="n">
-        <v>100.0066666666667</v>
+        <v>-341374.8347636899</v>
       </c>
       <c r="H85" t="n">
-        <v>100.2066666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,40 +3445,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="C86" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D86" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="E86" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F86" t="n">
-        <v>14182.3326</v>
+        <v>1070.3707</v>
       </c>
       <c r="G86" t="n">
-        <v>99.94000000000004</v>
+        <v>-341374.8347636899</v>
       </c>
       <c r="H86" t="n">
-        <v>100.1733333333334</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,40 +3484,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C87" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D87" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E87" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F87" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G87" t="n">
-        <v>100.0066666666667</v>
+        <v>-341374.8347636899</v>
       </c>
       <c r="H87" t="n">
-        <v>100.175</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3980,40 +3523,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>95.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="C88" t="n">
-        <v>95.59999999999999</v>
+        <v>102</v>
       </c>
       <c r="D88" t="n">
-        <v>95.59999999999999</v>
+        <v>102</v>
       </c>
       <c r="E88" t="n">
-        <v>95.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="F88" t="n">
-        <v>6</v>
+        <v>584</v>
       </c>
       <c r="G88" t="n">
-        <v>99.83333333333336</v>
+        <v>-340790.8347636899</v>
       </c>
       <c r="H88" t="n">
-        <v>100.1016666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4022,40 +3562,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>99.90000000000001</v>
+        <v>102</v>
       </c>
       <c r="C89" t="n">
-        <v>99.90000000000001</v>
+        <v>104</v>
       </c>
       <c r="D89" t="n">
-        <v>99.90000000000001</v>
+        <v>104</v>
       </c>
       <c r="E89" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F89" t="n">
-        <v>2489.68968968</v>
+        <v>1508.8134</v>
       </c>
       <c r="G89" t="n">
-        <v>99.8266666666667</v>
+        <v>-339282.0213636899</v>
       </c>
       <c r="H89" t="n">
-        <v>100.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,40 +3601,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C90" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D90" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E90" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F90" t="n">
-        <v>800</v>
+        <v>30629.34</v>
       </c>
       <c r="G90" t="n">
-        <v>99.75333333333337</v>
+        <v>-369911.3613636899</v>
       </c>
       <c r="H90" t="n">
-        <v>100.0816666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,40 +3640,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C91" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D91" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E91" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F91" t="n">
-        <v>1000</v>
+        <v>410.1629</v>
       </c>
       <c r="G91" t="n">
-        <v>99.68000000000005</v>
+        <v>-369911.3613636899</v>
       </c>
       <c r="H91" t="n">
-        <v>100.0633333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4148,40 +3679,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>97.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C92" t="n">
-        <v>97.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="D92" t="n">
-        <v>97.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="E92" t="n">
-        <v>97.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F92" t="n">
-        <v>406</v>
+        <v>5471.1147</v>
       </c>
       <c r="G92" t="n">
-        <v>99.42000000000004</v>
+        <v>-364440.24666369</v>
       </c>
       <c r="H92" t="n">
-        <v>100.015</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,40 +3718,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C93" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D93" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E93" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F93" t="n">
-        <v>2026.887</v>
+        <v>1224.1296</v>
       </c>
       <c r="G93" t="n">
-        <v>99.02000000000004</v>
+        <v>-365664.3762636899</v>
       </c>
       <c r="H93" t="n">
-        <v>100.0466666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4232,40 +3757,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>98.90000000000001</v>
+        <v>104</v>
       </c>
       <c r="C94" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D94" t="n">
-        <v>98.90000000000001</v>
+        <v>104</v>
       </c>
       <c r="E94" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F94" t="n">
-        <v>800</v>
+        <v>5</v>
       </c>
       <c r="G94" t="n">
-        <v>98.62000000000005</v>
+        <v>-365659.3762636899</v>
       </c>
       <c r="H94" t="n">
-        <v>100.0083333333334</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,40 +3796,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C95" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D95" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E95" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F95" t="n">
-        <v>1600</v>
+        <v>12.5443</v>
       </c>
       <c r="G95" t="n">
-        <v>98.54000000000003</v>
+        <v>-365671.92056369</v>
       </c>
       <c r="H95" t="n">
-        <v>99.95833333333334</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,40 +3835,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C96" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D96" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E96" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F96" t="n">
-        <v>1227</v>
+        <v>30908.2046</v>
       </c>
       <c r="G96" t="n">
-        <v>98.33333333333339</v>
+        <v>-365671.92056369</v>
       </c>
       <c r="H96" t="n">
-        <v>99.94000000000001</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4358,40 +3874,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C97" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D97" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E97" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F97" t="n">
-        <v>3179</v>
+        <v>800</v>
       </c>
       <c r="G97" t="n">
-        <v>98.60000000000005</v>
+        <v>-365671.92056369</v>
       </c>
       <c r="H97" t="n">
-        <v>100.005</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,40 +3913,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C98" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D98" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E98" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F98" t="n">
-        <v>1861.007</v>
+        <v>996.5439</v>
       </c>
       <c r="G98" t="n">
-        <v>98.84666666666672</v>
+        <v>-364675.37666369</v>
       </c>
       <c r="H98" t="n">
-        <v>100.03</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,40 +3952,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>98.8</v>
+        <v>101</v>
       </c>
       <c r="C99" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D99" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E99" t="n">
-        <v>98.8</v>
+        <v>101</v>
       </c>
       <c r="F99" t="n">
-        <v>1061</v>
+        <v>4733.6232</v>
       </c>
       <c r="G99" t="n">
-        <v>98.78000000000004</v>
+        <v>-364675.37666369</v>
       </c>
       <c r="H99" t="n">
-        <v>100.08</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,40 +3991,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C100" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D100" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E100" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F100" t="n">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="G100" t="n">
-        <v>99.02000000000004</v>
+        <v>-365075.37666369</v>
       </c>
       <c r="H100" t="n">
-        <v>100.065</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,40 +4030,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C101" t="n">
         <v>99</v>
       </c>
       <c r="D101" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E101" t="n">
-        <v>99</v>
+        <v>98.3</v>
       </c>
       <c r="F101" t="n">
-        <v>567.8911000000001</v>
+        <v>1319.73</v>
       </c>
       <c r="G101" t="n">
-        <v>99.02000000000004</v>
+        <v>-366395.1066636899</v>
       </c>
       <c r="H101" t="n">
-        <v>100.09</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4568,40 +4069,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>96.2</v>
+        <v>98.2</v>
       </c>
       <c r="C102" t="n">
-        <v>96.2</v>
+        <v>98.2</v>
       </c>
       <c r="D102" t="n">
-        <v>96.2</v>
+        <v>98.2</v>
       </c>
       <c r="E102" t="n">
-        <v>96.2</v>
+        <v>98.2</v>
       </c>
       <c r="F102" t="n">
-        <v>26.1504</v>
+        <v>1372.38</v>
       </c>
       <c r="G102" t="n">
-        <v>98.76666666666671</v>
+        <v>-367767.48666369</v>
       </c>
       <c r="H102" t="n">
-        <v>100.0266666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,40 +4108,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C103" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D103" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E103" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F103" t="n">
-        <v>38536.34935676</v>
+        <v>2000</v>
       </c>
       <c r="G103" t="n">
-        <v>99.46000000000005</v>
+        <v>-365767.48666369</v>
       </c>
       <c r="H103" t="n">
-        <v>100.1283333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4652,40 +4147,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>99.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C104" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="D104" t="n">
-        <v>99.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="E104" t="n">
-        <v>99.3</v>
+        <v>98.2</v>
       </c>
       <c r="F104" t="n">
-        <v>2800</v>
+        <v>105</v>
       </c>
       <c r="G104" t="n">
-        <v>99.42000000000004</v>
+        <v>-365662.48666369</v>
       </c>
       <c r="H104" t="n">
-        <v>100.1616666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,40 +4186,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>99.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C105" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D105" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E105" t="n">
-        <v>99.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="F105" t="n">
-        <v>400</v>
+        <v>531.6378999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>99.42000000000004</v>
+        <v>-365662.48666369</v>
       </c>
       <c r="H105" t="n">
-        <v>100.1633333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,40 +4225,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C106" t="n">
         <v>101</v>
       </c>
       <c r="D106" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E106" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="F106" t="n">
-        <v>4107.337</v>
+        <v>1402.1568</v>
       </c>
       <c r="G106" t="n">
-        <v>99.49333333333337</v>
+        <v>-365662.48666369</v>
       </c>
       <c r="H106" t="n">
-        <v>100.18</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,40 +4264,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C107" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D107" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E107" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F107" t="n">
-        <v>518.3998</v>
+        <v>520</v>
       </c>
       <c r="G107" t="n">
-        <v>99.95333333333338</v>
+        <v>-365142.48666369</v>
       </c>
       <c r="H107" t="n">
-        <v>100.2466666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,7 +4303,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>103</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C108" t="n">
         <v>103</v>
@@ -4829,31 +4312,28 @@
         <v>103</v>
       </c>
       <c r="E108" t="n">
-        <v>103</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>49.4947</v>
+        <v>3986</v>
       </c>
       <c r="G108" t="n">
-        <v>100.3533333333334</v>
+        <v>-365142.48666369</v>
       </c>
       <c r="H108" t="n">
-        <v>100.2966666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,40 +4342,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>103</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>104</v>
+        <v>98.2</v>
       </c>
       <c r="D109" t="n">
-        <v>104</v>
+        <v>98.2</v>
       </c>
       <c r="E109" t="n">
-        <v>101</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>5346.96</v>
+        <v>7175.045</v>
       </c>
       <c r="G109" t="n">
-        <v>100.82</v>
+        <v>-372317.5316636899</v>
       </c>
       <c r="H109" t="n">
-        <v>100.3466666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4904,40 +4381,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C110" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D110" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E110" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F110" t="n">
-        <v>4876.67</v>
+        <v>4.9</v>
       </c>
       <c r="G110" t="n">
-        <v>101.0866666666667</v>
+        <v>-372312.6316636899</v>
       </c>
       <c r="H110" t="n">
-        <v>100.3633333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,40 +4420,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>105</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D111" t="n">
-        <v>105</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F111" t="n">
-        <v>12530.1389</v>
+        <v>2300.1076</v>
       </c>
       <c r="G111" t="n">
-        <v>101.2266666666667</v>
+        <v>-374612.7392636899</v>
       </c>
       <c r="H111" t="n">
-        <v>100.38</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,40 +4459,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C112" t="n">
-        <v>104</v>
+        <v>95.3</v>
       </c>
       <c r="D112" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E112" t="n">
-        <v>104</v>
+        <v>95.3</v>
       </c>
       <c r="F112" t="n">
-        <v>326.96</v>
+        <v>46.9975</v>
       </c>
       <c r="G112" t="n">
-        <v>101.2933333333334</v>
+        <v>-374659.7367636899</v>
       </c>
       <c r="H112" t="n">
-        <v>100.43</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5030,7 +4498,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C113" t="n">
         <v>104</v>
@@ -5039,31 +4507,28 @@
         <v>104</v>
       </c>
       <c r="E113" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F113" t="n">
-        <v>59.04</v>
+        <v>9674.990191340001</v>
       </c>
       <c r="G113" t="n">
-        <v>101.6266666666667</v>
+        <v>-364984.7465723499</v>
       </c>
       <c r="H113" t="n">
-        <v>100.4966666666667</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,40 +4537,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>102</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>102</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>102</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>102</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>385</v>
+        <v>26323.587</v>
       </c>
       <c r="G114" t="n">
-        <v>101.56</v>
+        <v>-391308.3335723499</v>
       </c>
       <c r="H114" t="n">
-        <v>100.5133333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,76 +4576,76 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>102</v>
+        <v>99.7</v>
       </c>
       <c r="C115" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D115" t="n">
-        <v>102</v>
+        <v>99.8</v>
       </c>
       <c r="E115" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F115" t="n">
-        <v>828.2026</v>
+        <v>14182.3326</v>
       </c>
       <c r="G115" t="n">
-        <v>101.76</v>
+        <v>-377126.0009723499</v>
       </c>
       <c r="H115" t="n">
-        <v>100.5466666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C116" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D116" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E116" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F116" t="n">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G116" t="n">
-        <v>101.96</v>
+        <v>-377076.0009723499</v>
       </c>
       <c r="H116" t="n">
-        <v>100.5633333333333</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>1</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,36 +4654,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>103</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>103</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>103</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>103</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>5150.7454</v>
+        <v>6</v>
       </c>
       <c r="G117" t="n">
-        <v>102.4133333333334</v>
+        <v>-377082.0009723499</v>
       </c>
       <c r="H117" t="n">
-        <v>100.5966666666667</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5230,36 +4693,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F118" t="n">
-        <v>659</v>
+        <v>2489.68968968</v>
       </c>
       <c r="G118" t="n">
-        <v>102.2133333333334</v>
+        <v>-374592.3112826699</v>
       </c>
       <c r="H118" t="n">
-        <v>100.63</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5268,36 +4732,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C119" t="n">
-        <v>103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F119" t="n">
-        <v>996</v>
+        <v>800</v>
       </c>
       <c r="G119" t="n">
-        <v>102.46</v>
+        <v>-374592.3112826699</v>
       </c>
       <c r="H119" t="n">
-        <v>100.6466666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5306,36 +4771,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C120" t="n">
-        <v>103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F120" t="n">
-        <v>3986.1434</v>
+        <v>1000</v>
       </c>
       <c r="G120" t="n">
-        <v>102.6666666666667</v>
+        <v>-374592.3112826699</v>
       </c>
       <c r="H120" t="n">
-        <v>100.63</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,36 +4810,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>102</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>102</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>102</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>102</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="G121" t="n">
-        <v>102.7333333333334</v>
+        <v>-374998.3112826699</v>
       </c>
       <c r="H121" t="n">
-        <v>100.6466666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>1</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,36 +4849,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C122" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D122" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E122" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F122" t="n">
-        <v>10393</v>
+        <v>2026.887</v>
       </c>
       <c r="G122" t="n">
-        <v>102.6</v>
+        <v>-377025.1982826699</v>
       </c>
       <c r="H122" t="n">
-        <v>100.6633333333333</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5420,36 +4888,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>102</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D123" t="n">
-        <v>102</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F123" t="n">
-        <v>21648.7523</v>
+        <v>800</v>
       </c>
       <c r="G123" t="n">
-        <v>102.5333333333334</v>
+        <v>-377025.1982826699</v>
       </c>
       <c r="H123" t="n">
-        <v>100.63</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5458,36 +4927,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C124" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D124" t="n">
-        <v>102</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F124" t="n">
-        <v>51771.2573</v>
+        <v>1600</v>
       </c>
       <c r="G124" t="n">
-        <v>102.4</v>
+        <v>-377025.1982826699</v>
       </c>
       <c r="H124" t="n">
-        <v>100.6633333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5496,36 +4966,1168 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>97</v>
+      </c>
+      <c r="C125" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>97</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1227</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-375798.1982826699</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>103</v>
+      </c>
+      <c r="D126" t="n">
+        <v>103</v>
+      </c>
+      <c r="E126" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3179</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-372619.1982826699</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>99</v>
+      </c>
+      <c r="D127" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E127" t="n">
+        <v>99</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1861.007</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-374480.2052826699</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>103</v>
+      </c>
+      <c r="D128" t="n">
+        <v>103</v>
+      </c>
+      <c r="E128" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1061</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-373419.2052826699</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>99</v>
+      </c>
+      <c r="D129" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E129" t="n">
+        <v>99</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-376619.2052826699</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>99</v>
+      </c>
+      <c r="C130" t="n">
+        <v>99</v>
+      </c>
+      <c r="D130" t="n">
+        <v>99</v>
+      </c>
+      <c r="E130" t="n">
+        <v>99</v>
+      </c>
+      <c r="F130" t="n">
+        <v>567.8911000000001</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-376619.2052826699</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>26.1504</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-376645.3556826698</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>102</v>
       </c>
-      <c r="C125" t="n">
-        <v>101</v>
-      </c>
-      <c r="D125" t="n">
+      <c r="C132" t="n">
+        <v>106</v>
+      </c>
+      <c r="D132" t="n">
+        <v>106</v>
+      </c>
+      <c r="E132" t="n">
         <v>102</v>
       </c>
-      <c r="E125" t="n">
-        <v>101</v>
-      </c>
-      <c r="F125" t="n">
+      <c r="F132" t="n">
+        <v>38536.34935676</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-338109.0063259099</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C133" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-340909.0063259099</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C134" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>400</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-340509.0063259099</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>100</v>
+      </c>
+      <c r="C135" t="n">
+        <v>101</v>
+      </c>
+      <c r="D135" t="n">
+        <v>102</v>
+      </c>
+      <c r="E135" t="n">
+        <v>100</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4107.337</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-336401.6693259099</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>104</v>
+      </c>
+      <c r="C136" t="n">
+        <v>104</v>
+      </c>
+      <c r="D136" t="n">
+        <v>104</v>
+      </c>
+      <c r="E136" t="n">
+        <v>101</v>
+      </c>
+      <c r="F136" t="n">
+        <v>518.3998</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-335883.2695259099</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>103</v>
+      </c>
+      <c r="C137" t="n">
+        <v>103</v>
+      </c>
+      <c r="D137" t="n">
+        <v>103</v>
+      </c>
+      <c r="E137" t="n">
+        <v>103</v>
+      </c>
+      <c r="F137" t="n">
+        <v>49.4947</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-335932.7642259098</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>103</v>
+      </c>
+      <c r="C138" t="n">
+        <v>104</v>
+      </c>
+      <c r="D138" t="n">
+        <v>104</v>
+      </c>
+      <c r="E138" t="n">
+        <v>101</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5346.96</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-330585.8042259098</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>104</v>
+      </c>
+      <c r="C139" t="n">
+        <v>101</v>
+      </c>
+      <c r="D139" t="n">
+        <v>104</v>
+      </c>
+      <c r="E139" t="n">
+        <v>101</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4876.67</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-335462.4742259098</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>105</v>
+      </c>
+      <c r="C140" t="n">
+        <v>101</v>
+      </c>
+      <c r="D140" t="n">
+        <v>105</v>
+      </c>
+      <c r="E140" t="n">
+        <v>101</v>
+      </c>
+      <c r="F140" t="n">
+        <v>12530.1389</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-335462.4742259098</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>104</v>
+      </c>
+      <c r="C141" t="n">
+        <v>104</v>
+      </c>
+      <c r="D141" t="n">
+        <v>104</v>
+      </c>
+      <c r="E141" t="n">
+        <v>104</v>
+      </c>
+      <c r="F141" t="n">
+        <v>326.96</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-335135.5142259098</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>104</v>
+      </c>
+      <c r="C142" t="n">
+        <v>104</v>
+      </c>
+      <c r="D142" t="n">
+        <v>104</v>
+      </c>
+      <c r="E142" t="n">
+        <v>104</v>
+      </c>
+      <c r="F142" t="n">
+        <v>59.04</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-335135.5142259098</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>102</v>
+      </c>
+      <c r="C143" t="n">
+        <v>102</v>
+      </c>
+      <c r="D143" t="n">
+        <v>102</v>
+      </c>
+      <c r="E143" t="n">
+        <v>102</v>
+      </c>
+      <c r="F143" t="n">
+        <v>385</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-335520.5142259098</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>102</v>
+      </c>
+      <c r="C144" t="n">
+        <v>102</v>
+      </c>
+      <c r="D144" t="n">
+        <v>102</v>
+      </c>
+      <c r="E144" t="n">
+        <v>102</v>
+      </c>
+      <c r="F144" t="n">
+        <v>828.2026</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-335520.5142259098</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>102</v>
+      </c>
+      <c r="C145" t="n">
+        <v>102</v>
+      </c>
+      <c r="D145" t="n">
+        <v>102</v>
+      </c>
+      <c r="E145" t="n">
+        <v>102</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-335520.5142259098</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>103</v>
+      </c>
+      <c r="C146" t="n">
+        <v>103</v>
+      </c>
+      <c r="D146" t="n">
+        <v>103</v>
+      </c>
+      <c r="E146" t="n">
+        <v>103</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5150.7454</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-330369.7688259098</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>103</v>
+      </c>
+      <c r="C147" t="n">
+        <v>103</v>
+      </c>
+      <c r="D147" t="n">
+        <v>104</v>
+      </c>
+      <c r="E147" t="n">
+        <v>103</v>
+      </c>
+      <c r="F147" t="n">
+        <v>659</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-330369.7688259098</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>101</v>
+      </c>
+      <c r="C148" t="n">
+        <v>103</v>
+      </c>
+      <c r="D148" t="n">
+        <v>104</v>
+      </c>
+      <c r="E148" t="n">
+        <v>101</v>
+      </c>
+      <c r="F148" t="n">
+        <v>996</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-330369.7688259098</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>103</v>
+      </c>
+      <c r="C149" t="n">
+        <v>103</v>
+      </c>
+      <c r="D149" t="n">
+        <v>103</v>
+      </c>
+      <c r="E149" t="n">
+        <v>103</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3986.1434</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-330369.7688259098</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>102</v>
+      </c>
+      <c r="C150" t="n">
+        <v>102</v>
+      </c>
+      <c r="D150" t="n">
+        <v>102</v>
+      </c>
+      <c r="E150" t="n">
+        <v>102</v>
+      </c>
+      <c r="F150" t="n">
+        <v>372</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-330741.7688259098</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>102</v>
+      </c>
+      <c r="C151" t="n">
+        <v>102</v>
+      </c>
+      <c r="D151" t="n">
+        <v>102</v>
+      </c>
+      <c r="E151" t="n">
+        <v>102</v>
+      </c>
+      <c r="F151" t="n">
+        <v>10393</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-330741.7688259098</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>102</v>
+      </c>
+      <c r="C152" t="n">
+        <v>102</v>
+      </c>
+      <c r="D152" t="n">
+        <v>102</v>
+      </c>
+      <c r="E152" t="n">
+        <v>102</v>
+      </c>
+      <c r="F152" t="n">
+        <v>21648.7523</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-330741.7688259098</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>102</v>
+      </c>
+      <c r="C153" t="n">
+        <v>102</v>
+      </c>
+      <c r="D153" t="n">
+        <v>102</v>
+      </c>
+      <c r="E153" t="n">
+        <v>102</v>
+      </c>
+      <c r="F153" t="n">
+        <v>51771.2573</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-330741.7688259098</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>102</v>
+      </c>
+      <c r="C154" t="n">
+        <v>101</v>
+      </c>
+      <c r="D154" t="n">
+        <v>102</v>
+      </c>
+      <c r="E154" t="n">
+        <v>101</v>
+      </c>
+      <c r="F154" t="n">
         <v>111149.5237</v>
       </c>
-      <c r="G125" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="H125" t="n">
-        <v>100.6133333333333</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="G154" t="n">
+        <v>-441891.2925259098</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,13 +427,18 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
         <v>101</v>
@@ -442,19 +447,19 @@
         <v>101</v>
       </c>
       <c r="E2" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="G2" t="n">
-        <v>-123466.08439434</v>
+        <v>-158833.20476369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -480,10 +486,10 @@
         <v>101</v>
       </c>
       <c r="F3" t="n">
-        <v>800</v>
+        <v>73</v>
       </c>
       <c r="G3" t="n">
-        <v>-123466.08439434</v>
+        <v>-158833.20476369</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>34908.2705</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>-158374.35489434</v>
+        <v>-158875.20476369</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>-158369.35489434</v>
+        <v>-158870.20476369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,13 +575,14 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
@@ -582,19 +591,19 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>10584.6362</v>
+        <v>400</v>
       </c>
       <c r="G6" t="n">
-        <v>-158369.35489434</v>
+        <v>-159270.20476369</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,10 +630,10 @@
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="G7" t="n">
-        <v>-158369.35489434</v>
+        <v>-159270.20476369</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="C8" t="n">
-        <v>98.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="D8" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="E8" t="n">
-        <v>98.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>11266.2078</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>-169635.56269434</v>
+        <v>-159265.20476369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>99.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>99.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>99.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>31.22613065</v>
+        <v>2590.2329</v>
       </c>
       <c r="G9" t="n">
-        <v>-169604.33656369</v>
+        <v>-161855.43766369</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5</v>
+        <v>101</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5</v>
+        <v>101</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>352</v>
       </c>
       <c r="G10" t="n">
-        <v>-169604.33656369</v>
+        <v>-161503.43766369</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>99.5</v>
+        <v>97.3</v>
       </c>
       <c r="D11" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>99.5</v>
+        <v>97.2</v>
       </c>
       <c r="F11" t="n">
-        <v>25.1</v>
+        <v>62</v>
       </c>
       <c r="G11" t="n">
-        <v>-169604.33656369</v>
+        <v>-161565.43766369</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>98.3</v>
+        <v>97.2</v>
       </c>
       <c r="D12" t="n">
-        <v>98.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>98.3</v>
+        <v>97.2</v>
       </c>
       <c r="F12" t="n">
-        <v>682.5453</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>-170286.88186369</v>
+        <v>-161577.43766369</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="C13" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="D13" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="E13" t="n">
-        <v>99.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="F13" t="n">
-        <v>3061.545</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>-167225.33686369</v>
+        <v>-161572.43766369</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>4000</v>
+        <v>12.78</v>
       </c>
       <c r="G14" t="n">
-        <v>-167225.33686369</v>
+        <v>-161585.21766369</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>612.6652</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>-167225.33686369</v>
+        <v>-161535.21766369</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>98.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="C16" t="n">
-        <v>98.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="D16" t="n">
-        <v>98.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="E16" t="n">
-        <v>98.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="F16" t="n">
-        <v>929.1967</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>-168154.53356369</v>
+        <v>-161530.21766369</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>1792.022</v>
+        <v>21707.053</v>
       </c>
       <c r="G17" t="n">
-        <v>-169946.55556369</v>
+        <v>-183237.2706636899</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>99.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="D18" t="n">
-        <v>99.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="E18" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>4981.5192</v>
+        <v>763.4201</v>
       </c>
       <c r="G18" t="n">
-        <v>-164965.03636369</v>
+        <v>-182473.8505636899</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>1800</v>
+        <v>26.1504</v>
       </c>
       <c r="G19" t="n">
-        <v>-163165.03636369</v>
+        <v>-182500.00096369</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>99.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>99.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>2000</v>
+        <v>91199.99370000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-165165.03636369</v>
+        <v>-273699.99466369</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>99.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="C21" t="n">
-        <v>99.8</v>
+        <v>99.3</v>
       </c>
       <c r="D21" t="n">
-        <v>99.8</v>
+        <v>99.3</v>
       </c>
       <c r="E21" t="n">
-        <v>99.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>215</v>
+        <v>1200</v>
       </c>
       <c r="G21" t="n">
-        <v>-164950.03636369</v>
+        <v>-272499.99466369</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="C22" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="F22" t="n">
-        <v>2200</v>
+        <v>556</v>
       </c>
       <c r="G22" t="n">
-        <v>-167150.03636369</v>
+        <v>-271943.99466369</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>96.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>4936.0849</v>
+        <v>2651.1559</v>
       </c>
       <c r="G23" t="n">
-        <v>-167150.03636369</v>
+        <v>-271943.99466369</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>99.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>98.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>293.9463</v>
+        <v>66.5586</v>
       </c>
       <c r="G24" t="n">
-        <v>-166856.09006369</v>
+        <v>-272010.55326369</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>99.7</v>
+        <v>97.5</v>
       </c>
       <c r="D25" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>99.7</v>
+        <v>97.5</v>
       </c>
       <c r="F25" t="n">
-        <v>223</v>
+        <v>2005</v>
       </c>
       <c r="G25" t="n">
-        <v>-166856.09006369</v>
+        <v>-274015.55326369</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>762</v>
+        <v>405</v>
       </c>
       <c r="G26" t="n">
-        <v>-166094.09006369</v>
+        <v>-273610.55326369</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>3987.7315</v>
+        <v>31.885</v>
       </c>
       <c r="G27" t="n">
-        <v>-166094.09006369</v>
+        <v>-273642.43826369</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>99.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>99.8</v>
+        <v>97.5</v>
       </c>
       <c r="D28" t="n">
-        <v>99.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>99.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>400</v>
+        <v>10650.7472</v>
       </c>
       <c r="G28" t="n">
-        <v>-166094.09006369</v>
+        <v>-284293.18546369</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="C29" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="F29" t="n">
-        <v>23944</v>
+        <v>1173</v>
       </c>
       <c r="G29" t="n">
-        <v>-142150.09006369</v>
+        <v>-283120.18546369</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,13 +1439,14 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>99.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>99.90000000000001</v>
@@ -1422,19 +1455,19 @@
         <v>99.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>99.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>859.1671</v>
+        <v>10618.8622</v>
       </c>
       <c r="G30" t="n">
-        <v>-142150.09006369</v>
+        <v>-293739.0476636899</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>99.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="C31" t="n">
-        <v>99.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="D31" t="n">
-        <v>99.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="E31" t="n">
-        <v>99.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F31" t="n">
-        <v>1398.04804804</v>
+        <v>17</v>
       </c>
       <c r="G31" t="n">
-        <v>-142150.09006369</v>
+        <v>-293756.0476636899</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>97.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C32" t="n">
-        <v>96.8</v>
+        <v>99.8</v>
       </c>
       <c r="D32" t="n">
-        <v>97.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E32" t="n">
-        <v>96.8</v>
+        <v>99.8</v>
       </c>
       <c r="F32" t="n">
-        <v>17340.3367</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>-159490.42676369</v>
+        <v>-293750.0476636899</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,63 +1547,71 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="C33" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="D33" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="F33" t="n">
-        <v>5.1</v>
+        <v>819</v>
       </c>
       <c r="G33" t="n">
-        <v>-159485.32676369</v>
+        <v>-292931.0476636899</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>99.8</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>2305</v>
+        <v>17.84</v>
       </c>
       <c r="G34" t="n">
-        <v>-157180.32676369</v>
+        <v>-292931.0476636899</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,10 +1621,15 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1600,10 +1648,10 @@
         <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G35" t="n">
-        <v>-157190.32676369</v>
+        <v>-292931.0476636899</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,10 +1661,15 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1691,7 @@
         <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>-157185.32676369</v>
+        <v>-292926.0476636899</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,17 +1701,22 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>100</v>
@@ -1667,33 +1725,38 @@
         <v>100</v>
       </c>
       <c r="E37" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F37" t="n">
-        <v>1991.878</v>
+        <v>19005</v>
       </c>
       <c r="G37" t="n">
-        <v>-159177.20476369</v>
+        <v>-311931.0476636899</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C38" t="n">
         <v>100</v>
@@ -1702,13 +1765,13 @@
         <v>100</v>
       </c>
       <c r="E38" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>1762.3583</v>
+        <v>30.97</v>
       </c>
       <c r="G38" t="n">
-        <v>-159177.20476369</v>
+        <v>-311931.0476636899</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,32 +1781,37 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D39" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E39" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F39" t="n">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
-        <v>-159177.20476369</v>
+        <v>-311926.0476636899</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,10 +1821,15 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1775,10 +1848,10 @@
         <v>100</v>
       </c>
       <c r="F40" t="n">
-        <v>114</v>
+        <v>10112.2887</v>
       </c>
       <c r="G40" t="n">
-        <v>-159177.20476369</v>
+        <v>-322038.3363636899</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,45 +1861,57 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D41" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E41" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F41" t="n">
-        <v>2763</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>-159177.20476369</v>
+        <v>-322033.3363636899</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>100</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1845,10 +1930,10 @@
         <v>100</v>
       </c>
       <c r="F42" t="n">
-        <v>800</v>
+        <v>21918.4984</v>
       </c>
       <c r="G42" t="n">
-        <v>-159177.20476369</v>
+        <v>-343951.8347636899</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,52 +1943,64 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D43" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E43" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43" t="n">
-        <v>357</v>
+        <v>2577</v>
       </c>
       <c r="G43" t="n">
-        <v>-159177.20476369</v>
+        <v>-341374.8347636899</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>100</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" t="n">
         <v>101</v>
@@ -1915,10 +2012,10 @@
         <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>344</v>
+        <v>1070.3707</v>
       </c>
       <c r="G44" t="n">
-        <v>-158833.20476369</v>
+        <v>-341374.8347636899</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,10 +2025,15 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1950,80 +2052,90 @@
         <v>101</v>
       </c>
       <c r="F45" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="G45" t="n">
-        <v>-158833.20476369</v>
+        <v>-341374.8347636899</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D46" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E46" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F46" t="n">
-        <v>42</v>
+        <v>584</v>
       </c>
       <c r="G46" t="n">
-        <v>-158875.20476369</v>
+        <v>-340790.8347636899</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D47" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E47" t="n">
         <v>101</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>1508.8134</v>
       </c>
       <c r="G47" t="n">
-        <v>-158870.20476369</v>
+        <v>-339282.0213636899</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,10 +2145,15 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2046,54 +2163,59 @@
         <v>100</v>
       </c>
       <c r="C48" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D48" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" t="n">
         <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>400</v>
+        <v>30629.34</v>
       </c>
       <c r="G48" t="n">
-        <v>-159270.20476369</v>
+        <v>-369911.3613636899</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D49" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F49" t="n">
-        <v>1600</v>
+        <v>410.1629</v>
       </c>
       <c r="G49" t="n">
-        <v>-159270.20476369</v>
+        <v>-369911.3613636899</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,32 +2225,37 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>101</v>
+        <v>98.2</v>
       </c>
       <c r="C50" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D50" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E50" t="n">
-        <v>101</v>
+        <v>98.2</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>5471.1147</v>
       </c>
       <c r="G50" t="n">
-        <v>-159265.20476369</v>
+        <v>-364440.24666369</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,32 +2265,37 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="D51" t="n">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F51" t="n">
-        <v>2590.2329</v>
+        <v>1224.1296</v>
       </c>
       <c r="G51" t="n">
-        <v>-161855.43766369</v>
+        <v>-365664.3762636899</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,32 +2305,37 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>99.90000000000001</v>
+        <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D52" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E52" t="n">
-        <v>99.90000000000001</v>
+        <v>104</v>
       </c>
       <c r="F52" t="n">
-        <v>352</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>-161503.43766369</v>
+        <v>-365659.3762636899</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,10 +2345,15 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2221,19 +2363,19 @@
         <v>100</v>
       </c>
       <c r="C53" t="n">
-        <v>97.3</v>
+        <v>100</v>
       </c>
       <c r="D53" t="n">
         <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>62</v>
+        <v>12.5443</v>
       </c>
       <c r="G53" t="n">
-        <v>-161565.43766369</v>
+        <v>-365671.92056369</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,32 +2385,37 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>97.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="C54" t="n">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="D54" t="n">
-        <v>97.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="E54" t="n">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>30908.2046</v>
       </c>
       <c r="G54" t="n">
-        <v>-161577.43766369</v>
+        <v>-365671.92056369</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,32 +2425,37 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D55" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E55" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F55" t="n">
-        <v>5</v>
+        <v>800</v>
       </c>
       <c r="G55" t="n">
-        <v>-161572.43766369</v>
+        <v>-365671.92056369</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,32 +2465,37 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C56" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D56" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E56" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F56" t="n">
-        <v>12.78</v>
+        <v>996.5439</v>
       </c>
       <c r="G56" t="n">
-        <v>-161585.21766369</v>
+        <v>-364675.37666369</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,32 +2505,37 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C57" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D57" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E57" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F57" t="n">
-        <v>50</v>
+        <v>4733.6232</v>
       </c>
       <c r="G57" t="n">
-        <v>-161535.21766369</v>
+        <v>-364675.37666369</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,32 +2545,37 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D58" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E58" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="G58" t="n">
-        <v>-161530.21766369</v>
+        <v>-365075.37666369</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,32 +2585,37 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C59" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="F59" t="n">
-        <v>21707.053</v>
+        <v>1319.73</v>
       </c>
       <c r="G59" t="n">
-        <v>-183237.2706636899</v>
+        <v>-366395.1066636899</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,32 +2625,37 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C60" t="n">
-        <v>101</v>
+        <v>98.2</v>
       </c>
       <c r="D60" t="n">
-        <v>101</v>
+        <v>98.2</v>
       </c>
       <c r="E60" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="F60" t="n">
-        <v>763.4201</v>
+        <v>1372.38</v>
       </c>
       <c r="G60" t="n">
-        <v>-182473.8505636899</v>
+        <v>-367767.48666369</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,10 +2665,15 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2510,10 +2692,10 @@
         <v>100</v>
       </c>
       <c r="F61" t="n">
-        <v>26.1504</v>
+        <v>2000</v>
       </c>
       <c r="G61" t="n">
-        <v>-182500.00096369</v>
+        <v>-365767.48666369</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,207 +2705,247 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C62" t="n">
-        <v>95.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="D62" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E62" t="n">
-        <v>95.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F62" t="n">
-        <v>91199.99370000001</v>
+        <v>105</v>
       </c>
       <c r="G62" t="n">
-        <v>-273699.99466369</v>
+        <v>-365662.48666369</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>100</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
       <c r="C63" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="D63" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="E63" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F63" t="n">
-        <v>1200</v>
+        <v>531.6378999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>-272499.99466369</v>
+        <v>-365662.48666369</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>101</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="C64" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D64" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E64" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="F64" t="n">
-        <v>556</v>
+        <v>1402.1568</v>
       </c>
       <c r="G64" t="n">
-        <v>-271943.99466369</v>
+        <v>-365662.48666369</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>101</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C65" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D65" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E65" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F65" t="n">
-        <v>2651.1559</v>
+        <v>520</v>
       </c>
       <c r="G65" t="n">
-        <v>-271943.99466369</v>
+        <v>-365142.48666369</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>101</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>99.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="D66" t="n">
-        <v>99.90000000000001</v>
+        <v>103</v>
       </c>
       <c r="E66" t="n">
-        <v>99.09999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>66.5586</v>
+        <v>3986</v>
       </c>
       <c r="G66" t="n">
-        <v>-272010.55326369</v>
+        <v>-365142.48666369</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>103</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>99.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>97.5</v>
+        <v>98.2</v>
       </c>
       <c r="D67" t="n">
-        <v>99.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="E67" t="n">
-        <v>97.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>2005</v>
+        <v>7175.045</v>
       </c>
       <c r="G67" t="n">
-        <v>-274015.55326369</v>
+        <v>-372317.5316636899</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,143 +2955,161 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>99.90000000000001</v>
+        <v>102</v>
       </c>
       <c r="C68" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D68" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" t="n">
-        <v>99.90000000000001</v>
+        <v>102</v>
       </c>
       <c r="F68" t="n">
-        <v>405</v>
+        <v>4.9</v>
       </c>
       <c r="G68" t="n">
-        <v>-273610.55326369</v>
+        <v>-372312.6316636899</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>99.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="D69" t="n">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>99.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="F69" t="n">
-        <v>31.885</v>
+        <v>2300.1076</v>
       </c>
       <c r="G69" t="n">
-        <v>-273642.43826369</v>
+        <v>-374612.7392636899</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>102</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="C70" t="n">
-        <v>97.5</v>
+        <v>95.3</v>
       </c>
       <c r="D70" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="E70" t="n">
-        <v>95.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="F70" t="n">
-        <v>10650.7472</v>
+        <v>46.9975</v>
       </c>
       <c r="G70" t="n">
-        <v>-284293.18546369</v>
+        <v>-374659.7367636899</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>99.90000000000001</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>99.5</v>
+        <v>102</v>
       </c>
       <c r="C71" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D71" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E71" t="n">
-        <v>99.5</v>
+        <v>102</v>
       </c>
       <c r="F71" t="n">
-        <v>1173</v>
+        <v>9674.990191340001</v>
       </c>
       <c r="G71" t="n">
-        <v>-283120.18546369</v>
+        <v>-364984.7465723499</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -2878,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>97.5</v>
+        <v>95.3</v>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
@@ -2889,28 +3129,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>98.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>99.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>99.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>10618.8622</v>
+        <v>26323.587</v>
       </c>
       <c r="G72" t="n">
-        <v>-293739.0476636899</v>
+        <v>-391308.3335723499</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2928,28 +3169,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>97.3</v>
+        <v>99.7</v>
       </c>
       <c r="C73" t="n">
-        <v>97.3</v>
+        <v>99</v>
       </c>
       <c r="D73" t="n">
-        <v>97.3</v>
+        <v>99.8</v>
       </c>
       <c r="E73" t="n">
-        <v>97.3</v>
+        <v>99</v>
       </c>
       <c r="F73" t="n">
-        <v>17</v>
+        <v>14182.3326</v>
       </c>
       <c r="G73" t="n">
-        <v>-293756.0476636899</v>
+        <v>-377126.0009723499</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2967,28 +3209,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C74" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D74" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="E74" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F74" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G74" t="n">
-        <v>-293750.0476636899</v>
+        <v>-377076.0009723499</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3006,28 +3249,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>99.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>100</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>100</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>99.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>819</v>
+        <v>6</v>
       </c>
       <c r="G75" t="n">
-        <v>-292931.0476636899</v>
+        <v>-377082.0009723499</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3045,6 +3289,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3054,19 +3299,19 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>99.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="F76" t="n">
-        <v>17.84</v>
+        <v>2489.68968968</v>
       </c>
       <c r="G76" t="n">
-        <v>-292931.0476636899</v>
+        <v>-374592.3112826699</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3084,28 +3329,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F77" t="n">
-        <v>65</v>
+        <v>800</v>
       </c>
       <c r="G77" t="n">
-        <v>-292931.0476636899</v>
+        <v>-374592.3112826699</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3123,38 +3369,37 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C78" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="n">
-        <v>-292926.0476636899</v>
+        <v>-374592.3112826699</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>100</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3164,38 +3409,37 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>99.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>98</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>19005</v>
+        <v>406</v>
       </c>
       <c r="G79" t="n">
-        <v>-311931.0476636899</v>
+        <v>-374998.3112826699</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>101</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3205,36 +3449,39 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>99.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="C80" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D80" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E80" t="n">
-        <v>99.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="F80" t="n">
-        <v>30.97</v>
+        <v>2026.887</v>
       </c>
       <c r="G80" t="n">
-        <v>-311931.0476636899</v>
+        <v>-377025.1982826699</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3244,36 +3491,39 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>101</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D81" t="n">
-        <v>101</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>800</v>
       </c>
       <c r="G81" t="n">
-        <v>-311926.0476636899</v>
+        <v>-377025.1982826699</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>97</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3283,36 +3533,39 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C82" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D82" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F82" t="n">
-        <v>10112.2887</v>
+        <v>1600</v>
       </c>
       <c r="G82" t="n">
-        <v>-322038.3363636899</v>
+        <v>-377025.1982826699</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>97</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3322,36 +3575,39 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C83" t="n">
-        <v>101</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>101</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>1227</v>
       </c>
       <c r="G83" t="n">
-        <v>-322033.3363636899</v>
+        <v>-375798.1982826699</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>97</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3361,36 +3617,39 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D84" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E84" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>21918.4984</v>
+        <v>3179</v>
       </c>
       <c r="G84" t="n">
-        <v>-343951.8347636899</v>
+        <v>-372619.1982826699</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>98.90000000000001</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3400,28 +3659,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D85" t="n">
-        <v>102</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F85" t="n">
-        <v>2577</v>
+        <v>1861.007</v>
       </c>
       <c r="G85" t="n">
-        <v>-341374.8347636899</v>
+        <v>-374480.2052826699</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3439,36 +3699,39 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>101</v>
+        <v>98.8</v>
       </c>
       <c r="C86" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D86" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E86" t="n">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="F86" t="n">
-        <v>1070.3707</v>
+        <v>1061</v>
       </c>
       <c r="G86" t="n">
-        <v>-341374.8347636899</v>
+        <v>-373419.2052826699</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>99</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3478,28 +3741,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D87" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>3200</v>
       </c>
       <c r="G87" t="n">
-        <v>-341374.8347636899</v>
+        <v>-376619.2052826699</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3517,36 +3781,39 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C88" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D88" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E88" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F88" t="n">
-        <v>584</v>
+        <v>567.8911000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>-340790.8347636899</v>
+        <v>-376619.2052826699</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>99</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3556,36 +3823,39 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>102</v>
+        <v>96.2</v>
       </c>
       <c r="C89" t="n">
-        <v>104</v>
+        <v>96.2</v>
       </c>
       <c r="D89" t="n">
-        <v>104</v>
+        <v>96.2</v>
       </c>
       <c r="E89" t="n">
-        <v>101</v>
+        <v>96.2</v>
       </c>
       <c r="F89" t="n">
-        <v>1508.8134</v>
+        <v>26.1504</v>
       </c>
       <c r="G89" t="n">
-        <v>-339282.0213636899</v>
+        <v>-376645.3556826698</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>99</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3595,36 +3865,39 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C90" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D90" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E90" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F90" t="n">
-        <v>30629.34</v>
+        <v>38536.34935676</v>
       </c>
       <c r="G90" t="n">
-        <v>-369911.3613636899</v>
+        <v>-338109.0063259099</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>96.2</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3634,28 +3907,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>101</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>101</v>
+        <v>99.3</v>
       </c>
       <c r="D91" t="n">
-        <v>101</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>101</v>
+        <v>99.3</v>
       </c>
       <c r="F91" t="n">
-        <v>410.1629</v>
+        <v>2800</v>
       </c>
       <c r="G91" t="n">
-        <v>-369911.3613636899</v>
+        <v>-340909.0063259099</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3673,28 +3947,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>5471.1147</v>
+        <v>400</v>
       </c>
       <c r="G92" t="n">
-        <v>-364440.24666369</v>
+        <v>-340509.0063259099</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3712,6 +3987,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3721,19 +3997,19 @@
         <v>100</v>
       </c>
       <c r="C93" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D93" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E93" t="n">
         <v>100</v>
       </c>
       <c r="F93" t="n">
-        <v>1224.1296</v>
+        <v>4107.337</v>
       </c>
       <c r="G93" t="n">
-        <v>-365664.3762636899</v>
+        <v>-336401.6693259099</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3751,6 +4027,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3766,13 +4043,13 @@
         <v>104</v>
       </c>
       <c r="E94" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>518.3998</v>
       </c>
       <c r="G94" t="n">
-        <v>-365659.3762636899</v>
+        <v>-335883.2695259099</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3790,28 +4067,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C95" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D95" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E95" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F95" t="n">
-        <v>12.5443</v>
+        <v>49.4947</v>
       </c>
       <c r="G95" t="n">
-        <v>-365671.92056369</v>
+        <v>-335932.7642259098</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3829,28 +4107,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C96" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D96" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E96" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F96" t="n">
-        <v>30908.2046</v>
+        <v>5346.96</v>
       </c>
       <c r="G96" t="n">
-        <v>-365671.92056369</v>
+        <v>-330585.8042259098</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3868,28 +4147,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C97" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D97" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E97" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F97" t="n">
-        <v>800</v>
+        <v>4876.67</v>
       </c>
       <c r="G97" t="n">
-        <v>-365671.92056369</v>
+        <v>-335462.4742259098</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3907,28 +4187,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C98" t="n">
         <v>101</v>
       </c>
       <c r="D98" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E98" t="n">
         <v>101</v>
       </c>
       <c r="F98" t="n">
-        <v>996.5439</v>
+        <v>12530.1389</v>
       </c>
       <c r="G98" t="n">
-        <v>-364675.37666369</v>
+        <v>-335462.4742259098</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3946,28 +4227,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C99" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D99" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E99" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F99" t="n">
-        <v>4733.6232</v>
+        <v>326.96</v>
       </c>
       <c r="G99" t="n">
-        <v>-364675.37666369</v>
+        <v>-335135.5142259098</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3985,28 +4267,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C100" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D100" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E100" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F100" t="n">
-        <v>400</v>
+        <v>59.04</v>
       </c>
       <c r="G100" t="n">
-        <v>-365075.37666369</v>
+        <v>-335135.5142259098</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4024,28 +4307,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C101" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D101" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E101" t="n">
-        <v>98.3</v>
+        <v>102</v>
       </c>
       <c r="F101" t="n">
-        <v>1319.73</v>
+        <v>385</v>
       </c>
       <c r="G101" t="n">
-        <v>-366395.1066636899</v>
+        <v>-335520.5142259098</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4063,28 +4347,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>98.2</v>
+        <v>102</v>
       </c>
       <c r="C102" t="n">
-        <v>98.2</v>
+        <v>102</v>
       </c>
       <c r="D102" t="n">
-        <v>98.2</v>
+        <v>102</v>
       </c>
       <c r="E102" t="n">
-        <v>98.2</v>
+        <v>102</v>
       </c>
       <c r="F102" t="n">
-        <v>1372.38</v>
+        <v>828.2026</v>
       </c>
       <c r="G102" t="n">
-        <v>-367767.48666369</v>
+        <v>-335520.5142259098</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4102,28 +4387,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C103" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D103" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E103" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F103" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G103" t="n">
-        <v>-365767.48666369</v>
+        <v>-335520.5142259098</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4141,28 +4427,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>98.2</v>
+        <v>103</v>
       </c>
       <c r="C104" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D104" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E104" t="n">
-        <v>98.2</v>
+        <v>103</v>
       </c>
       <c r="F104" t="n">
-        <v>105</v>
+        <v>5150.7454</v>
       </c>
       <c r="G104" t="n">
-        <v>-365662.48666369</v>
+        <v>-330369.7688259098</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4180,28 +4467,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>98.2</v>
+        <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D105" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E105" t="n">
-        <v>98.2</v>
+        <v>103</v>
       </c>
       <c r="F105" t="n">
-        <v>531.6378999999999</v>
+        <v>659</v>
       </c>
       <c r="G105" t="n">
-        <v>-365662.48666369</v>
+        <v>-330369.7688259098</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4219,28 +4507,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>98.2</v>
+        <v>101</v>
       </c>
       <c r="C106" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D106" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E106" t="n">
-        <v>98.2</v>
+        <v>101</v>
       </c>
       <c r="F106" t="n">
-        <v>1402.1568</v>
+        <v>996</v>
       </c>
       <c r="G106" t="n">
-        <v>-365662.48666369</v>
+        <v>-330369.7688259098</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4258,13 +4547,14 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C107" t="n">
         <v>103</v>
@@ -4273,13 +4563,13 @@
         <v>103</v>
       </c>
       <c r="E107" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F107" t="n">
-        <v>520</v>
+        <v>3986.1434</v>
       </c>
       <c r="G107" t="n">
-        <v>-365142.48666369</v>
+        <v>-330369.7688259098</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4297,28 +4587,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>98.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="C108" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D108" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E108" t="n">
-        <v>98.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="F108" t="n">
-        <v>3986</v>
+        <v>372</v>
       </c>
       <c r="G108" t="n">
-        <v>-365142.48666369</v>
+        <v>-330741.7688259098</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4336,28 +4627,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>98.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="C109" t="n">
-        <v>98.2</v>
+        <v>102</v>
       </c>
       <c r="D109" t="n">
-        <v>98.2</v>
+        <v>102</v>
       </c>
       <c r="E109" t="n">
-        <v>98.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="F109" t="n">
-        <v>7175.045</v>
+        <v>10393</v>
       </c>
       <c r="G109" t="n">
-        <v>-372317.5316636899</v>
+        <v>-330741.7688259098</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4375,6 +4667,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4393,10 +4686,10 @@
         <v>102</v>
       </c>
       <c r="F110" t="n">
-        <v>4.9</v>
+        <v>21648.7523</v>
       </c>
       <c r="G110" t="n">
-        <v>-372312.6316636899</v>
+        <v>-330741.7688259098</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4414,28 +4707,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="C111" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D111" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="E111" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F111" t="n">
-        <v>2300.1076</v>
+        <v>51771.2573</v>
       </c>
       <c r="G111" t="n">
-        <v>-374612.7392636899</v>
+        <v>-330741.7688259098</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4453,28 +4747,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C112" t="n">
-        <v>95.3</v>
+        <v>101</v>
       </c>
       <c r="D112" t="n">
         <v>102</v>
       </c>
       <c r="E112" t="n">
-        <v>95.3</v>
+        <v>101</v>
       </c>
       <c r="F112" t="n">
-        <v>46.9975</v>
+        <v>111149.5237</v>
       </c>
       <c r="G112" t="n">
-        <v>-374659.7367636899</v>
+        <v>-441891.2925259098</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4492,1644 +4787,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>102</v>
-      </c>
-      <c r="C113" t="n">
-        <v>104</v>
-      </c>
-      <c r="D113" t="n">
-        <v>104</v>
-      </c>
-      <c r="E113" t="n">
-        <v>102</v>
-      </c>
-      <c r="F113" t="n">
-        <v>9674.990191340001</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-364984.7465723499</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="C114" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="D114" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="E114" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="F114" t="n">
-        <v>26323.587</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-391308.3335723499</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="C115" t="n">
-        <v>99</v>
-      </c>
-      <c r="D115" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E115" t="n">
-        <v>99</v>
-      </c>
-      <c r="F115" t="n">
-        <v>14182.3326</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-377126.0009723499</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>100</v>
-      </c>
-      <c r="C116" t="n">
-        <v>100</v>
-      </c>
-      <c r="D116" t="n">
-        <v>100</v>
-      </c>
-      <c r="E116" t="n">
-        <v>100</v>
-      </c>
-      <c r="F116" t="n">
-        <v>50</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-377076.0009723499</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="C117" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="D117" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="E117" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="F117" t="n">
-        <v>6</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-377082.0009723499</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C118" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D118" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E118" t="n">
-        <v>98</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2489.68968968</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-374592.3112826699</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>98</v>
-      </c>
-      <c r="C119" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D119" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E119" t="n">
-        <v>98</v>
-      </c>
-      <c r="F119" t="n">
-        <v>800</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-374592.3112826699</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>98</v>
-      </c>
-      <c r="C120" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D120" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E120" t="n">
-        <v>98</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-374592.3112826699</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C121" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D121" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E121" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F121" t="n">
-        <v>406</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-374998.3112826699</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>97</v>
-      </c>
-      <c r="C122" t="n">
-        <v>97</v>
-      </c>
-      <c r="D122" t="n">
-        <v>97</v>
-      </c>
-      <c r="E122" t="n">
-        <v>97</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2026.887</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-377025.1982826699</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="C123" t="n">
-        <v>97</v>
-      </c>
-      <c r="D123" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="E123" t="n">
-        <v>97</v>
-      </c>
-      <c r="F123" t="n">
-        <v>800</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-377025.1982826699</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>97</v>
-      </c>
-      <c r="C124" t="n">
-        <v>97</v>
-      </c>
-      <c r="D124" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="E124" t="n">
-        <v>97</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-377025.1982826699</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>97</v>
-      </c>
-      <c r="C125" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D125" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="E125" t="n">
-        <v>97</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1227</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-375798.1982826699</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="C126" t="n">
-        <v>103</v>
-      </c>
-      <c r="D126" t="n">
-        <v>103</v>
-      </c>
-      <c r="E126" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3179</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-372619.1982826699</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="C127" t="n">
-        <v>99</v>
-      </c>
-      <c r="D127" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="E127" t="n">
-        <v>99</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1861.007</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-374480.2052826699</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="C128" t="n">
-        <v>103</v>
-      </c>
-      <c r="D128" t="n">
-        <v>103</v>
-      </c>
-      <c r="E128" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1061</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-373419.2052826699</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="C129" t="n">
-        <v>99</v>
-      </c>
-      <c r="D129" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="E129" t="n">
-        <v>99</v>
-      </c>
-      <c r="F129" t="n">
-        <v>3200</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-376619.2052826699</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>99</v>
-      </c>
-      <c r="C130" t="n">
-        <v>99</v>
-      </c>
-      <c r="D130" t="n">
-        <v>99</v>
-      </c>
-      <c r="E130" t="n">
-        <v>99</v>
-      </c>
-      <c r="F130" t="n">
-        <v>567.8911000000001</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-376619.2052826699</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="C131" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="D131" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="E131" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F131" t="n">
-        <v>26.1504</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-376645.3556826698</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>102</v>
-      </c>
-      <c r="C132" t="n">
-        <v>106</v>
-      </c>
-      <c r="D132" t="n">
-        <v>106</v>
-      </c>
-      <c r="E132" t="n">
-        <v>102</v>
-      </c>
-      <c r="F132" t="n">
-        <v>38536.34935676</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-338109.0063259099</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C133" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="D133" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E133" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-340909.0063259099</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C134" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D134" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E134" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>400</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-340509.0063259099</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>100</v>
-      </c>
-      <c r="C135" t="n">
-        <v>101</v>
-      </c>
-      <c r="D135" t="n">
-        <v>102</v>
-      </c>
-      <c r="E135" t="n">
-        <v>100</v>
-      </c>
-      <c r="F135" t="n">
-        <v>4107.337</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-336401.6693259099</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>104</v>
-      </c>
-      <c r="C136" t="n">
-        <v>104</v>
-      </c>
-      <c r="D136" t="n">
-        <v>104</v>
-      </c>
-      <c r="E136" t="n">
-        <v>101</v>
-      </c>
-      <c r="F136" t="n">
-        <v>518.3998</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-335883.2695259099</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>103</v>
-      </c>
-      <c r="C137" t="n">
-        <v>103</v>
-      </c>
-      <c r="D137" t="n">
-        <v>103</v>
-      </c>
-      <c r="E137" t="n">
-        <v>103</v>
-      </c>
-      <c r="F137" t="n">
-        <v>49.4947</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-335932.7642259098</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>103</v>
-      </c>
-      <c r="C138" t="n">
-        <v>104</v>
-      </c>
-      <c r="D138" t="n">
-        <v>104</v>
-      </c>
-      <c r="E138" t="n">
-        <v>101</v>
-      </c>
-      <c r="F138" t="n">
-        <v>5346.96</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-330585.8042259098</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>104</v>
-      </c>
-      <c r="C139" t="n">
-        <v>101</v>
-      </c>
-      <c r="D139" t="n">
-        <v>104</v>
-      </c>
-      <c r="E139" t="n">
-        <v>101</v>
-      </c>
-      <c r="F139" t="n">
-        <v>4876.67</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-335462.4742259098</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>105</v>
-      </c>
-      <c r="C140" t="n">
-        <v>101</v>
-      </c>
-      <c r="D140" t="n">
-        <v>105</v>
-      </c>
-      <c r="E140" t="n">
-        <v>101</v>
-      </c>
-      <c r="F140" t="n">
-        <v>12530.1389</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-335462.4742259098</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>104</v>
-      </c>
-      <c r="C141" t="n">
-        <v>104</v>
-      </c>
-      <c r="D141" t="n">
-        <v>104</v>
-      </c>
-      <c r="E141" t="n">
-        <v>104</v>
-      </c>
-      <c r="F141" t="n">
-        <v>326.96</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-335135.5142259098</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>104</v>
-      </c>
-      <c r="C142" t="n">
-        <v>104</v>
-      </c>
-      <c r="D142" t="n">
-        <v>104</v>
-      </c>
-      <c r="E142" t="n">
-        <v>104</v>
-      </c>
-      <c r="F142" t="n">
-        <v>59.04</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-335135.5142259098</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>102</v>
-      </c>
-      <c r="C143" t="n">
-        <v>102</v>
-      </c>
-      <c r="D143" t="n">
-        <v>102</v>
-      </c>
-      <c r="E143" t="n">
-        <v>102</v>
-      </c>
-      <c r="F143" t="n">
-        <v>385</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-335520.5142259098</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>102</v>
-      </c>
-      <c r="C144" t="n">
-        <v>102</v>
-      </c>
-      <c r="D144" t="n">
-        <v>102</v>
-      </c>
-      <c r="E144" t="n">
-        <v>102</v>
-      </c>
-      <c r="F144" t="n">
-        <v>828.2026</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-335520.5142259098</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>102</v>
-      </c>
-      <c r="C145" t="n">
-        <v>102</v>
-      </c>
-      <c r="D145" t="n">
-        <v>102</v>
-      </c>
-      <c r="E145" t="n">
-        <v>102</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-335520.5142259098</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>103</v>
-      </c>
-      <c r="C146" t="n">
-        <v>103</v>
-      </c>
-      <c r="D146" t="n">
-        <v>103</v>
-      </c>
-      <c r="E146" t="n">
-        <v>103</v>
-      </c>
-      <c r="F146" t="n">
-        <v>5150.7454</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-330369.7688259098</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>103</v>
-      </c>
-      <c r="C147" t="n">
-        <v>103</v>
-      </c>
-      <c r="D147" t="n">
-        <v>104</v>
-      </c>
-      <c r="E147" t="n">
-        <v>103</v>
-      </c>
-      <c r="F147" t="n">
-        <v>659</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-330369.7688259098</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>101</v>
-      </c>
-      <c r="C148" t="n">
-        <v>103</v>
-      </c>
-      <c r="D148" t="n">
-        <v>104</v>
-      </c>
-      <c r="E148" t="n">
-        <v>101</v>
-      </c>
-      <c r="F148" t="n">
-        <v>996</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-330369.7688259098</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>103</v>
-      </c>
-      <c r="C149" t="n">
-        <v>103</v>
-      </c>
-      <c r="D149" t="n">
-        <v>103</v>
-      </c>
-      <c r="E149" t="n">
-        <v>103</v>
-      </c>
-      <c r="F149" t="n">
-        <v>3986.1434</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-330369.7688259098</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>102</v>
-      </c>
-      <c r="C150" t="n">
-        <v>102</v>
-      </c>
-      <c r="D150" t="n">
-        <v>102</v>
-      </c>
-      <c r="E150" t="n">
-        <v>102</v>
-      </c>
-      <c r="F150" t="n">
-        <v>372</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-330741.7688259098</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>102</v>
-      </c>
-      <c r="C151" t="n">
-        <v>102</v>
-      </c>
-      <c r="D151" t="n">
-        <v>102</v>
-      </c>
-      <c r="E151" t="n">
-        <v>102</v>
-      </c>
-      <c r="F151" t="n">
-        <v>10393</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-330741.7688259098</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>102</v>
-      </c>
-      <c r="C152" t="n">
-        <v>102</v>
-      </c>
-      <c r="D152" t="n">
-        <v>102</v>
-      </c>
-      <c r="E152" t="n">
-        <v>102</v>
-      </c>
-      <c r="F152" t="n">
-        <v>21648.7523</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-330741.7688259098</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>102</v>
-      </c>
-      <c r="C153" t="n">
-        <v>102</v>
-      </c>
-      <c r="D153" t="n">
-        <v>102</v>
-      </c>
-      <c r="E153" t="n">
-        <v>102</v>
-      </c>
-      <c r="F153" t="n">
-        <v>51771.2573</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-330741.7688259098</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>102</v>
-      </c>
-      <c r="C154" t="n">
-        <v>101</v>
-      </c>
-      <c r="D154" t="n">
-        <v>102</v>
-      </c>
-      <c r="E154" t="n">
-        <v>101</v>
-      </c>
-      <c r="F154" t="n">
-        <v>111149.5237</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-441891.2925259098</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
+      <c r="N112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F2" t="n">
-        <v>344</v>
+        <v>3572.0896</v>
       </c>
       <c r="G2" t="n">
-        <v>-158833.20476369</v>
+        <v>-42603.06999434</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C3" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>73</v>
+        <v>9.758800000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-158833.20476369</v>
+        <v>-42593.31119434</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>-158875.20476369</v>
+        <v>-42623.31119434</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D5" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E5" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-158870.20476369</v>
+        <v>-42613.31119434</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>-159270.20476369</v>
+        <v>-42608.31119434</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F7" t="n">
-        <v>1600</v>
+        <v>19.24</v>
       </c>
       <c r="G7" t="n">
-        <v>-159270.20476369</v>
+        <v>-42627.55119434</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" t="n">
         <v>101</v>
       </c>
       <c r="D8" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E8" t="n">
         <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>3747.07</v>
       </c>
       <c r="G8" t="n">
-        <v>-159265.20476369</v>
+        <v>-46374.62119434</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C9" t="n">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E9" t="n">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>2590.2329</v>
+        <v>27874.8106</v>
       </c>
       <c r="G9" t="n">
-        <v>-161855.43766369</v>
+        <v>-74249.43179433999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99.90000000000001</v>
+        <v>102</v>
       </c>
       <c r="C10" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E10" t="n">
-        <v>99.90000000000001</v>
+        <v>102</v>
       </c>
       <c r="F10" t="n">
-        <v>352</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>-161503.43766369</v>
+        <v>-74244.43179433999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C11" t="n">
-        <v>97.3</v>
+        <v>102</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E11" t="n">
-        <v>97.2</v>
+        <v>102</v>
       </c>
       <c r="F11" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>-161565.43766369</v>
+        <v>-74244.43179433999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>97.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>-161577.43766369</v>
+        <v>-74249.43179433999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-161572.43766369</v>
+        <v>-74249.43179433999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>12.78</v>
+        <v>4480.9868</v>
       </c>
       <c r="G14" t="n">
-        <v>-161585.21766369</v>
+        <v>-74249.43179433999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E15" t="n">
         <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>3632.105</v>
       </c>
       <c r="G15" t="n">
-        <v>-161535.21766369</v>
+        <v>-70617.32679434</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D16" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>268.713</v>
       </c>
       <c r="G16" t="n">
-        <v>-161530.21766369</v>
+        <v>-70348.61379434</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E17" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" t="n">
-        <v>21707.053</v>
+        <v>1617</v>
       </c>
       <c r="G17" t="n">
-        <v>-183237.2706636899</v>
+        <v>-71965.61379434</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,10 +1014,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
         <v>101</v>
@@ -1026,10 +1026,10 @@
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>763.4201</v>
+        <v>9223.503199999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-182473.8505636899</v>
+        <v>-81189.11699434</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>26.1504</v>
+        <v>22393.6645</v>
       </c>
       <c r="G19" t="n">
-        <v>-182500.00096369</v>
+        <v>-81189.11699434</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C20" t="n">
-        <v>95.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E20" t="n">
-        <v>95.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="F20" t="n">
-        <v>91199.99370000001</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>-273699.99466369</v>
+        <v>-81184.11699434</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>97.8</v>
+        <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="D21" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="E21" t="n">
-        <v>97.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>1200</v>
+        <v>38137.5925</v>
       </c>
       <c r="G21" t="n">
-        <v>-272499.99466369</v>
+        <v>-119321.70949434</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E22" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>556</v>
+        <v>2905.2313</v>
       </c>
       <c r="G22" t="n">
-        <v>-271943.99466369</v>
+        <v>-119321.70949434</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E23" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F23" t="n">
-        <v>2651.1559</v>
+        <v>1986</v>
       </c>
       <c r="G23" t="n">
-        <v>-271943.99466369</v>
+        <v>-117335.70949434</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1233,25 +1233,25 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>99.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="D24" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>99.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="F24" t="n">
-        <v>66.5586</v>
+        <v>2668.1901</v>
       </c>
       <c r="G24" t="n">
-        <v>-272010.55326369</v>
+        <v>-120003.89959434</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C25" t="n">
-        <v>97.5</v>
+        <v>101</v>
       </c>
       <c r="D25" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E25" t="n">
-        <v>97.5</v>
+        <v>101</v>
       </c>
       <c r="F25" t="n">
-        <v>2005</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>-274015.55326369</v>
+        <v>-119998.89959434</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>405</v>
+        <v>1192</v>
       </c>
       <c r="G26" t="n">
-        <v>-273610.55326369</v>
+        <v>-119998.89959434</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C27" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D27" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E27" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F27" t="n">
-        <v>31.885</v>
+        <v>7920.7920792</v>
       </c>
       <c r="G27" t="n">
-        <v>-273642.43826369</v>
+        <v>-119998.89959434</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C28" t="n">
-        <v>97.5</v>
+        <v>101</v>
       </c>
       <c r="D28" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E28" t="n">
-        <v>95.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="F28" t="n">
-        <v>10650.7472</v>
+        <v>9150</v>
       </c>
       <c r="G28" t="n">
-        <v>-284293.18546369</v>
+        <v>-119998.89959434</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D29" t="n">
         <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>1173</v>
+        <v>4641.1848</v>
       </c>
       <c r="G29" t="n">
-        <v>-283120.18546369</v>
+        <v>-124640.08439434</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>98.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="C30" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D30" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E30" t="n">
-        <v>95.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>10618.8622</v>
+        <v>1174</v>
       </c>
       <c r="G30" t="n">
-        <v>-293739.0476636899</v>
+        <v>-123466.08439434</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>97.3</v>
+        <v>101</v>
       </c>
       <c r="C31" t="n">
-        <v>97.3</v>
+        <v>101</v>
       </c>
       <c r="D31" t="n">
-        <v>97.3</v>
+        <v>101</v>
       </c>
       <c r="E31" t="n">
-        <v>97.3</v>
+        <v>101</v>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>400</v>
       </c>
       <c r="G31" t="n">
-        <v>-293756.0476636899</v>
+        <v>-123466.08439434</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="C32" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="D32" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="E32" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="G32" t="n">
-        <v>-293750.0476636899</v>
+        <v>-123466.08439434</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,38 +1554,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>99.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>819</v>
+        <v>34908.2705</v>
       </c>
       <c r="G33" t="n">
-        <v>-292931.0476636899</v>
+        <v>-158374.35489434</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>99.8</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1596,7 +1590,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C34" t="n">
         <v>100</v>
@@ -1605,13 +1599,13 @@
         <v>100</v>
       </c>
       <c r="E34" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F34" t="n">
-        <v>17.84</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>-292931.0476636899</v>
+        <v>-158369.35489434</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1621,11 +1615,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1636,7 +1626,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C35" t="n">
         <v>100</v>
@@ -1645,13 +1635,13 @@
         <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" t="n">
-        <v>65</v>
+        <v>10584.6362</v>
       </c>
       <c r="G35" t="n">
-        <v>-292931.0476636899</v>
+        <v>-158369.35489434</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1661,11 +1651,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1676,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="G36" t="n">
-        <v>-292926.0476636899</v>
+        <v>-158369.35489434</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1701,11 +1687,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1716,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>99.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>100</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>19005</v>
+        <v>11266.2078</v>
       </c>
       <c r="G37" t="n">
-        <v>-311931.0476636899</v>
+        <v>-169635.56269434</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1741,11 +1723,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1756,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C38" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="D38" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="E38" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="F38" t="n">
-        <v>30.97</v>
+        <v>31.22613065</v>
       </c>
       <c r="G38" t="n">
-        <v>-311931.0476636899</v>
+        <v>-169604.33656369</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1781,11 +1759,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1796,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>101</v>
+        <v>99.5</v>
       </c>
       <c r="C39" t="n">
-        <v>101</v>
+        <v>99.5</v>
       </c>
       <c r="D39" t="n">
-        <v>101</v>
+        <v>99.5</v>
       </c>
       <c r="E39" t="n">
-        <v>101</v>
+        <v>99.5</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G39" t="n">
-        <v>-311926.0476636899</v>
+        <v>-169604.33656369</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1821,11 +1795,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1836,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="D40" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="E40" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F40" t="n">
-        <v>10112.2887</v>
+        <v>25.1</v>
       </c>
       <c r="G40" t="n">
-        <v>-322038.3363636899</v>
+        <v>-169604.33656369</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1861,11 +1831,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1876,38 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>101</v>
+        <v>98.3</v>
       </c>
       <c r="C41" t="n">
-        <v>101</v>
+        <v>98.3</v>
       </c>
       <c r="D41" t="n">
-        <v>101</v>
+        <v>98.3</v>
       </c>
       <c r="E41" t="n">
-        <v>101</v>
+        <v>98.3</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>682.5453</v>
       </c>
       <c r="G41" t="n">
-        <v>-322033.3363636899</v>
+        <v>-170286.88186369</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>100</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1918,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D42" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E42" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>21918.4984</v>
+        <v>3061.545</v>
       </c>
       <c r="G42" t="n">
-        <v>-343951.8347636899</v>
+        <v>-167225.33686369</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1943,11 +1903,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1958,38 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="C43" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="D43" t="n">
-        <v>102</v>
+        <v>99.8</v>
       </c>
       <c r="E43" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="F43" t="n">
-        <v>2577</v>
+        <v>4000</v>
       </c>
       <c r="G43" t="n">
-        <v>-341374.8347636899</v>
+        <v>-167225.33686369</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>100</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2000,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="C44" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="D44" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="E44" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F44" t="n">
-        <v>1070.3707</v>
+        <v>612.6652</v>
       </c>
       <c r="G44" t="n">
-        <v>-341374.8347636899</v>
+        <v>-167225.33686369</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2025,11 +1975,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2040,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>101</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>101</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>101</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>101</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>929.1967</v>
       </c>
       <c r="G45" t="n">
-        <v>-341374.8347636899</v>
+        <v>-168154.53356369</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2065,11 +2011,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2080,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>101</v>
+        <v>98.3</v>
       </c>
       <c r="C46" t="n">
-        <v>102</v>
+        <v>98.3</v>
       </c>
       <c r="D46" t="n">
-        <v>102</v>
+        <v>98.3</v>
       </c>
       <c r="E46" t="n">
-        <v>101</v>
+        <v>98.3</v>
       </c>
       <c r="F46" t="n">
-        <v>584</v>
+        <v>1792.022</v>
       </c>
       <c r="G46" t="n">
-        <v>-340790.8347636899</v>
+        <v>-169946.55556369</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2105,11 +2047,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2120,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>102</v>
+        <v>98.2</v>
       </c>
       <c r="C47" t="n">
-        <v>104</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>104</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>101</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>1508.8134</v>
+        <v>4981.5192</v>
       </c>
       <c r="G47" t="n">
-        <v>-339282.0213636899</v>
+        <v>-164965.03636369</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2145,11 +2083,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2160,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>30629.34</v>
+        <v>1800</v>
       </c>
       <c r="G48" t="n">
-        <v>-369911.3613636899</v>
+        <v>-163165.03636369</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2185,11 +2119,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2200,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="C49" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="D49" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="E49" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="F49" t="n">
-        <v>410.1629</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="n">
-        <v>-369911.3613636899</v>
+        <v>-165165.03636369</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2225,11 +2155,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2240,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>98.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>104</v>
+        <v>99.8</v>
       </c>
       <c r="D50" t="n">
-        <v>104</v>
+        <v>99.8</v>
       </c>
       <c r="E50" t="n">
-        <v>98.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>5471.1147</v>
+        <v>215</v>
       </c>
       <c r="G50" t="n">
-        <v>-364440.24666369</v>
+        <v>-164950.03636369</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2265,11 +2191,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2280,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C51" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="D51" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="F51" t="n">
-        <v>1224.1296</v>
+        <v>2200</v>
       </c>
       <c r="G51" t="n">
-        <v>-365664.3762636899</v>
+        <v>-167150.03636369</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2305,11 +2227,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2320,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>104</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>104</v>
+        <v>98.2</v>
       </c>
       <c r="D52" t="n">
-        <v>104</v>
+        <v>98.2</v>
       </c>
       <c r="E52" t="n">
-        <v>104</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>4936.0849</v>
       </c>
       <c r="G52" t="n">
-        <v>-365659.3762636899</v>
+        <v>-167150.03636369</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2345,11 +2263,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2360,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C53" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="D53" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="E53" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="F53" t="n">
-        <v>12.5443</v>
+        <v>293.9463</v>
       </c>
       <c r="G53" t="n">
-        <v>-365671.92056369</v>
+        <v>-166856.09006369</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2385,11 +2299,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2400,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="C54" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="D54" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="E54" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="F54" t="n">
-        <v>30908.2046</v>
+        <v>223</v>
       </c>
       <c r="G54" t="n">
-        <v>-365671.92056369</v>
+        <v>-166856.09006369</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2425,11 +2335,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2440,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="C55" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D55" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E55" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="F55" t="n">
-        <v>800</v>
+        <v>762</v>
       </c>
       <c r="G55" t="n">
-        <v>-365671.92056369</v>
+        <v>-166094.09006369</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2465,11 +2371,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2480,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="C56" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="D56" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="E56" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="F56" t="n">
-        <v>996.5439</v>
+        <v>3987.7315</v>
       </c>
       <c r="G56" t="n">
-        <v>-364675.37666369</v>
+        <v>-166094.09006369</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2505,11 +2407,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2520,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="C57" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="D57" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="E57" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="F57" t="n">
-        <v>4733.6232</v>
+        <v>400</v>
       </c>
       <c r="G57" t="n">
-        <v>-364675.37666369</v>
+        <v>-166094.09006369</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2545,11 +2443,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2560,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C58" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F58" t="n">
-        <v>400</v>
+        <v>23944</v>
       </c>
       <c r="G58" t="n">
-        <v>-365075.37666369</v>
+        <v>-142150.09006369</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2585,11 +2479,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2600,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>98.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>1319.73</v>
+        <v>859.1671</v>
       </c>
       <c r="G59" t="n">
-        <v>-366395.1066636899</v>
+        <v>-142150.09006369</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2625,11 +2515,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2640,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>1372.38</v>
+        <v>1398.04804804</v>
       </c>
       <c r="G60" t="n">
-        <v>-367767.48666369</v>
+        <v>-142150.09006369</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2665,11 +2551,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2680,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>100</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>100</v>
+        <v>96.8</v>
       </c>
       <c r="D61" t="n">
-        <v>100</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>100</v>
+        <v>96.8</v>
       </c>
       <c r="F61" t="n">
-        <v>2000</v>
+        <v>17340.3367</v>
       </c>
       <c r="G61" t="n">
-        <v>-365767.48666369</v>
+        <v>-159490.42676369</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2705,11 +2587,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2720,38 +2598,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>98.2</v>
+        <v>99.7</v>
       </c>
       <c r="C62" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="D62" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="E62" t="n">
-        <v>98.2</v>
+        <v>99.7</v>
       </c>
       <c r="F62" t="n">
-        <v>105</v>
+        <v>5.1</v>
       </c>
       <c r="G62" t="n">
-        <v>-365662.48666369</v>
+        <v>-159485.32676369</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>100</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2762,7 +2634,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>98.2</v>
+        <v>99.7</v>
       </c>
       <c r="C63" t="n">
         <v>101</v>
@@ -2771,29 +2643,23 @@
         <v>101</v>
       </c>
       <c r="E63" t="n">
-        <v>98.2</v>
+        <v>99.7</v>
       </c>
       <c r="F63" t="n">
-        <v>531.6378999999999</v>
+        <v>2305</v>
       </c>
       <c r="G63" t="n">
-        <v>-365662.48666369</v>
+        <v>-157180.32676369</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>101</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2804,38 +2670,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="C64" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D64" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="F64" t="n">
-        <v>1402.1568</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-365662.48666369</v>
+        <v>-157190.32676369</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>101</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2846,38 +2706,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C65" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D65" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E65" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F65" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>-365142.48666369</v>
+        <v>-157185.32676369</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>101</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2888,38 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C66" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D66" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E66" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F66" t="n">
-        <v>3986</v>
+        <v>1991.878</v>
       </c>
       <c r="G66" t="n">
-        <v>-365142.48666369</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>103</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2930,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C67" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="D67" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="E67" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="F67" t="n">
-        <v>7175.045</v>
+        <v>1762.3583</v>
       </c>
       <c r="G67" t="n">
-        <v>-372317.5316636899</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2955,11 +2803,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2970,38 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C68" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E68" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F68" t="n">
-        <v>4.9</v>
+        <v>400</v>
       </c>
       <c r="G68" t="n">
-        <v>-372312.6316636899</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>98.2</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3012,38 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C69" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D69" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E69" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F69" t="n">
-        <v>2300.1076</v>
+        <v>114</v>
       </c>
       <c r="G69" t="n">
-        <v>-374612.7392636899</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>102</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3054,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" t="n">
-        <v>95.3</v>
+        <v>100</v>
       </c>
       <c r="D70" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E70" t="n">
-        <v>95.3</v>
+        <v>100</v>
       </c>
       <c r="F70" t="n">
-        <v>46.9975</v>
+        <v>2763</v>
       </c>
       <c r="G70" t="n">
-        <v>-374659.7367636899</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3079,11 +2911,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3094,38 +2922,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C71" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D71" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E71" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F71" t="n">
-        <v>9674.990191340001</v>
+        <v>800</v>
       </c>
       <c r="G71" t="n">
-        <v>-364984.7465723499</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>95.3</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3136,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>95.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C72" t="n">
-        <v>95.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="D72" t="n">
-        <v>95.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="E72" t="n">
-        <v>95.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="F72" t="n">
-        <v>26323.587</v>
+        <v>357</v>
       </c>
       <c r="G72" t="n">
-        <v>-391308.3335723499</v>
+        <v>-159177.20476369</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3161,11 +2983,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3176,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="C73" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D73" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="E73" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F73" t="n">
-        <v>14182.3326</v>
+        <v>344</v>
       </c>
       <c r="G73" t="n">
-        <v>-377126.0009723499</v>
+        <v>-158833.20476369</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3201,11 +3019,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3216,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F74" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G74" t="n">
-        <v>-377076.0009723499</v>
+        <v>-158833.20476369</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3241,11 +3055,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3256,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>95.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C75" t="n">
-        <v>95.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="D75" t="n">
-        <v>95.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="E75" t="n">
-        <v>95.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="F75" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G75" t="n">
-        <v>-377082.0009723499</v>
+        <v>-158875.20476369</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3281,11 +3091,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3296,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C76" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D76" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E76" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F76" t="n">
-        <v>2489.68968968</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>-374592.3112826699</v>
+        <v>-158870.20476369</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3321,11 +3127,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3336,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C77" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D77" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E77" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F77" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G77" t="n">
-        <v>-374592.3112826699</v>
+        <v>-159270.20476369</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3361,11 +3163,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3376,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C78" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D78" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E78" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F78" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="G78" t="n">
-        <v>-374592.3112826699</v>
+        <v>-159270.20476369</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3401,11 +3199,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3416,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C79" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="D79" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E79" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="F79" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="G79" t="n">
-        <v>-374998.3112826699</v>
+        <v>-159265.20476369</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3441,11 +3235,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3456,38 +3246,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>2026.887</v>
+        <v>2590.2329</v>
       </c>
       <c r="G80" t="n">
-        <v>-377025.1982826699</v>
+        <v>-161855.43766369</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>97.09999999999999</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3498,38 +3282,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>98.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D81" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E81" t="n">
-        <v>97</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>800</v>
+        <v>352</v>
       </c>
       <c r="G81" t="n">
-        <v>-377025.1982826699</v>
+        <v>-161503.43766369</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>97</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3540,38 +3318,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C82" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="D82" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E82" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="F82" t="n">
-        <v>1600</v>
+        <v>62</v>
       </c>
       <c r="G82" t="n">
-        <v>-377025.1982826699</v>
+        <v>-161565.43766369</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>97</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3582,38 +3354,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>97</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>98.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D83" t="n">
-        <v>98.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="F83" t="n">
-        <v>1227</v>
+        <v>12</v>
       </c>
       <c r="G83" t="n">
-        <v>-375798.1982826699</v>
+        <v>-161577.43766369</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>97</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3624,38 +3390,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C84" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D84" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E84" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F84" t="n">
-        <v>3179</v>
+        <v>5</v>
       </c>
       <c r="G84" t="n">
-        <v>-372619.1982826699</v>
+        <v>-161572.43766369</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>98.90000000000001</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3666,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>99.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>99.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>1861.007</v>
+        <v>12.78</v>
       </c>
       <c r="G85" t="n">
-        <v>-374480.2052826699</v>
+        <v>-161585.21766369</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3691,11 +3451,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3706,38 +3462,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="C86" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D86" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E86" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="F86" t="n">
-        <v>1061</v>
+        <v>50</v>
       </c>
       <c r="G86" t="n">
-        <v>-373419.2052826699</v>
+        <v>-161535.21766369</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>99</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3748,36 +3498,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C87" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D87" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E87" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F87" t="n">
-        <v>3200</v>
+        <v>5</v>
       </c>
       <c r="G87" t="n">
-        <v>-376619.2052826699</v>
+        <v>-161530.21766369</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="n">
+        <v>100</v>
+      </c>
+      <c r="K87" t="n">
+        <v>100</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3788,36 +3538,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C88" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D88" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E88" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F88" t="n">
-        <v>567.8911000000001</v>
+        <v>21707.053</v>
       </c>
       <c r="G88" t="n">
-        <v>-376619.2052826699</v>
+        <v>-183237.2706636899</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>99</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>100</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -3830,36 +3580,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>96.2</v>
+        <v>100</v>
       </c>
       <c r="C89" t="n">
-        <v>96.2</v>
+        <v>101</v>
       </c>
       <c r="D89" t="n">
-        <v>96.2</v>
+        <v>101</v>
       </c>
       <c r="E89" t="n">
-        <v>96.2</v>
+        <v>100</v>
       </c>
       <c r="F89" t="n">
-        <v>26.1504</v>
+        <v>763.4201</v>
       </c>
       <c r="G89" t="n">
-        <v>-376645.3556826698</v>
+        <v>-182473.8505636899</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>99</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>100</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -3872,33 +3622,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C90" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D90" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E90" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F90" t="n">
-        <v>38536.34935676</v>
+        <v>26.1504</v>
       </c>
       <c r="G90" t="n">
-        <v>-338109.0063259099</v>
+        <v>-182500.00096369</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>100</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,22 +3664,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="C91" t="n">
-        <v>99.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="E91" t="n">
-        <v>99.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>2800</v>
+        <v>91199.99370000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-340909.0063259099</v>
+        <v>-273699.99466369</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3938,7 +3688,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>100</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3954,22 +3706,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>99.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C92" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="D92" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E92" t="n">
-        <v>99.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="n">
-        <v>-340509.0063259099</v>
+        <v>-272499.99466369</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3978,7 +3730,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>100</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3994,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="C93" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D93" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E93" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="F93" t="n">
-        <v>4107.337</v>
+        <v>556</v>
       </c>
       <c r="G93" t="n">
-        <v>-336401.6693259099</v>
+        <v>-271943.99466369</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4018,7 +3772,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>100</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4034,22 +3790,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D94" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E94" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>518.3998</v>
+        <v>2651.1559</v>
       </c>
       <c r="G94" t="n">
-        <v>-335883.2695259099</v>
+        <v>-271943.99466369</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4058,7 +3814,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>100</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4074,22 +3832,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>103</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>103</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>49.4947</v>
+        <v>66.5586</v>
       </c>
       <c r="G95" t="n">
-        <v>-335932.7642259098</v>
+        <v>-272010.55326369</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4098,7 +3856,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>100</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4114,22 +3874,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>104</v>
+        <v>97.5</v>
       </c>
       <c r="D96" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>101</v>
+        <v>97.5</v>
       </c>
       <c r="F96" t="n">
-        <v>5346.96</v>
+        <v>2005</v>
       </c>
       <c r="G96" t="n">
-        <v>-330585.8042259098</v>
+        <v>-274015.55326369</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4138,7 +3898,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>100</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4154,31 +3916,35 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D97" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E97" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>4876.67</v>
+        <v>405</v>
       </c>
       <c r="G97" t="n">
-        <v>-335462.4742259098</v>
+        <v>-273610.55326369</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>100</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,22 +3960,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>105</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>105</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>12530.1389</v>
+        <v>31.885</v>
       </c>
       <c r="G98" t="n">
-        <v>-335462.4742259098</v>
+        <v>-273642.43826369</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4218,7 +3984,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>100</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4234,31 +4002,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>104</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>104</v>
+        <v>97.5</v>
       </c>
       <c r="D99" t="n">
-        <v>104</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>104</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>326.96</v>
+        <v>10650.7472</v>
       </c>
       <c r="G99" t="n">
-        <v>-335135.5142259098</v>
+        <v>-284293.18546369</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K99" t="n">
+        <v>100</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4274,31 +4046,35 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>104</v>
+        <v>99.5</v>
       </c>
       <c r="C100" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D100" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E100" t="n">
-        <v>104</v>
+        <v>99.5</v>
       </c>
       <c r="F100" t="n">
-        <v>59.04</v>
+        <v>1173</v>
       </c>
       <c r="G100" t="n">
-        <v>-335135.5142259098</v>
+        <v>-283120.18546369</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>100</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4314,31 +4090,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>102</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>102</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>385</v>
+        <v>10618.8622</v>
       </c>
       <c r="G101" t="n">
-        <v>-335520.5142259098</v>
+        <v>-293739.0476636899</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>100</v>
+      </c>
+      <c r="K101" t="n">
+        <v>100</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4354,31 +4134,35 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>102</v>
+        <v>97.3</v>
       </c>
       <c r="C102" t="n">
-        <v>102</v>
+        <v>97.3</v>
       </c>
       <c r="D102" t="n">
-        <v>102</v>
+        <v>97.3</v>
       </c>
       <c r="E102" t="n">
-        <v>102</v>
+        <v>97.3</v>
       </c>
       <c r="F102" t="n">
-        <v>828.2026</v>
+        <v>17</v>
       </c>
       <c r="G102" t="n">
-        <v>-335520.5142259098</v>
+        <v>-293756.0476636899</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K102" t="n">
+        <v>100</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,31 +4178,35 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>102</v>
+        <v>99.8</v>
       </c>
       <c r="C103" t="n">
-        <v>102</v>
+        <v>99.8</v>
       </c>
       <c r="D103" t="n">
-        <v>102</v>
+        <v>99.8</v>
       </c>
       <c r="E103" t="n">
-        <v>102</v>
+        <v>99.8</v>
       </c>
       <c r="F103" t="n">
-        <v>4000</v>
+        <v>6</v>
       </c>
       <c r="G103" t="n">
-        <v>-335520.5142259098</v>
+        <v>-293750.0476636899</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="K103" t="n">
+        <v>100</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4434,31 +4222,35 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>103</v>
+        <v>99.8</v>
       </c>
       <c r="C104" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D104" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E104" t="n">
-        <v>103</v>
+        <v>99.8</v>
       </c>
       <c r="F104" t="n">
-        <v>5150.7454</v>
+        <v>819</v>
       </c>
       <c r="G104" t="n">
-        <v>-330369.7688259098</v>
+        <v>-292931.0476636899</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="K104" t="n">
+        <v>100</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4474,22 +4266,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D105" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E105" t="n">
-        <v>103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>659</v>
+        <v>17.84</v>
       </c>
       <c r="G105" t="n">
-        <v>-330369.7688259098</v>
+        <v>-292931.0476636899</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4498,7 +4290,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>100</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4514,31 +4308,35 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D106" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E106" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F106" t="n">
-        <v>996</v>
+        <v>65</v>
       </c>
       <c r="G106" t="n">
-        <v>-330369.7688259098</v>
+        <v>-292931.0476636899</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>100</v>
+      </c>
+      <c r="K106" t="n">
+        <v>100</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4554,22 +4352,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D107" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E107" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F107" t="n">
-        <v>3986.1434</v>
+        <v>5</v>
       </c>
       <c r="G107" t="n">
-        <v>-330369.7688259098</v>
+        <v>-292926.0476636899</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4578,7 +4376,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>100</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4594,22 +4394,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D108" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E108" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F108" t="n">
-        <v>372</v>
+        <v>19005</v>
       </c>
       <c r="G108" t="n">
-        <v>-330741.7688259098</v>
+        <v>-311931.0476636899</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4618,7 +4418,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>100</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4634,22 +4436,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D109" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E109" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>10393</v>
+        <v>30.97</v>
       </c>
       <c r="G109" t="n">
-        <v>-330741.7688259098</v>
+        <v>-311931.0476636899</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4658,7 +4460,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>100</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4674,31 +4478,35 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D110" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E110" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F110" t="n">
-        <v>21648.7523</v>
+        <v>5</v>
       </c>
       <c r="G110" t="n">
-        <v>-330741.7688259098</v>
+        <v>-311926.0476636899</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>100</v>
+      </c>
+      <c r="K110" t="n">
+        <v>100</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4714,22 +4522,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C111" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D111" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E111" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F111" t="n">
-        <v>51771.2573</v>
+        <v>10112.2887</v>
       </c>
       <c r="G111" t="n">
-        <v>-330741.7688259098</v>
+        <v>-322038.3363636899</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4738,7 +4546,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>100</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4754,40 +4564,3026 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>101</v>
+      </c>
+      <c r="C112" t="n">
+        <v>101</v>
+      </c>
+      <c r="D112" t="n">
+        <v>101</v>
+      </c>
+      <c r="E112" t="n">
+        <v>101</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-322033.3363636899</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>100</v>
+      </c>
+      <c r="K112" t="n">
+        <v>100</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>100</v>
+      </c>
+      <c r="C113" t="n">
+        <v>100</v>
+      </c>
+      <c r="D113" t="n">
+        <v>100</v>
+      </c>
+      <c r="E113" t="n">
+        <v>100</v>
+      </c>
+      <c r="F113" t="n">
+        <v>21918.4984</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-343951.8347636899</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>100</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>101</v>
+      </c>
+      <c r="C114" t="n">
+        <v>101</v>
+      </c>
+      <c r="D114" t="n">
         <v>102</v>
       </c>
-      <c r="C112" t="n">
-        <v>101</v>
-      </c>
-      <c r="D112" t="n">
+      <c r="E114" t="n">
+        <v>101</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2577</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-341374.8347636899</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>100</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>101</v>
+      </c>
+      <c r="C115" t="n">
+        <v>101</v>
+      </c>
+      <c r="D115" t="n">
+        <v>101</v>
+      </c>
+      <c r="E115" t="n">
+        <v>100</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1070.3707</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-341374.8347636899</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>100</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>101</v>
+      </c>
+      <c r="C116" t="n">
+        <v>101</v>
+      </c>
+      <c r="D116" t="n">
+        <v>101</v>
+      </c>
+      <c r="E116" t="n">
+        <v>101</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-341374.8347636899</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>100</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>101</v>
+      </c>
+      <c r="C117" t="n">
         <v>102</v>
       </c>
-      <c r="E112" t="n">
-        <v>101</v>
-      </c>
-      <c r="F112" t="n">
+      <c r="D117" t="n">
+        <v>102</v>
+      </c>
+      <c r="E117" t="n">
+        <v>101</v>
+      </c>
+      <c r="F117" t="n">
+        <v>584</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-340790.8347636899</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>100</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>102</v>
+      </c>
+      <c r="C118" t="n">
+        <v>104</v>
+      </c>
+      <c r="D118" t="n">
+        <v>104</v>
+      </c>
+      <c r="E118" t="n">
+        <v>101</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1508.8134</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-339282.0213636899</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>100</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>100</v>
+      </c>
+      <c r="C119" t="n">
+        <v>101</v>
+      </c>
+      <c r="D119" t="n">
+        <v>101</v>
+      </c>
+      <c r="E119" t="n">
+        <v>100</v>
+      </c>
+      <c r="F119" t="n">
+        <v>30629.34</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-369911.3613636899</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>100</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>101</v>
+      </c>
+      <c r="C120" t="n">
+        <v>101</v>
+      </c>
+      <c r="D120" t="n">
+        <v>101</v>
+      </c>
+      <c r="E120" t="n">
+        <v>101</v>
+      </c>
+      <c r="F120" t="n">
+        <v>410.1629</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-369911.3613636899</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>100</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>104</v>
+      </c>
+      <c r="D121" t="n">
+        <v>104</v>
+      </c>
+      <c r="E121" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5471.1147</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-364440.24666369</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>100</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>100</v>
+      </c>
+      <c r="C122" t="n">
+        <v>100</v>
+      </c>
+      <c r="D122" t="n">
+        <v>100</v>
+      </c>
+      <c r="E122" t="n">
+        <v>100</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1224.1296</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-365664.3762636899</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>100</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>104</v>
+      </c>
+      <c r="C123" t="n">
+        <v>104</v>
+      </c>
+      <c r="D123" t="n">
+        <v>104</v>
+      </c>
+      <c r="E123" t="n">
+        <v>104</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-365659.3762636899</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>100</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>100</v>
+      </c>
+      <c r="C124" t="n">
+        <v>100</v>
+      </c>
+      <c r="D124" t="n">
+        <v>100</v>
+      </c>
+      <c r="E124" t="n">
+        <v>100</v>
+      </c>
+      <c r="F124" t="n">
+        <v>12.5443</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-365671.92056369</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>100</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>100</v>
+      </c>
+      <c r="C125" t="n">
+        <v>100</v>
+      </c>
+      <c r="D125" t="n">
+        <v>101</v>
+      </c>
+      <c r="E125" t="n">
+        <v>100</v>
+      </c>
+      <c r="F125" t="n">
+        <v>30908.2046</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-365671.92056369</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>100</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>100</v>
+      </c>
+      <c r="C126" t="n">
+        <v>100</v>
+      </c>
+      <c r="D126" t="n">
+        <v>100</v>
+      </c>
+      <c r="E126" t="n">
+        <v>100</v>
+      </c>
+      <c r="F126" t="n">
+        <v>800</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-365671.92056369</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>100</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>101</v>
+      </c>
+      <c r="C127" t="n">
+        <v>101</v>
+      </c>
+      <c r="D127" t="n">
+        <v>101</v>
+      </c>
+      <c r="E127" t="n">
+        <v>101</v>
+      </c>
+      <c r="F127" t="n">
+        <v>996.5439</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-364675.37666369</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>100</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>101</v>
+      </c>
+      <c r="C128" t="n">
+        <v>101</v>
+      </c>
+      <c r="D128" t="n">
+        <v>101</v>
+      </c>
+      <c r="E128" t="n">
+        <v>101</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4733.6232</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-364675.37666369</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>100</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>100</v>
+      </c>
+      <c r="C129" t="n">
+        <v>100</v>
+      </c>
+      <c r="D129" t="n">
+        <v>100</v>
+      </c>
+      <c r="E129" t="n">
+        <v>100</v>
+      </c>
+      <c r="F129" t="n">
+        <v>400</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-365075.37666369</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>100</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>101</v>
+      </c>
+      <c r="C130" t="n">
+        <v>99</v>
+      </c>
+      <c r="D130" t="n">
+        <v>101</v>
+      </c>
+      <c r="E130" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1319.73</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-366395.1066636899</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>100</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1372.38</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-367767.48666369</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>100</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>100</v>
+      </c>
+      <c r="C132" t="n">
+        <v>100</v>
+      </c>
+      <c r="D132" t="n">
+        <v>100</v>
+      </c>
+      <c r="E132" t="n">
+        <v>100</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-365767.48666369</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>100</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>101</v>
+      </c>
+      <c r="D133" t="n">
+        <v>101</v>
+      </c>
+      <c r="E133" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>105</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-365662.48666369</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>100</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>101</v>
+      </c>
+      <c r="D134" t="n">
+        <v>101</v>
+      </c>
+      <c r="E134" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>531.6378999999999</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-365662.48666369</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>100</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>101</v>
+      </c>
+      <c r="D135" t="n">
+        <v>101</v>
+      </c>
+      <c r="E135" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1402.1568</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-365662.48666369</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>100</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>100</v>
+      </c>
+      <c r="C136" t="n">
+        <v>103</v>
+      </c>
+      <c r="D136" t="n">
+        <v>103</v>
+      </c>
+      <c r="E136" t="n">
+        <v>100</v>
+      </c>
+      <c r="F136" t="n">
+        <v>520</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-365142.48666369</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>100</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>103</v>
+      </c>
+      <c r="D137" t="n">
+        <v>103</v>
+      </c>
+      <c r="E137" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3986</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-365142.48666369</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>100</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7175.045</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-372317.5316636899</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>100</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>102</v>
+      </c>
+      <c r="C139" t="n">
+        <v>102</v>
+      </c>
+      <c r="D139" t="n">
+        <v>102</v>
+      </c>
+      <c r="E139" t="n">
+        <v>102</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-372312.6316636899</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>100</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>99</v>
+      </c>
+      <c r="D140" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>99</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2300.1076</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-374612.7392636899</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>100</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>99</v>
+      </c>
+      <c r="C141" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="D141" t="n">
+        <v>102</v>
+      </c>
+      <c r="E141" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>46.9975</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-374659.7367636899</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>100</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>102</v>
+      </c>
+      <c r="C142" t="n">
+        <v>104</v>
+      </c>
+      <c r="D142" t="n">
+        <v>104</v>
+      </c>
+      <c r="E142" t="n">
+        <v>102</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9674.990191340001</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-364984.7465723499</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>100</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="D143" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="E143" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F143" t="n">
+        <v>26323.587</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-391308.3335723499</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>100</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>99</v>
+      </c>
+      <c r="D144" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>99</v>
+      </c>
+      <c r="F144" t="n">
+        <v>14182.3326</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-377126.0009723499</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>100</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>100</v>
+      </c>
+      <c r="C145" t="n">
+        <v>100</v>
+      </c>
+      <c r="D145" t="n">
+        <v>100</v>
+      </c>
+      <c r="E145" t="n">
+        <v>100</v>
+      </c>
+      <c r="F145" t="n">
+        <v>50</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-377076.0009723499</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>100</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="C146" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="D146" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="E146" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-377082.0009723499</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>100</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D147" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E147" t="n">
+        <v>98</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2489.68968968</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-374592.3112826699</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>100</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>98</v>
+      </c>
+      <c r="C148" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D148" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E148" t="n">
+        <v>98</v>
+      </c>
+      <c r="F148" t="n">
+        <v>800</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-374592.3112826699</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>100</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>98</v>
+      </c>
+      <c r="C149" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>98</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-374592.3112826699</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>100</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D150" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E150" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F150" t="n">
+        <v>406</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-374998.3112826699</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>100</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>97</v>
+      </c>
+      <c r="C151" t="n">
+        <v>97</v>
+      </c>
+      <c r="D151" t="n">
+        <v>97</v>
+      </c>
+      <c r="E151" t="n">
+        <v>97</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2026.887</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-377025.1982826699</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>100</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>97</v>
+      </c>
+      <c r="D152" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E152" t="n">
+        <v>97</v>
+      </c>
+      <c r="F152" t="n">
+        <v>800</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-377025.1982826699</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>100</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>97</v>
+      </c>
+      <c r="C153" t="n">
+        <v>97</v>
+      </c>
+      <c r="D153" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E153" t="n">
+        <v>97</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-377025.1982826699</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>100</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>97</v>
+      </c>
+      <c r="C154" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E154" t="n">
+        <v>97</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1227</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-375798.1982826699</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>100</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>103</v>
+      </c>
+      <c r="D155" t="n">
+        <v>103</v>
+      </c>
+      <c r="E155" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3179</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-372619.1982826699</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>100</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>99</v>
+      </c>
+      <c r="D156" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E156" t="n">
+        <v>99</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1861.007</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-374480.2052826699</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>100</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>103</v>
+      </c>
+      <c r="D157" t="n">
+        <v>103</v>
+      </c>
+      <c r="E157" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1061</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-373419.2052826699</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>100</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>99</v>
+      </c>
+      <c r="D158" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>99</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-376619.2052826699</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>100</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>99</v>
+      </c>
+      <c r="C159" t="n">
+        <v>99</v>
+      </c>
+      <c r="D159" t="n">
+        <v>99</v>
+      </c>
+      <c r="E159" t="n">
+        <v>99</v>
+      </c>
+      <c r="F159" t="n">
+        <v>567.8911000000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-376619.2052826699</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>100</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="C160" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="D160" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>26.1504</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-376645.3556826698</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>100</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>102</v>
+      </c>
+      <c r="C161" t="n">
+        <v>106</v>
+      </c>
+      <c r="D161" t="n">
+        <v>106</v>
+      </c>
+      <c r="E161" t="n">
+        <v>102</v>
+      </c>
+      <c r="F161" t="n">
+        <v>38536.34935676</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-338109.0063259099</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>100</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C162" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E162" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-340909.0063259099</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>100</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C163" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E163" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>400</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-340509.0063259099</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>100</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>100</v>
+      </c>
+      <c r="C164" t="n">
+        <v>101</v>
+      </c>
+      <c r="D164" t="n">
+        <v>102</v>
+      </c>
+      <c r="E164" t="n">
+        <v>100</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4107.337</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-336401.6693259099</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>100</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>104</v>
+      </c>
+      <c r="C165" t="n">
+        <v>104</v>
+      </c>
+      <c r="D165" t="n">
+        <v>104</v>
+      </c>
+      <c r="E165" t="n">
+        <v>101</v>
+      </c>
+      <c r="F165" t="n">
+        <v>518.3998</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-335883.2695259099</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>100</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>103</v>
+      </c>
+      <c r="C166" t="n">
+        <v>103</v>
+      </c>
+      <c r="D166" t="n">
+        <v>103</v>
+      </c>
+      <c r="E166" t="n">
+        <v>103</v>
+      </c>
+      <c r="F166" t="n">
+        <v>49.4947</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-335932.7642259098</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>100</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>103</v>
+      </c>
+      <c r="C167" t="n">
+        <v>104</v>
+      </c>
+      <c r="D167" t="n">
+        <v>104</v>
+      </c>
+      <c r="E167" t="n">
+        <v>101</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5346.96</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-330585.8042259098</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>100</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>104</v>
+      </c>
+      <c r="C168" t="n">
+        <v>101</v>
+      </c>
+      <c r="D168" t="n">
+        <v>104</v>
+      </c>
+      <c r="E168" t="n">
+        <v>101</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4876.67</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-335462.4742259098</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>100</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>105</v>
+      </c>
+      <c r="C169" t="n">
+        <v>101</v>
+      </c>
+      <c r="D169" t="n">
+        <v>105</v>
+      </c>
+      <c r="E169" t="n">
+        <v>101</v>
+      </c>
+      <c r="F169" t="n">
+        <v>12530.1389</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-335462.4742259098</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>100</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>104</v>
+      </c>
+      <c r="C170" t="n">
+        <v>104</v>
+      </c>
+      <c r="D170" t="n">
+        <v>104</v>
+      </c>
+      <c r="E170" t="n">
+        <v>104</v>
+      </c>
+      <c r="F170" t="n">
+        <v>326.96</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-335135.5142259098</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>100</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>104</v>
+      </c>
+      <c r="C171" t="n">
+        <v>104</v>
+      </c>
+      <c r="D171" t="n">
+        <v>104</v>
+      </c>
+      <c r="E171" t="n">
+        <v>104</v>
+      </c>
+      <c r="F171" t="n">
+        <v>59.04</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-335135.5142259098</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>100</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>102</v>
+      </c>
+      <c r="C172" t="n">
+        <v>102</v>
+      </c>
+      <c r="D172" t="n">
+        <v>102</v>
+      </c>
+      <c r="E172" t="n">
+        <v>102</v>
+      </c>
+      <c r="F172" t="n">
+        <v>385</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-335520.5142259098</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>100</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>102</v>
+      </c>
+      <c r="C173" t="n">
+        <v>102</v>
+      </c>
+      <c r="D173" t="n">
+        <v>102</v>
+      </c>
+      <c r="E173" t="n">
+        <v>102</v>
+      </c>
+      <c r="F173" t="n">
+        <v>828.2026</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-335520.5142259098</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>100</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>102</v>
+      </c>
+      <c r="C174" t="n">
+        <v>102</v>
+      </c>
+      <c r="D174" t="n">
+        <v>102</v>
+      </c>
+      <c r="E174" t="n">
+        <v>102</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-335520.5142259098</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>100</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>103</v>
+      </c>
+      <c r="C175" t="n">
+        <v>103</v>
+      </c>
+      <c r="D175" t="n">
+        <v>103</v>
+      </c>
+      <c r="E175" t="n">
+        <v>103</v>
+      </c>
+      <c r="F175" t="n">
+        <v>5150.7454</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-330369.7688259098</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>100</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>103</v>
+      </c>
+      <c r="C176" t="n">
+        <v>103</v>
+      </c>
+      <c r="D176" t="n">
+        <v>104</v>
+      </c>
+      <c r="E176" t="n">
+        <v>103</v>
+      </c>
+      <c r="F176" t="n">
+        <v>659</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-330369.7688259098</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>100</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>101</v>
+      </c>
+      <c r="C177" t="n">
+        <v>103</v>
+      </c>
+      <c r="D177" t="n">
+        <v>104</v>
+      </c>
+      <c r="E177" t="n">
+        <v>101</v>
+      </c>
+      <c r="F177" t="n">
+        <v>996</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-330369.7688259098</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>100</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>103</v>
+      </c>
+      <c r="C178" t="n">
+        <v>103</v>
+      </c>
+      <c r="D178" t="n">
+        <v>103</v>
+      </c>
+      <c r="E178" t="n">
+        <v>103</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3986.1434</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-330369.7688259098</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>100</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>102</v>
+      </c>
+      <c r="C179" t="n">
+        <v>102</v>
+      </c>
+      <c r="D179" t="n">
+        <v>102</v>
+      </c>
+      <c r="E179" t="n">
+        <v>102</v>
+      </c>
+      <c r="F179" t="n">
+        <v>372</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-330741.7688259098</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>100</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>102</v>
+      </c>
+      <c r="C180" t="n">
+        <v>102</v>
+      </c>
+      <c r="D180" t="n">
+        <v>102</v>
+      </c>
+      <c r="E180" t="n">
+        <v>102</v>
+      </c>
+      <c r="F180" t="n">
+        <v>10393</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-330741.7688259098</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>100</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>102</v>
+      </c>
+      <c r="C181" t="n">
+        <v>102</v>
+      </c>
+      <c r="D181" t="n">
+        <v>102</v>
+      </c>
+      <c r="E181" t="n">
+        <v>102</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21648.7523</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-330741.7688259098</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>100</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>102</v>
+      </c>
+      <c r="C182" t="n">
+        <v>102</v>
+      </c>
+      <c r="D182" t="n">
+        <v>102</v>
+      </c>
+      <c r="E182" t="n">
+        <v>102</v>
+      </c>
+      <c r="F182" t="n">
+        <v>51771.2573</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-330741.7688259098</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>100</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>102</v>
+      </c>
+      <c r="C183" t="n">
+        <v>101</v>
+      </c>
+      <c r="D183" t="n">
+        <v>102</v>
+      </c>
+      <c r="E183" t="n">
+        <v>101</v>
+      </c>
+      <c r="F183" t="n">
         <v>111149.5237</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G183" t="n">
         <v>-441891.2925259098</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>100</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-42593.31119434</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-42623.31119434</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-42613.31119434</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-42608.31119434</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-42627.55119434</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-46374.62119434</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-74249.43179433999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-74244.43179433999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-74249.43179433999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-169946.55556369</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-159177.20476369</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-158833.20476369</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-159270.20476369</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-159270.20476369</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-159265.20476369</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,19 @@
         <v>-161855.43766369</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="J80" t="n">
+        <v>101</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3062,21 @@
         <v>-161503.43766369</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>101</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3101,21 @@
         <v>-161565.43766369</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>101</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3140,21 @@
         <v>-161577.43766369</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>101</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3179,23 @@
         <v>-161572.43766369</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>97.2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>101</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3222,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>101</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3261,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>101</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,22 +3298,23 @@
         <v>-161530.21766369</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J87" t="n">
-        <v>100</v>
-      </c>
-      <c r="K87" t="n">
-        <v>100</v>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3556,24 +3339,23 @@
         <v>-183237.2706636899</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>100</v>
-      </c>
-      <c r="L88" t="inlineStr">
+        <v>101</v>
+      </c>
+      <c r="J88" t="n">
+        <v>101</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3600,1470 +3382,1315 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>100</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>101</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>100</v>
+      </c>
+      <c r="C90" t="n">
+        <v>100</v>
+      </c>
+      <c r="D90" t="n">
+        <v>100</v>
+      </c>
+      <c r="E90" t="n">
+        <v>100</v>
+      </c>
+      <c r="F90" t="n">
+        <v>26.1504</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-182500.00096369</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>101</v>
+      </c>
+      <c r="J90" t="n">
+        <v>101</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>100</v>
+      </c>
+      <c r="C91" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="D91" t="n">
+        <v>100</v>
+      </c>
+      <c r="E91" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F91" t="n">
+        <v>91199.99370000001</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-273699.99466369</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>100</v>
+      </c>
+      <c r="J91" t="n">
+        <v>101</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="C92" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E92" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-272499.99466369</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>101</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C93" t="n">
+        <v>100</v>
+      </c>
+      <c r="D93" t="n">
+        <v>100</v>
+      </c>
+      <c r="E93" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>556</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-271943.99466369</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>101</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>100</v>
+      </c>
+      <c r="D94" t="n">
+        <v>100</v>
+      </c>
+      <c r="E94" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2651.1559</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-271943.99466369</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>101</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C95" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D95" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E95" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F95" t="n">
+        <v>66.5586</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-272010.55326369</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>100</v>
+      </c>
+      <c r="J95" t="n">
+        <v>101</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E96" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-274015.55326369</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="J96" t="n">
+        <v>101</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C97" t="n">
+        <v>100</v>
+      </c>
+      <c r="D97" t="n">
+        <v>100</v>
+      </c>
+      <c r="E97" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F97" t="n">
+        <v>405</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-273610.55326369</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>101</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C98" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D98" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E98" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F98" t="n">
+        <v>31.885</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-273642.43826369</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>100</v>
+      </c>
+      <c r="J98" t="n">
+        <v>101</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E99" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10650.7472</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-284293.18546369</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J99" t="n">
+        <v>101</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>100</v>
+      </c>
+      <c r="D100" t="n">
+        <v>100</v>
+      </c>
+      <c r="E100" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1173</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-283120.18546369</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>101</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>0.9850990099009901</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D101" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E101" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10618.8622</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-293739.0476636899</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>100</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>100</v>
-      </c>
-      <c r="C90" t="n">
-        <v>100</v>
-      </c>
-      <c r="D90" t="n">
-        <v>100</v>
-      </c>
-      <c r="E90" t="n">
-        <v>100</v>
-      </c>
-      <c r="F90" t="n">
-        <v>26.1504</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-182500.00096369</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>100</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="E102" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-293756.0476636899</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>100</v>
-      </c>
-      <c r="C91" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="D91" t="n">
-        <v>100</v>
-      </c>
-      <c r="E91" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="F91" t="n">
-        <v>91199.99370000001</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-273699.99466369</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>100</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C103" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D103" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E103" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-293750.0476636899</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="C92" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="D92" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="E92" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-272499.99466369</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>100</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C104" t="n">
+        <v>100</v>
+      </c>
+      <c r="D104" t="n">
+        <v>100</v>
+      </c>
+      <c r="E104" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>819</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-292931.0476636899</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="C93" t="n">
-        <v>100</v>
-      </c>
-      <c r="D93" t="n">
-        <v>100</v>
-      </c>
-      <c r="E93" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="F93" t="n">
-        <v>556</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-271943.99466369</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>100</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>100</v>
+      </c>
+      <c r="D105" t="n">
+        <v>100</v>
+      </c>
+      <c r="E105" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-292931.0476636899</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C94" t="n">
-        <v>100</v>
-      </c>
-      <c r="D94" t="n">
-        <v>100</v>
-      </c>
-      <c r="E94" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2651.1559</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-271943.99466369</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>100</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>100</v>
+      </c>
+      <c r="C106" t="n">
+        <v>100</v>
+      </c>
+      <c r="D106" t="n">
+        <v>100</v>
+      </c>
+      <c r="E106" t="n">
+        <v>100</v>
+      </c>
+      <c r="F106" t="n">
+        <v>65</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-292931.0476636899</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C95" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="D95" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E95" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="F95" t="n">
-        <v>66.5586</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-272010.55326369</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>100</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>101</v>
+      </c>
+      <c r="C107" t="n">
+        <v>101</v>
+      </c>
+      <c r="D107" t="n">
+        <v>101</v>
+      </c>
+      <c r="E107" t="n">
+        <v>101</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-292926.0476636899</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C96" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D96" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E96" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2005</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-274015.55326369</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>100</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="C108" t="n">
+        <v>100</v>
+      </c>
+      <c r="D108" t="n">
+        <v>100</v>
+      </c>
+      <c r="E108" t="n">
+        <v>98</v>
+      </c>
+      <c r="F108" t="n">
+        <v>19005</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-311931.0476636899</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C97" t="n">
-        <v>100</v>
-      </c>
-      <c r="D97" t="n">
-        <v>100</v>
-      </c>
-      <c r="E97" t="n">
+      <c r="C109" t="n">
+        <v>100</v>
+      </c>
+      <c r="D109" t="n">
+        <v>100</v>
+      </c>
+      <c r="E109" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="F97" t="n">
-        <v>405</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-273610.55326369</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K97" t="n">
-        <v>100</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="F109" t="n">
+        <v>30.97</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-311931.0476636899</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C98" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D98" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E98" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F98" t="n">
-        <v>31.885</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-273642.43826369</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>100</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>101</v>
+      </c>
+      <c r="C110" t="n">
+        <v>101</v>
+      </c>
+      <c r="D110" t="n">
+        <v>101</v>
+      </c>
+      <c r="E110" t="n">
+        <v>101</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-311926.0476636899</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D99" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="E99" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="F99" t="n">
-        <v>10650.7472</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-284293.18546369</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="K99" t="n">
-        <v>100</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>100</v>
+      </c>
+      <c r="C111" t="n">
+        <v>100</v>
+      </c>
+      <c r="D111" t="n">
+        <v>100</v>
+      </c>
+      <c r="E111" t="n">
+        <v>100</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10112.2887</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-322038.3363636899</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="C100" t="n">
-        <v>100</v>
-      </c>
-      <c r="D100" t="n">
-        <v>100</v>
-      </c>
-      <c r="E100" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1173</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-283120.18546369</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="K100" t="n">
-        <v>100</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>101</v>
+      </c>
+      <c r="C112" t="n">
+        <v>101</v>
+      </c>
+      <c r="D112" t="n">
+        <v>101</v>
+      </c>
+      <c r="E112" t="n">
+        <v>101</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-322033.3363636899</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="C101" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D101" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E101" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="F101" t="n">
-        <v>10618.8622</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-293739.0476636899</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>100</v>
-      </c>
-      <c r="K101" t="n">
-        <v>100</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>100</v>
+      </c>
+      <c r="C113" t="n">
+        <v>100</v>
+      </c>
+      <c r="D113" t="n">
+        <v>100</v>
+      </c>
+      <c r="E113" t="n">
+        <v>100</v>
+      </c>
+      <c r="F113" t="n">
+        <v>21918.4984</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-343951.8347636899</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="C102" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="D102" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="E102" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="F102" t="n">
-        <v>17</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-293756.0476636899</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="K102" t="n">
-        <v>100</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>101</v>
+      </c>
+      <c r="C114" t="n">
+        <v>101</v>
+      </c>
+      <c r="D114" t="n">
+        <v>102</v>
+      </c>
+      <c r="E114" t="n">
+        <v>101</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2577</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-341374.8347636899</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C103" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="D103" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E103" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F103" t="n">
-        <v>6</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-293750.0476636899</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="K103" t="n">
-        <v>100</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>101</v>
+      </c>
+      <c r="C115" t="n">
+        <v>101</v>
+      </c>
+      <c r="D115" t="n">
+        <v>101</v>
+      </c>
+      <c r="E115" t="n">
+        <v>100</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1070.3707</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-341374.8347636899</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C104" t="n">
-        <v>100</v>
-      </c>
-      <c r="D104" t="n">
-        <v>100</v>
-      </c>
-      <c r="E104" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F104" t="n">
-        <v>819</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-292931.0476636899</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="K104" t="n">
-        <v>100</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>101</v>
+      </c>
+      <c r="C116" t="n">
+        <v>101</v>
+      </c>
+      <c r="D116" t="n">
+        <v>101</v>
+      </c>
+      <c r="E116" t="n">
+        <v>101</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-341374.8347636899</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C105" t="n">
-        <v>100</v>
-      </c>
-      <c r="D105" t="n">
-        <v>100</v>
-      </c>
-      <c r="E105" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F105" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-292931.0476636899</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>100</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>101</v>
+      </c>
+      <c r="C117" t="n">
+        <v>102</v>
+      </c>
+      <c r="D117" t="n">
+        <v>102</v>
+      </c>
+      <c r="E117" t="n">
+        <v>101</v>
+      </c>
+      <c r="F117" t="n">
+        <v>584</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-340790.8347636899</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>102</v>
+      </c>
+      <c r="C118" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>100</v>
-      </c>
-      <c r="C106" t="n">
-        <v>100</v>
-      </c>
-      <c r="D106" t="n">
-        <v>100</v>
-      </c>
-      <c r="E106" t="n">
-        <v>100</v>
-      </c>
-      <c r="F106" t="n">
-        <v>65</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-292931.0476636899</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>100</v>
-      </c>
-      <c r="K106" t="n">
-        <v>100</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="D118" t="n">
+        <v>104</v>
+      </c>
+      <c r="E118" t="n">
+        <v>101</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1508.8134</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-339282.0213636899</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>101</v>
-      </c>
-      <c r="C107" t="n">
-        <v>101</v>
-      </c>
-      <c r="D107" t="n">
-        <v>101</v>
-      </c>
-      <c r="E107" t="n">
-        <v>101</v>
-      </c>
-      <c r="F107" t="n">
-        <v>5</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-292926.0476636899</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>100</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>100</v>
+      </c>
+      <c r="C119" t="n">
+        <v>101</v>
+      </c>
+      <c r="D119" t="n">
+        <v>101</v>
+      </c>
+      <c r="E119" t="n">
+        <v>100</v>
+      </c>
+      <c r="F119" t="n">
+        <v>30629.34</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-369911.3613636899</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C108" t="n">
-        <v>100</v>
-      </c>
-      <c r="D108" t="n">
-        <v>100</v>
-      </c>
-      <c r="E108" t="n">
-        <v>98</v>
-      </c>
-      <c r="F108" t="n">
-        <v>19005</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-311931.0476636899</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>100</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>101</v>
+      </c>
+      <c r="C120" t="n">
+        <v>101</v>
+      </c>
+      <c r="D120" t="n">
+        <v>101</v>
+      </c>
+      <c r="E120" t="n">
+        <v>101</v>
+      </c>
+      <c r="F120" t="n">
+        <v>410.1629</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-369911.3613636899</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C109" t="n">
-        <v>100</v>
-      </c>
-      <c r="D109" t="n">
-        <v>100</v>
-      </c>
-      <c r="E109" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F109" t="n">
-        <v>30.97</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-311931.0476636899</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>100</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>104</v>
+      </c>
+      <c r="D121" t="n">
+        <v>104</v>
+      </c>
+      <c r="E121" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5471.1147</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-364440.24666369</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>101</v>
-      </c>
-      <c r="C110" t="n">
-        <v>101</v>
-      </c>
-      <c r="D110" t="n">
-        <v>101</v>
-      </c>
-      <c r="E110" t="n">
-        <v>101</v>
-      </c>
-      <c r="F110" t="n">
-        <v>5</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-311926.0476636899</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>100</v>
-      </c>
-      <c r="K110" t="n">
-        <v>100</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>100</v>
+      </c>
+      <c r="C122" t="n">
+        <v>100</v>
+      </c>
+      <c r="D122" t="n">
+        <v>100</v>
+      </c>
+      <c r="E122" t="n">
+        <v>100</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1224.1296</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-365664.3762636899</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>100</v>
-      </c>
-      <c r="C111" t="n">
-        <v>100</v>
-      </c>
-      <c r="D111" t="n">
-        <v>100</v>
-      </c>
-      <c r="E111" t="n">
-        <v>100</v>
-      </c>
-      <c r="F111" t="n">
-        <v>10112.2887</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-322038.3363636899</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>100</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>104</v>
+      </c>
+      <c r="C123" t="n">
+        <v>104</v>
+      </c>
+      <c r="D123" t="n">
+        <v>104</v>
+      </c>
+      <c r="E123" t="n">
+        <v>104</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-365659.3762636899</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>101</v>
-      </c>
-      <c r="C112" t="n">
-        <v>101</v>
-      </c>
-      <c r="D112" t="n">
-        <v>101</v>
-      </c>
-      <c r="E112" t="n">
-        <v>101</v>
-      </c>
-      <c r="F112" t="n">
-        <v>5</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-322033.3363636899</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>100</v>
-      </c>
-      <c r="K112" t="n">
-        <v>100</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>100</v>
-      </c>
-      <c r="C113" t="n">
-        <v>100</v>
-      </c>
-      <c r="D113" t="n">
-        <v>100</v>
-      </c>
-      <c r="E113" t="n">
-        <v>100</v>
-      </c>
-      <c r="F113" t="n">
-        <v>21918.4984</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-343951.8347636899</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>100</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>101</v>
-      </c>
-      <c r="C114" t="n">
-        <v>101</v>
-      </c>
-      <c r="D114" t="n">
-        <v>102</v>
-      </c>
-      <c r="E114" t="n">
-        <v>101</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2577</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-341374.8347636899</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>100</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>101</v>
-      </c>
-      <c r="C115" t="n">
-        <v>101</v>
-      </c>
-      <c r="D115" t="n">
-        <v>101</v>
-      </c>
-      <c r="E115" t="n">
-        <v>100</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1070.3707</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-341374.8347636899</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>100</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>101</v>
-      </c>
-      <c r="C116" t="n">
-        <v>101</v>
-      </c>
-      <c r="D116" t="n">
-        <v>101</v>
-      </c>
-      <c r="E116" t="n">
-        <v>101</v>
-      </c>
-      <c r="F116" t="n">
-        <v>20</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-341374.8347636899</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>100</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>101</v>
-      </c>
-      <c r="C117" t="n">
-        <v>102</v>
-      </c>
-      <c r="D117" t="n">
-        <v>102</v>
-      </c>
-      <c r="E117" t="n">
-        <v>101</v>
-      </c>
-      <c r="F117" t="n">
-        <v>584</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-340790.8347636899</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>100</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>102</v>
-      </c>
-      <c r="C118" t="n">
-        <v>104</v>
-      </c>
-      <c r="D118" t="n">
-        <v>104</v>
-      </c>
-      <c r="E118" t="n">
-        <v>101</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1508.8134</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-339282.0213636899</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>100</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>100</v>
-      </c>
-      <c r="C119" t="n">
-        <v>101</v>
-      </c>
-      <c r="D119" t="n">
-        <v>101</v>
-      </c>
-      <c r="E119" t="n">
-        <v>100</v>
-      </c>
-      <c r="F119" t="n">
-        <v>30629.34</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-369911.3613636899</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>100</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>101</v>
-      </c>
-      <c r="C120" t="n">
-        <v>101</v>
-      </c>
-      <c r="D120" t="n">
-        <v>101</v>
-      </c>
-      <c r="E120" t="n">
-        <v>101</v>
-      </c>
-      <c r="F120" t="n">
-        <v>410.1629</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-369911.3613636899</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>100</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="C121" t="n">
-        <v>104</v>
-      </c>
-      <c r="D121" t="n">
-        <v>104</v>
-      </c>
-      <c r="E121" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>5471.1147</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-364440.24666369</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>100</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>100</v>
-      </c>
-      <c r="C122" t="n">
-        <v>100</v>
-      </c>
-      <c r="D122" t="n">
-        <v>100</v>
-      </c>
-      <c r="E122" t="n">
-        <v>100</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1224.1296</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-365664.3762636899</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>100</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>104</v>
-      </c>
-      <c r="C123" t="n">
-        <v>104</v>
-      </c>
-      <c r="D123" t="n">
-        <v>104</v>
-      </c>
-      <c r="E123" t="n">
-        <v>104</v>
-      </c>
-      <c r="F123" t="n">
-        <v>5</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-365659.3762636899</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>100</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5088,24 +4715,17 @@
         <v>-365671.92056369</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>100</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5132,22 +4752,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>100</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5174,22 +4785,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>100</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5216,22 +4818,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>100</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5258,22 +4851,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>100</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5300,22 +4884,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>100</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5342,22 +4917,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>100</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5384,22 +4950,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>100</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5426,22 +4983,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>100</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5468,22 +5016,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>100</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5510,22 +5049,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>100</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5552,22 +5082,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>100</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5594,22 +5115,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>100</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5636,22 +5148,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>100</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5678,22 +5181,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>100</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5720,22 +5214,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>100</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5762,22 +5247,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>100</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5804,22 +5280,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>100</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5846,22 +5313,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>100</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5888,22 +5346,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>100</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5930,22 +5379,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>100</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5972,22 +5412,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>100</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6014,22 +5445,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>100</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6056,22 +5478,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>100</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6098,22 +5511,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>100</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6140,22 +5544,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>100</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6182,22 +5577,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>100</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6224,22 +5610,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>100</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6266,22 +5643,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>100</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6308,22 +5676,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>100</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6350,22 +5709,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>100</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6392,22 +5742,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>100</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6434,22 +5775,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>100</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6476,22 +5808,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>100</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6518,22 +5841,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>100</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6560,22 +5874,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>100</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6602,22 +5907,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>100</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6644,22 +5940,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>100</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6686,22 +5973,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>100</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6728,22 +6006,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>100</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6770,22 +6039,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>100</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6812,22 +6072,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>100</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6854,22 +6105,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>100</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6896,22 +6138,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>100</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6938,22 +6171,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>100</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6980,22 +6204,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>100</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7022,22 +6237,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>100</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7064,22 +6270,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>100</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7106,22 +6303,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>100</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7148,22 +6336,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>100</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7190,22 +6369,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>100</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7232,22 +6402,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>100</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7274,22 +6435,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>100</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7316,22 +6468,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>100</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7358,22 +6501,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>100</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7400,22 +6534,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>100</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7442,22 +6567,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>100</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7484,22 +6600,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>100</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7526,22 +6633,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>100</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7568,24 +6666,15 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>100</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-42603.06999434</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-42593.31119434</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-42623.31119434</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-42613.31119434</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-42608.31119434</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-42627.55119434</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-46374.62119434</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-74249.43179433999</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-74244.43179433999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-74244.43179433999</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-74249.43179433999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-74249.43179433999</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-74249.43179433999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-70617.32679434</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-70348.61379434</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-81189.11699434</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-119998.89959434</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-124640.08439434</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-123466.08439434</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-123466.08439434</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-123466.08439434</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-158374.35489434</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-169946.55556369</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-159177.20476369</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-158833.20476369</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-159270.20476369</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-159270.20476369</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-159265.20476369</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,14 +3025,10 @@
         <v>-161855.43766369</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>101</v>
-      </c>
-      <c r="J80" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
@@ -3062,17 +3058,11 @@
         <v>-161503.43766369</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>101</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3101,17 +3091,11 @@
         <v>-161565.43766369</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>101</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3140,17 +3124,11 @@
         <v>-161577.43766369</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>101</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3179,19 +3157,11 @@
         <v>-161572.43766369</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>101</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3223,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>101</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3262,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>101</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3298,19 +3256,11 @@
         <v>-161530.21766369</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>100</v>
-      </c>
-      <c r="J87" t="n">
-        <v>101</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3339,19 +3289,11 @@
         <v>-183237.2706636899</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>101</v>
-      </c>
-      <c r="J88" t="n">
-        <v>101</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3383,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>101</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3419,19 +3355,11 @@
         <v>-182500.00096369</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>101</v>
-      </c>
-      <c r="J90" t="n">
-        <v>101</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3460,19 +3388,11 @@
         <v>-273699.99466369</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>100</v>
-      </c>
-      <c r="J91" t="n">
-        <v>101</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3504,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>101</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3543,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>101</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3582,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>101</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3618,19 +3520,11 @@
         <v>-272010.55326369</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>100</v>
-      </c>
-      <c r="J95" t="n">
-        <v>101</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3659,19 +3553,11 @@
         <v>-274015.55326369</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="J96" t="n">
-        <v>101</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3700,19 +3586,11 @@
         <v>-273610.55326369</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>101</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3741,19 +3619,11 @@
         <v>-273642.43826369</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>100</v>
-      </c>
-      <c r="J98" t="n">
-        <v>101</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3782,19 +3652,11 @@
         <v>-284293.18546369</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="J99" t="n">
-        <v>101</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3823,19 +3685,13 @@
         <v>-283120.18546369</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>101</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.9850990099009901</v>
+        <v>1</v>
       </c>
       <c r="M100" t="inlineStr"/>
     </row>
@@ -3862,17 +3718,11 @@
         <v>-293739.0476636899</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3905,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3942,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3979,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4016,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4053,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4090,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4127,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4164,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4201,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4238,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4275,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4349,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4386,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4423,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4460,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4497,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4534,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4571,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4608,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4645,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4682,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4715,16 +4477,14 @@
         <v>-365671.92056369</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
       <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
@@ -5641,11 +5401,17 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>97</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5674,11 +5440,17 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>97</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5707,11 +5479,17 @@
         <v>-375798.1982826699</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>97</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5740,11 +5518,17 @@
         <v>-372619.1982826699</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>98.90000000000001</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5773,11 +5557,17 @@
         <v>-374480.2052826699</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>103</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5810,7 +5600,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5843,7 +5637,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5876,7 +5674,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5909,7 +5711,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5942,7 +5748,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5975,7 +5785,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6008,7 +5822,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6041,7 +5859,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6074,7 +5896,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6107,7 +5933,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6140,7 +5970,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6173,7 +6007,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6206,7 +6044,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6239,7 +6081,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6272,7 +6118,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6305,7 +6155,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6192,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6371,7 +6229,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6404,7 +6266,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6437,7 +6303,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6470,7 +6340,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6503,7 +6377,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6536,7 +6414,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6569,7 +6451,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6602,7 +6488,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6635,7 +6525,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6668,13 +6562,17 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
       <c r="M183" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>-74249.43179433999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-71965.61379434</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-81189.11699434</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-81184.11699434</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-119321.70949434</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-119321.70949434</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-119998.89959434</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-124640.08439434</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-123466.08439434</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-123466.08439434</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-123466.08439434</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-158374.35489434</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-369911.3613636899</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4972,10 +4972,14 @@
         <v>-372312.6316636899</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
@@ -5008,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5051,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5090,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5129,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5168,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5204,19 @@
         <v>-377076.0009723499</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>99</v>
+      </c>
+      <c r="J145" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5284,19 @@
         <v>-374592.3112826699</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="J147" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5325,19 @@
         <v>-374592.3112826699</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J148" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5369,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5408,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5447,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,15 +5483,15 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>97</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -5440,12 +5522,12 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>97</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5479,12 +5561,12 @@
         <v>-375798.1982826699</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>97</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5523,7 +5605,9 @@
       <c r="I155" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5557,12 +5641,12 @@
         <v>-374480.2052826699</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>103</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5599,7 +5683,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5636,7 +5722,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5673,7 +5761,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5710,7 +5800,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5744,10 +5836,14 @@
         <v>-338109.0063259099</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="J161" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5784,7 +5880,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5821,7 +5919,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5858,7 +5958,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5895,7 +5997,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,7 +6036,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5969,7 +6075,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6006,7 +6114,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6043,7 +6153,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6080,7 +6192,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6117,7 +6231,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6154,7 +6270,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6191,7 +6309,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6228,7 +6348,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6265,7 +6387,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6302,7 +6426,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6339,7 +6465,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6376,7 +6504,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6413,7 +6543,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6450,7 +6582,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6484,17 +6618,19 @@
         <v>-330741.7688259098</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>98.2</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>1.033696537678208</v>
       </c>
       <c r="M181" t="inlineStr"/>
     </row>
@@ -6521,15 +6657,11 @@
         <v>-330741.7688259098</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6558,21 +6690,17 @@
         <v>-441891.2925259098</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
       <c r="M183" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -451,7 +451,7 @@
         <v>-42603.06999434</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-42593.31119434</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-42613.31119434</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-74244.43179433999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-74244.43179433999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-74249.43179433999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-74249.43179433999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-70617.32679434</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-70348.61379434</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-81189.11699434</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-81189.11699434</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-81184.11699434</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-119321.70949434</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-119321.70949434</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-158875.20476369</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-159270.20476369</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-369911.3613636899</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5204,11 +5204,9 @@
         <v>-377076.0009723499</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>98.2</v>
       </c>
@@ -5284,11 +5282,9 @@
         <v>-374592.3112826699</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>95.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>98.2</v>
       </c>
@@ -5325,11 +5321,9 @@
         <v>-374592.3112826699</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>99.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>98.2</v>
       </c>
@@ -5405,9 +5399,11 @@
         <v>-374998.3112826699</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>99.90000000000001</v>
+      </c>
       <c r="J150" t="n">
         <v>98.2</v>
       </c>
@@ -5444,9 +5440,11 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="J151" t="n">
         <v>98.2</v>
       </c>
@@ -5483,9 +5481,11 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>97</v>
+      </c>
       <c r="J152" t="n">
         <v>98.2</v>
       </c>
@@ -5522,9 +5522,11 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>97</v>
+      </c>
       <c r="J153" t="n">
         <v>98.2</v>
       </c>
@@ -5561,9 +5563,11 @@
         <v>-375798.1982826699</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>97</v>
+      </c>
       <c r="J154" t="n">
         <v>98.2</v>
       </c>
@@ -5641,9 +5645,11 @@
         <v>-374480.2052826699</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>103</v>
+      </c>
       <c r="J156" t="n">
         <v>98.2</v>
       </c>
@@ -5680,9 +5686,11 @@
         <v>-373419.2052826699</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>99</v>
+      </c>
       <c r="J157" t="n">
         <v>98.2</v>
       </c>
@@ -5758,9 +5766,11 @@
         <v>-376619.2052826699</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>99</v>
+      </c>
       <c r="J159" t="n">
         <v>98.2</v>
       </c>
@@ -6618,7 +6628,7 @@
         <v>-330741.7688259098</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
@@ -6626,11 +6636,11 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L181" t="n">
-        <v>1.033696537678208</v>
+        <v>1</v>
       </c>
       <c r="M181" t="inlineStr"/>
     </row>
@@ -6657,11 +6667,19 @@
         <v>-330741.7688259098</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>102</v>
+      </c>
+      <c r="J182" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6690,11 +6708,17 @@
         <v>-441891.2925259098</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-13 BackTest SALT.xlsx
+++ b/BackTest/2019-11-13 BackTest SALT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3572.0896</v>
       </c>
       <c r="G2" t="n">
-        <v>-42603.06999434</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>9.758800000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-42593.31119434</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>-42623.31119434</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-42613.31119434</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>-42608.31119434</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>19.24</v>
       </c>
       <c r="G7" t="n">
-        <v>-42627.55119434</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>3747.07</v>
       </c>
       <c r="G8" t="n">
-        <v>-46374.62119434</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>27874.8106</v>
       </c>
       <c r="G9" t="n">
-        <v>-74249.43179433999</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>-74244.43179433999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>-74244.43179433999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>-74249.43179433999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-74249.43179433999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>4480.9868</v>
       </c>
       <c r="G14" t="n">
-        <v>-74249.43179433999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3632.105</v>
       </c>
       <c r="G15" t="n">
-        <v>-70617.32679434</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>268.713</v>
       </c>
       <c r="G16" t="n">
-        <v>-70348.61379434</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1617</v>
       </c>
       <c r="G17" t="n">
-        <v>-71965.61379434</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>9223.503199999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-81189.11699434</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>22393.6645</v>
       </c>
       <c r="G19" t="n">
-        <v>-81189.11699434</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>-81184.11699434</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>38137.5925</v>
       </c>
       <c r="G21" t="n">
-        <v>-119321.70949434</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2905.2313</v>
       </c>
       <c r="G22" t="n">
-        <v>-119321.70949434</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1986</v>
       </c>
       <c r="G23" t="n">
-        <v>-117335.70949434</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2668.1901</v>
       </c>
       <c r="G24" t="n">
-        <v>-120003.89959434</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>-119998.89959434</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1192</v>
       </c>
       <c r="G26" t="n">
-        <v>-119998.89959434</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>7920.7920792</v>
       </c>
       <c r="G27" t="n">
-        <v>-119998.89959434</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>9150</v>
       </c>
       <c r="G28" t="n">
-        <v>-119998.89959434</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>4641.1848</v>
       </c>
       <c r="G29" t="n">
-        <v>-124640.08439434</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1174</v>
       </c>
       <c r="G30" t="n">
-        <v>-123466.08439434</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>400</v>
       </c>
       <c r="G31" t="n">
-        <v>-123466.08439434</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>800</v>
       </c>
       <c r="G32" t="n">
-        <v>-123466.08439434</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>34908.2705</v>
       </c>
       <c r="G33" t="n">
-        <v>-158374.35489434</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>-158369.35489434</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>10584.6362</v>
       </c>
       <c r="G35" t="n">
-        <v>-158369.35489434</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>400</v>
       </c>
       <c r="G36" t="n">
-        <v>-158369.35489434</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>11266.2078</v>
       </c>
       <c r="G37" t="n">
-        <v>-169635.56269434</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>31.22613065</v>
       </c>
       <c r="G38" t="n">
-        <v>-169604.33656369</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>50</v>
       </c>
       <c r="G39" t="n">
-        <v>-169604.33656369</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>25.1</v>
       </c>
       <c r="G40" t="n">
-        <v>-169604.33656369</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>682.5453</v>
       </c>
       <c r="G41" t="n">
-        <v>-170286.88186369</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>3061.545</v>
       </c>
       <c r="G42" t="n">
-        <v>-167225.33686369</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>4000</v>
       </c>
       <c r="G43" t="n">
-        <v>-167225.33686369</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>612.6652</v>
       </c>
       <c r="G44" t="n">
-        <v>-167225.33686369</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>929.1967</v>
       </c>
       <c r="G45" t="n">
-        <v>-168154.53356369</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,19 @@
         <v>1792.022</v>
       </c>
       <c r="G46" t="n">
-        <v>-169946.55556369</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>98.40000000000001</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1797,23 @@
         <v>4981.5192</v>
       </c>
       <c r="G47" t="n">
-        <v>-164965.03636369</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>98.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1835,21 @@
         <v>1800</v>
       </c>
       <c r="G48" t="n">
-        <v>-163165.03636369</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1871,23 @@
         <v>2000</v>
       </c>
       <c r="G49" t="n">
-        <v>-165165.03636369</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I49" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1909,21 @@
         <v>215</v>
       </c>
       <c r="G50" t="n">
-        <v>-164950.03636369</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1945,21 @@
         <v>2200</v>
       </c>
       <c r="G51" t="n">
-        <v>-167150.03636369</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1981,23 @@
         <v>4936.0849</v>
       </c>
       <c r="G52" t="n">
-        <v>-167150.03636369</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>98.2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2019,23 @@
         <v>293.9463</v>
       </c>
       <c r="G53" t="n">
-        <v>-166856.09006369</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>98.2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2057,23 @@
         <v>223</v>
       </c>
       <c r="G54" t="n">
-        <v>-166856.09006369</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>99.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2095,23 @@
         <v>762</v>
       </c>
       <c r="G55" t="n">
-        <v>-166094.09006369</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>99.7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2133,23 @@
         <v>3987.7315</v>
       </c>
       <c r="G56" t="n">
-        <v>-166094.09006369</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>99.8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2171,21 @@
         <v>400</v>
       </c>
       <c r="G57" t="n">
-        <v>-166094.09006369</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2207,23 @@
         <v>23944</v>
       </c>
       <c r="G58" t="n">
-        <v>-142150.09006369</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>99.8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2245,21 @@
         <v>859.1671</v>
       </c>
       <c r="G59" t="n">
-        <v>-142150.09006369</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2281,21 @@
         <v>1398.04804804</v>
       </c>
       <c r="G60" t="n">
-        <v>-142150.09006369</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2317,21 @@
         <v>17340.3367</v>
       </c>
       <c r="G61" t="n">
-        <v>-159490.42676369</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2353,23 @@
         <v>5.1</v>
       </c>
       <c r="G62" t="n">
-        <v>-159485.32676369</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>96.8</v>
+      </c>
+      <c r="I62" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2391,23 @@
         <v>2305</v>
       </c>
       <c r="G63" t="n">
-        <v>-157180.32676369</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>99.7</v>
+      </c>
+      <c r="I63" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2429,23 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-157190.32676369</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="I64" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2467,21 @@
         <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>-157185.32676369</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2503,21 @@
         <v>1991.878</v>
       </c>
       <c r="G66" t="n">
-        <v>-159177.20476369</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2539,21 @@
         <v>1762.3583</v>
       </c>
       <c r="G67" t="n">
-        <v>-159177.20476369</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2575,21 @@
         <v>400</v>
       </c>
       <c r="G68" t="n">
-        <v>-159177.20476369</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2611,21 @@
         <v>114</v>
       </c>
       <c r="G69" t="n">
-        <v>-159177.20476369</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2647,21 @@
         <v>2763</v>
       </c>
       <c r="G70" t="n">
-        <v>-159177.20476369</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2683,23 @@
         <v>800</v>
       </c>
       <c r="G71" t="n">
-        <v>-159177.20476369</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I71" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2721,23 @@
         <v>357</v>
       </c>
       <c r="G72" t="n">
-        <v>-159177.20476369</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I72" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2759,23 @@
         <v>344</v>
       </c>
       <c r="G73" t="n">
-        <v>-158833.20476369</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I73" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2797,23 @@
         <v>73</v>
       </c>
       <c r="G74" t="n">
-        <v>-158833.20476369</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="I74" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2835,21 @@
         <v>42</v>
       </c>
       <c r="G75" t="n">
-        <v>-158875.20476369</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2871,21 @@
         <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>-158870.20476369</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2907,23 @@
         <v>400</v>
       </c>
       <c r="G77" t="n">
-        <v>-159270.20476369</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="I77" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2945,23 @@
         <v>1600</v>
       </c>
       <c r="G78" t="n">
-        <v>-159270.20476369</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I78" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2983,23 @@
         <v>5</v>
       </c>
       <c r="G79" t="n">
-        <v>-159265.20476369</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I79" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3021,23 @@
         <v>2590.2329</v>
       </c>
       <c r="G80" t="n">
-        <v>-161855.43766369</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="I80" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3059,23 @@
         <v>352</v>
       </c>
       <c r="G81" t="n">
-        <v>-161503.43766369</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>97.09999999999999</v>
+      </c>
+      <c r="I81" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3097,23 @@
         <v>62</v>
       </c>
       <c r="G82" t="n">
-        <v>-161565.43766369</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="I82" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3135,23 @@
         <v>12</v>
       </c>
       <c r="G83" t="n">
-        <v>-161577.43766369</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>97.3</v>
+      </c>
+      <c r="I83" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3173,23 @@
         <v>5</v>
       </c>
       <c r="G84" t="n">
-        <v>-161572.43766369</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>97.2</v>
+      </c>
+      <c r="I84" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3211,23 @@
         <v>12.78</v>
       </c>
       <c r="G85" t="n">
-        <v>-161585.21766369</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="I85" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3249,21 @@
         <v>50</v>
       </c>
       <c r="G86" t="n">
-        <v>-161535.21766369</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3285,21 @@
         <v>5</v>
       </c>
       <c r="G87" t="n">
-        <v>-161530.21766369</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3321,21 @@
         <v>21707.053</v>
       </c>
       <c r="G88" t="n">
-        <v>-183237.2706636899</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3357,21 @@
         <v>763.4201</v>
       </c>
       <c r="G89" t="n">
-        <v>-182473.8505636899</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3393,21 @@
         <v>26.1504</v>
       </c>
       <c r="G90" t="n">
-        <v>-182500.00096369</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3429,21 @@
         <v>91199.99370000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-273699.99466369</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9614634146341462</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3465,15 @@
         <v>1200</v>
       </c>
       <c r="G92" t="n">
-        <v>-272499.99466369</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3495,21 @@
         <v>556</v>
       </c>
       <c r="G93" t="n">
-        <v>-271943.99466369</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3531,19 @@
         <v>2651.1559</v>
       </c>
       <c r="G94" t="n">
-        <v>-271943.99466369</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3565,19 @@
         <v>66.5586</v>
       </c>
       <c r="G95" t="n">
-        <v>-272010.55326369</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3599,19 @@
         <v>2005</v>
       </c>
       <c r="G96" t="n">
-        <v>-274015.55326369</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3633,19 @@
         <v>405</v>
       </c>
       <c r="G97" t="n">
-        <v>-273610.55326369</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3667,19 @@
         <v>31.885</v>
       </c>
       <c r="G98" t="n">
-        <v>-273642.43826369</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3701,19 @@
         <v>10650.7472</v>
       </c>
       <c r="G99" t="n">
-        <v>-284293.18546369</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3735,19 @@
         <v>1173</v>
       </c>
       <c r="G100" t="n">
-        <v>-283120.18546369</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3769,19 @@
         <v>10618.8622</v>
       </c>
       <c r="G101" t="n">
-        <v>-293739.0476636899</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3803,19 @@
         <v>17</v>
       </c>
       <c r="G102" t="n">
-        <v>-293756.0476636899</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3837,19 @@
         <v>6</v>
       </c>
       <c r="G103" t="n">
-        <v>-293750.0476636899</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3871,19 @@
         <v>819</v>
       </c>
       <c r="G104" t="n">
-        <v>-292931.0476636899</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3905,19 @@
         <v>17.84</v>
       </c>
       <c r="G105" t="n">
-        <v>-292931.0476636899</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3939,19 @@
         <v>65</v>
       </c>
       <c r="G106" t="n">
-        <v>-292931.0476636899</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3973,19 @@
         <v>5</v>
       </c>
       <c r="G107" t="n">
-        <v>-292926.0476636899</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4007,19 @@
         <v>19005</v>
       </c>
       <c r="G108" t="n">
-        <v>-311931.0476636899</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4041,19 @@
         <v>30.97</v>
       </c>
       <c r="G109" t="n">
-        <v>-311931.0476636899</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4075,19 @@
         <v>5</v>
       </c>
       <c r="G110" t="n">
-        <v>-311926.0476636899</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4109,19 @@
         <v>10112.2887</v>
       </c>
       <c r="G111" t="n">
-        <v>-322038.3363636899</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4143,19 @@
         <v>5</v>
       </c>
       <c r="G112" t="n">
-        <v>-322033.3363636899</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4177,19 @@
         <v>21918.4984</v>
       </c>
       <c r="G113" t="n">
-        <v>-343951.8347636899</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4211,19 @@
         <v>2577</v>
       </c>
       <c r="G114" t="n">
-        <v>-341374.8347636899</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4245,19 @@
         <v>1070.3707</v>
       </c>
       <c r="G115" t="n">
-        <v>-341374.8347636899</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4279,19 @@
         <v>20</v>
       </c>
       <c r="G116" t="n">
-        <v>-341374.8347636899</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4313,19 @@
         <v>584</v>
       </c>
       <c r="G117" t="n">
-        <v>-340790.8347636899</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4347,19 @@
         <v>1508.8134</v>
       </c>
       <c r="G118" t="n">
-        <v>-339282.0213636899</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4381,19 @@
         <v>30629.34</v>
       </c>
       <c r="G119" t="n">
-        <v>-369911.3613636899</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4415,19 @@
         <v>410.1629</v>
       </c>
       <c r="G120" t="n">
-        <v>-369911.3613636899</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4449,19 @@
         <v>5471.1147</v>
       </c>
       <c r="G121" t="n">
-        <v>-364440.24666369</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4483,19 @@
         <v>1224.1296</v>
       </c>
       <c r="G122" t="n">
-        <v>-365664.3762636899</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4517,19 @@
         <v>5</v>
       </c>
       <c r="G123" t="n">
-        <v>-365659.3762636899</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4551,19 @@
         <v>12.5443</v>
       </c>
       <c r="G124" t="n">
-        <v>-365671.92056369</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4585,19 @@
         <v>30908.2046</v>
       </c>
       <c r="G125" t="n">
-        <v>-365671.92056369</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4619,19 @@
         <v>800</v>
       </c>
       <c r="G126" t="n">
-        <v>-365671.92056369</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4653,19 @@
         <v>996.5439</v>
       </c>
       <c r="G127" t="n">
-        <v>-364675.37666369</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4687,19 @@
         <v>4733.6232</v>
       </c>
       <c r="G128" t="n">
-        <v>-364675.37666369</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4721,19 @@
         <v>400</v>
       </c>
       <c r="G129" t="n">
-        <v>-365075.37666369</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4755,19 @@
         <v>1319.73</v>
       </c>
       <c r="G130" t="n">
-        <v>-366395.1066636899</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4789,19 @@
         <v>1372.38</v>
       </c>
       <c r="G131" t="n">
-        <v>-367767.48666369</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4823,19 @@
         <v>2000</v>
       </c>
       <c r="G132" t="n">
-        <v>-365767.48666369</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4857,19 @@
         <v>105</v>
       </c>
       <c r="G133" t="n">
-        <v>-365662.48666369</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4891,19 @@
         <v>531.6378999999999</v>
       </c>
       <c r="G134" t="n">
-        <v>-365662.48666369</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4925,19 @@
         <v>1402.1568</v>
       </c>
       <c r="G135" t="n">
-        <v>-365662.48666369</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4959,19 @@
         <v>520</v>
       </c>
       <c r="G136" t="n">
-        <v>-365142.48666369</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4993,19 @@
         <v>3986</v>
       </c>
       <c r="G137" t="n">
-        <v>-365142.48666369</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5027,19 @@
         <v>7175.045</v>
       </c>
       <c r="G138" t="n">
-        <v>-372317.5316636899</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,22 +5061,19 @@
         <v>4.9</v>
       </c>
       <c r="G139" t="n">
-        <v>-372312.6316636899</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="J139" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5006,24 +5095,19 @@
         <v>2300.1076</v>
       </c>
       <c r="G140" t="n">
-        <v>-374612.7392636899</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5045,24 +5129,19 @@
         <v>46.9975</v>
       </c>
       <c r="G141" t="n">
-        <v>-374659.7367636899</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5084,24 +5163,19 @@
         <v>9674.990191340001</v>
       </c>
       <c r="G142" t="n">
-        <v>-364984.7465723499</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5123,24 +5197,19 @@
         <v>26323.587</v>
       </c>
       <c r="G143" t="n">
-        <v>-391308.3335723499</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5162,24 +5231,19 @@
         <v>14182.3326</v>
       </c>
       <c r="G144" t="n">
-        <v>-377126.0009723499</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5201,24 +5265,19 @@
         <v>50</v>
       </c>
       <c r="G145" t="n">
-        <v>-377076.0009723499</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5240,24 +5299,19 @@
         <v>6</v>
       </c>
       <c r="G146" t="n">
-        <v>-377082.0009723499</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5279,24 +5333,19 @@
         <v>2489.68968968</v>
       </c>
       <c r="G147" t="n">
-        <v>-374592.3112826699</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5318,24 +5367,19 @@
         <v>800</v>
       </c>
       <c r="G148" t="n">
-        <v>-374592.3112826699</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5357,24 +5401,19 @@
         <v>1000</v>
       </c>
       <c r="G149" t="n">
-        <v>-374592.3112826699</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5396,26 +5435,19 @@
         <v>406</v>
       </c>
       <c r="G150" t="n">
-        <v>-374998.3112826699</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="J150" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5437,26 +5469,19 @@
         <v>2026.887</v>
       </c>
       <c r="G151" t="n">
-        <v>-377025.1982826699</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="J151" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5478,26 +5503,19 @@
         <v>800</v>
       </c>
       <c r="G152" t="n">
-        <v>-377025.1982826699</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>97</v>
-      </c>
-      <c r="J152" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5519,26 +5537,19 @@
         <v>1600</v>
       </c>
       <c r="G153" t="n">
-        <v>-377025.1982826699</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>97</v>
-      </c>
-      <c r="J153" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5560,26 +5571,19 @@
         <v>1227</v>
       </c>
       <c r="G154" t="n">
-        <v>-375798.1982826699</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>97</v>
-      </c>
-      <c r="J154" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5601,26 +5605,19 @@
         <v>3179</v>
       </c>
       <c r="G155" t="n">
-        <v>-372619.1982826699</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="J155" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5642,26 +5639,19 @@
         <v>1861.007</v>
       </c>
       <c r="G156" t="n">
-        <v>-374480.2052826699</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>103</v>
-      </c>
-      <c r="J156" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5683,26 +5673,19 @@
         <v>1061</v>
       </c>
       <c r="G157" t="n">
-        <v>-373419.2052826699</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>99</v>
-      </c>
-      <c r="J157" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5724,24 +5707,19 @@
         <v>3200</v>
       </c>
       <c r="G158" t="n">
-        <v>-376619.2052826699</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5763,26 +5741,19 @@
         <v>567.8911000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>-376619.2052826699</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>99</v>
-      </c>
-      <c r="J159" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5804,24 +5775,19 @@
         <v>26.1504</v>
       </c>
       <c r="G160" t="n">
-        <v>-376645.3556826698</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5843,26 +5809,19 @@
         <v>38536.34935676</v>
       </c>
       <c r="G161" t="n">
-        <v>-338109.0063259099</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="J161" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5884,24 +5843,19 @@
         <v>2800</v>
       </c>
       <c r="G162" t="n">
-        <v>-340909.0063259099</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5923,24 +5877,19 @@
         <v>400</v>
       </c>
       <c r="G163" t="n">
-        <v>-340509.0063259099</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5962,24 +5911,19 @@
         <v>4107.337</v>
       </c>
       <c r="G164" t="n">
-        <v>-336401.6693259099</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6001,24 +5945,19 @@
         <v>518.3998</v>
       </c>
       <c r="G165" t="n">
-        <v>-335883.2695259099</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6040,24 +5979,19 @@
         <v>49.4947</v>
       </c>
       <c r="G166" t="n">
-        <v>-335932.7642259098</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6079,24 +6013,19 @@
         <v>5346.96</v>
       </c>
       <c r="G167" t="n">
-        <v>-330585.8042259098</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6118,24 +6047,19 @@
         <v>4876.67</v>
       </c>
       <c r="G168" t="n">
-        <v>-335462.4742259098</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6157,24 +6081,19 @@
         <v>12530.1389</v>
       </c>
       <c r="G169" t="n">
-        <v>-335462.4742259098</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6196,24 +6115,19 @@
         <v>326.96</v>
       </c>
       <c r="G170" t="n">
-        <v>-335135.5142259098</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6235,24 +6149,19 @@
         <v>59.04</v>
       </c>
       <c r="G171" t="n">
-        <v>-335135.5142259098</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6274,24 +6183,19 @@
         <v>385</v>
       </c>
       <c r="G172" t="n">
-        <v>-335520.5142259098</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6313,24 +6217,19 @@
         <v>828.2026</v>
       </c>
       <c r="G173" t="n">
-        <v>-335520.5142259098</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6352,24 +6251,19 @@
         <v>4000</v>
       </c>
       <c r="G174" t="n">
-        <v>-335520.5142259098</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6391,24 +6285,19 @@
         <v>5150.7454</v>
       </c>
       <c r="G175" t="n">
-        <v>-330369.7688259098</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6430,24 +6319,19 @@
         <v>659</v>
       </c>
       <c r="G176" t="n">
-        <v>-330369.7688259098</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6469,24 +6353,19 @@
         <v>996</v>
       </c>
       <c r="G177" t="n">
-        <v>-330369.7688259098</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6508,24 +6387,19 @@
         <v>3986.1434</v>
       </c>
       <c r="G178" t="n">
-        <v>-330369.7688259098</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6547,24 +6421,17 @@
         <v>372</v>
       </c>
       <c r="G179" t="n">
-        <v>-330741.7688259098</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6586,24 +6453,15 @@
         <v>10393</v>
       </c>
       <c r="G180" t="n">
-        <v>-330741.7688259098</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6625,24 +6483,15 @@
         <v>21648.7523</v>
       </c>
       <c r="G181" t="n">
-        <v>-330741.7688259098</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6664,26 +6513,15 @@
         <v>51771.2573</v>
       </c>
       <c r="G182" t="n">
-        <v>-330741.7688259098</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>102</v>
-      </c>
-      <c r="J182" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6705,24 +6543,15 @@
         <v>111149.5237</v>
       </c>
       <c r="G183" t="n">
-        <v>-441891.2925259098</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
